--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -26,13 +26,19 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Not executed</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Not executed</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -104,16 +110,40 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -124,12 +154,12 @@
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -137,10 +167,10 @@
     </row>
     <row r="6">
       <c r="F6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -130,18 +130,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
@@ -154,7 +142,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -170,7 +158,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
+  </si>
+  <si>
+    <t>007</t>
   </si>
   <si>
     <t>N/A</t>
@@ -114,16 +117,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -131,7 +134,7 @@
     </row>
     <row r="3">
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -139,7 +142,7 @@
     </row>
     <row r="4">
       <c r="F4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
@@ -147,7 +150,7 @@
     </row>
     <row r="5">
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -155,7 +158,7 @@
     </row>
     <row r="6">
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t/>
+    <t>12/12/22 12:09:59</t>
   </si>
   <si>
     <t>Not executed</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -29,7 +29,7 @@
     <t>007</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>What is appear in test?</t>
   </si>
   <si>
     <t>12/12/22 12:09:59</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -35,10 +35,10 @@
     <t>12/12/22 12:09:59</t>
   </si>
   <si>
-    <t>Not executed</t>
+    <t>Pass</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>Not executed</t>
   </si>
   <si>
     <t>Fail</t>
@@ -126,13 +126,25 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
@@ -142,7 +154,7 @@
     </row>
     <row r="4">
       <c r="F4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>1.0</v>
@@ -161,7 +173,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -129,7 +129,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -143,7 +143,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -153,6 +153,18 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
@@ -161,6 +173,18 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
@@ -169,11 +193,23 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -92,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,7 +129,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="3">
@@ -169,7 +169,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -209,7 +209,217 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -26,13 +26,22 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>What is appear in test?</t>
+  </si>
+  <si>
+    <t>12/12/22 12:09:59</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>Not executed</t>
   </si>
   <si>
-    <t>Not executed</t>
+    <t>Fail</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -83,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -104,43 +113,1153 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -26,13 +26,22 @@
     <t>Test Case Results (Pass / Fail / Not executed / Suspended)</t>
   </si>
   <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>What is appear in test?</t>
+  </si>
+  <si>
+    <t>12/12/22 12:09:59</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>Not executed</t>
   </si>
   <si>
-    <t>Not executed</t>
+    <t>Fail</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -83,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -104,43 +113,1433 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -92,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,7 +129,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>80.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="3">
@@ -169,7 +169,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="5">
@@ -209,7 +209,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="7">
@@ -1539,6 +1539,5606 @@
         <v>6</v>
       </c>
       <c r="D101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>4</v>
+      </c>
+      <c r="B363" t="s">
+        <v>5</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>4</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B365" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>4</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>4</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>4</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>4</v>
+      </c>
+      <c r="B369" t="s">
+        <v>5</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>4</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>4</v>
+      </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+      <c r="C375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>4</v>
+      </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>4</v>
+      </c>
+      <c r="B379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>4</v>
+      </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B381" t="s">
+        <v>5</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>4</v>
+      </c>
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>4</v>
+      </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>4</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>4</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>4</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>4</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>4</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>4</v>
+      </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>4</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>4</v>
+      </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>4</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>4</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>4</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>4</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>4</v>
+      </c>
+      <c r="B419" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>4</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>4</v>
+      </c>
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>4</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423" t="s">
+        <v>6</v>
+      </c>
+      <c r="D423" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>4</v>
+      </c>
+      <c r="B424" t="s">
+        <v>5</v>
+      </c>
+      <c r="C424" t="s">
+        <v>6</v>
+      </c>
+      <c r="D424" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>4</v>
+      </c>
+      <c r="B425" t="s">
+        <v>5</v>
+      </c>
+      <c r="C425" t="s">
+        <v>6</v>
+      </c>
+      <c r="D425" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>4</v>
+      </c>
+      <c r="B426" t="s">
+        <v>5</v>
+      </c>
+      <c r="C426" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>4</v>
+      </c>
+      <c r="B427" t="s">
+        <v>5</v>
+      </c>
+      <c r="C427" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>4</v>
+      </c>
+      <c r="B428" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428" t="s">
+        <v>6</v>
+      </c>
+      <c r="D428" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>4</v>
+      </c>
+      <c r="B429" t="s">
+        <v>5</v>
+      </c>
+      <c r="C429" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>4</v>
+      </c>
+      <c r="B430" t="s">
+        <v>5</v>
+      </c>
+      <c r="C430" t="s">
+        <v>6</v>
+      </c>
+      <c r="D430" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>4</v>
+      </c>
+      <c r="B431" t="s">
+        <v>5</v>
+      </c>
+      <c r="C431" t="s">
+        <v>6</v>
+      </c>
+      <c r="D431" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>4</v>
+      </c>
+      <c r="B432" t="s">
+        <v>5</v>
+      </c>
+      <c r="C432" t="s">
+        <v>6</v>
+      </c>
+      <c r="D432" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>4</v>
+      </c>
+      <c r="B433" t="s">
+        <v>5</v>
+      </c>
+      <c r="C433" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>4</v>
+      </c>
+      <c r="B434" t="s">
+        <v>5</v>
+      </c>
+      <c r="C434" t="s">
+        <v>6</v>
+      </c>
+      <c r="D434" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>4</v>
+      </c>
+      <c r="B435" t="s">
+        <v>5</v>
+      </c>
+      <c r="C435" t="s">
+        <v>6</v>
+      </c>
+      <c r="D435" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>4</v>
+      </c>
+      <c r="B436" t="s">
+        <v>5</v>
+      </c>
+      <c r="C436" t="s">
+        <v>6</v>
+      </c>
+      <c r="D436" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>4</v>
+      </c>
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" t="s">
+        <v>6</v>
+      </c>
+      <c r="D437" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>4</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>4</v>
+      </c>
+      <c r="B439" t="s">
+        <v>5</v>
+      </c>
+      <c r="C439" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>4</v>
+      </c>
+      <c r="B440" t="s">
+        <v>5</v>
+      </c>
+      <c r="C440" t="s">
+        <v>6</v>
+      </c>
+      <c r="D440" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>4</v>
+      </c>
+      <c r="B441" t="s">
+        <v>5</v>
+      </c>
+      <c r="C441" t="s">
+        <v>6</v>
+      </c>
+      <c r="D441" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>4</v>
+      </c>
+      <c r="B442" t="s">
+        <v>5</v>
+      </c>
+      <c r="C442" t="s">
+        <v>6</v>
+      </c>
+      <c r="D442" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>4</v>
+      </c>
+      <c r="B443" t="s">
+        <v>5</v>
+      </c>
+      <c r="C443" t="s">
+        <v>6</v>
+      </c>
+      <c r="D443" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+      <c r="C444" t="s">
+        <v>6</v>
+      </c>
+      <c r="D444" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B445" t="s">
+        <v>5</v>
+      </c>
+      <c r="C445" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>4</v>
+      </c>
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>4</v>
+      </c>
+      <c r="B447" t="s">
+        <v>5</v>
+      </c>
+      <c r="C447" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>4</v>
+      </c>
+      <c r="B448" t="s">
+        <v>5</v>
+      </c>
+      <c r="C448" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>4</v>
+      </c>
+      <c r="B449" t="s">
+        <v>5</v>
+      </c>
+      <c r="C449" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>4</v>
+      </c>
+      <c r="B450" t="s">
+        <v>5</v>
+      </c>
+      <c r="C450" t="s">
+        <v>6</v>
+      </c>
+      <c r="D450" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>4</v>
+      </c>
+      <c r="B451" t="s">
+        <v>5</v>
+      </c>
+      <c r="C451" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>4</v>
+      </c>
+      <c r="B452" t="s">
+        <v>5</v>
+      </c>
+      <c r="C452" t="s">
+        <v>6</v>
+      </c>
+      <c r="D452" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>4</v>
+      </c>
+      <c r="B453" t="s">
+        <v>5</v>
+      </c>
+      <c r="C453" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>4</v>
+      </c>
+      <c r="B454" t="s">
+        <v>5</v>
+      </c>
+      <c r="C454" t="s">
+        <v>6</v>
+      </c>
+      <c r="D454" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>4</v>
+      </c>
+      <c r="B455" t="s">
+        <v>5</v>
+      </c>
+      <c r="C455" t="s">
+        <v>6</v>
+      </c>
+      <c r="D455" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>4</v>
+      </c>
+      <c r="B456" t="s">
+        <v>5</v>
+      </c>
+      <c r="C456" t="s">
+        <v>6</v>
+      </c>
+      <c r="D456" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>4</v>
+      </c>
+      <c r="B457" t="s">
+        <v>5</v>
+      </c>
+      <c r="C457" t="s">
+        <v>6</v>
+      </c>
+      <c r="D457" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B458" t="s">
+        <v>5</v>
+      </c>
+      <c r="C458" t="s">
+        <v>6</v>
+      </c>
+      <c r="D458" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>4</v>
+      </c>
+      <c r="B459" t="s">
+        <v>5</v>
+      </c>
+      <c r="C459" t="s">
+        <v>6</v>
+      </c>
+      <c r="D459" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>4</v>
+      </c>
+      <c r="B460" t="s">
+        <v>5</v>
+      </c>
+      <c r="C460" t="s">
+        <v>6</v>
+      </c>
+      <c r="D460" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B461" t="s">
+        <v>5</v>
+      </c>
+      <c r="C461" t="s">
+        <v>6</v>
+      </c>
+      <c r="D461" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>4</v>
+      </c>
+      <c r="B462" t="s">
+        <v>5</v>
+      </c>
+      <c r="C462" t="s">
+        <v>6</v>
+      </c>
+      <c r="D462" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>4</v>
+      </c>
+      <c r="B463" t="s">
+        <v>5</v>
+      </c>
+      <c r="C463" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>4</v>
+      </c>
+      <c r="B464" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>4</v>
+      </c>
+      <c r="B465" t="s">
+        <v>5</v>
+      </c>
+      <c r="C465" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>4</v>
+      </c>
+      <c r="B466" t="s">
+        <v>5</v>
+      </c>
+      <c r="C466" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>4</v>
+      </c>
+      <c r="B467" t="s">
+        <v>5</v>
+      </c>
+      <c r="C467" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>4</v>
+      </c>
+      <c r="B468" t="s">
+        <v>5</v>
+      </c>
+      <c r="C468" t="s">
+        <v>6</v>
+      </c>
+      <c r="D468" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>4</v>
+      </c>
+      <c r="B469" t="s">
+        <v>5</v>
+      </c>
+      <c r="C469" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>4</v>
+      </c>
+      <c r="B470" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" t="s">
+        <v>6</v>
+      </c>
+      <c r="D470" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>4</v>
+      </c>
+      <c r="B471" t="s">
+        <v>5</v>
+      </c>
+      <c r="C471" t="s">
+        <v>6</v>
+      </c>
+      <c r="D471" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>4</v>
+      </c>
+      <c r="B472" t="s">
+        <v>5</v>
+      </c>
+      <c r="C472" t="s">
+        <v>6</v>
+      </c>
+      <c r="D472" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>4</v>
+      </c>
+      <c r="B473" t="s">
+        <v>5</v>
+      </c>
+      <c r="C473" t="s">
+        <v>6</v>
+      </c>
+      <c r="D473" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>4</v>
+      </c>
+      <c r="B474" t="s">
+        <v>5</v>
+      </c>
+      <c r="C474" t="s">
+        <v>6</v>
+      </c>
+      <c r="D474" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>4</v>
+      </c>
+      <c r="B475" t="s">
+        <v>5</v>
+      </c>
+      <c r="C475" t="s">
+        <v>6</v>
+      </c>
+      <c r="D475" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>4</v>
+      </c>
+      <c r="B476" t="s">
+        <v>5</v>
+      </c>
+      <c r="C476" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>4</v>
+      </c>
+      <c r="B477" t="s">
+        <v>5</v>
+      </c>
+      <c r="C477" t="s">
+        <v>6</v>
+      </c>
+      <c r="D477" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B478" t="s">
+        <v>5</v>
+      </c>
+      <c r="C478" t="s">
+        <v>6</v>
+      </c>
+      <c r="D478" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>4</v>
+      </c>
+      <c r="B479" t="s">
+        <v>5</v>
+      </c>
+      <c r="C479" t="s">
+        <v>6</v>
+      </c>
+      <c r="D479" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>4</v>
+      </c>
+      <c r="B480" t="s">
+        <v>5</v>
+      </c>
+      <c r="C480" t="s">
+        <v>6</v>
+      </c>
+      <c r="D480" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>4</v>
+      </c>
+      <c r="B481" t="s">
+        <v>5</v>
+      </c>
+      <c r="C481" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>4</v>
+      </c>
+      <c r="B482" t="s">
+        <v>5</v>
+      </c>
+      <c r="C482" t="s">
+        <v>6</v>
+      </c>
+      <c r="D482" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>4</v>
+      </c>
+      <c r="B483" t="s">
+        <v>5</v>
+      </c>
+      <c r="C483" t="s">
+        <v>6</v>
+      </c>
+      <c r="D483" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>4</v>
+      </c>
+      <c r="B484" t="s">
+        <v>5</v>
+      </c>
+      <c r="C484" t="s">
+        <v>6</v>
+      </c>
+      <c r="D484" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>4</v>
+      </c>
+      <c r="B485" t="s">
+        <v>5</v>
+      </c>
+      <c r="C485" t="s">
+        <v>6</v>
+      </c>
+      <c r="D485" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>4</v>
+      </c>
+      <c r="B486" t="s">
+        <v>5</v>
+      </c>
+      <c r="C486" t="s">
+        <v>6</v>
+      </c>
+      <c r="D486" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>4</v>
+      </c>
+      <c r="B487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C487" t="s">
+        <v>6</v>
+      </c>
+      <c r="D487" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B488" t="s">
+        <v>5</v>
+      </c>
+      <c r="C488" t="s">
+        <v>6</v>
+      </c>
+      <c r="D488" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>4</v>
+      </c>
+      <c r="B489" t="s">
+        <v>5</v>
+      </c>
+      <c r="C489" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>4</v>
+      </c>
+      <c r="B490" t="s">
+        <v>5</v>
+      </c>
+      <c r="C490" t="s">
+        <v>6</v>
+      </c>
+      <c r="D490" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>4</v>
+      </c>
+      <c r="B491" t="s">
+        <v>5</v>
+      </c>
+      <c r="C491" t="s">
+        <v>6</v>
+      </c>
+      <c r="D491" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>4</v>
+      </c>
+      <c r="B492" t="s">
+        <v>5</v>
+      </c>
+      <c r="C492" t="s">
+        <v>6</v>
+      </c>
+      <c r="D492" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>4</v>
+      </c>
+      <c r="B493" t="s">
+        <v>5</v>
+      </c>
+      <c r="C493" t="s">
+        <v>6</v>
+      </c>
+      <c r="D493" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B494" t="s">
+        <v>5</v>
+      </c>
+      <c r="C494" t="s">
+        <v>6</v>
+      </c>
+      <c r="D494" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B495" t="s">
+        <v>5</v>
+      </c>
+      <c r="C495" t="s">
+        <v>6</v>
+      </c>
+      <c r="D495" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>4</v>
+      </c>
+      <c r="B496" t="s">
+        <v>5</v>
+      </c>
+      <c r="C496" t="s">
+        <v>6</v>
+      </c>
+      <c r="D496" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>4</v>
+      </c>
+      <c r="B497" t="s">
+        <v>5</v>
+      </c>
+      <c r="C497" t="s">
+        <v>6</v>
+      </c>
+      <c r="D497" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B498" t="s">
+        <v>5</v>
+      </c>
+      <c r="C498" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B499" t="s">
+        <v>5</v>
+      </c>
+      <c r="C499" t="s">
+        <v>6</v>
+      </c>
+      <c r="D499" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>4</v>
+      </c>
+      <c r="B500" t="s">
+        <v>5</v>
+      </c>
+      <c r="C500" t="s">
+        <v>6</v>
+      </c>
+      <c r="D500" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B501" t="s">
+        <v>5</v>
+      </c>
+      <c r="C501" t="s">
+        <v>6</v>
+      </c>
+      <c r="D501" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -92,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,7 +129,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="3">
@@ -169,7 +169,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="5">
@@ -209,7 +209,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="7">
@@ -7139,6 +7139,7006 @@
         <v>6</v>
       </c>
       <c r="D501" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>4</v>
+      </c>
+      <c r="B502" t="s">
+        <v>5</v>
+      </c>
+      <c r="C502" t="s">
+        <v>6</v>
+      </c>
+      <c r="D502" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>4</v>
+      </c>
+      <c r="B503" t="s">
+        <v>5</v>
+      </c>
+      <c r="C503" t="s">
+        <v>6</v>
+      </c>
+      <c r="D503" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>4</v>
+      </c>
+      <c r="B504" t="s">
+        <v>5</v>
+      </c>
+      <c r="C504" t="s">
+        <v>6</v>
+      </c>
+      <c r="D504" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>4</v>
+      </c>
+      <c r="B505" t="s">
+        <v>5</v>
+      </c>
+      <c r="C505" t="s">
+        <v>6</v>
+      </c>
+      <c r="D505" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>4</v>
+      </c>
+      <c r="B506" t="s">
+        <v>5</v>
+      </c>
+      <c r="C506" t="s">
+        <v>6</v>
+      </c>
+      <c r="D506" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>4</v>
+      </c>
+      <c r="B507" t="s">
+        <v>5</v>
+      </c>
+      <c r="C507" t="s">
+        <v>6</v>
+      </c>
+      <c r="D507" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>4</v>
+      </c>
+      <c r="B508" t="s">
+        <v>5</v>
+      </c>
+      <c r="C508" t="s">
+        <v>6</v>
+      </c>
+      <c r="D508" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>4</v>
+      </c>
+      <c r="B509" t="s">
+        <v>5</v>
+      </c>
+      <c r="C509" t="s">
+        <v>6</v>
+      </c>
+      <c r="D509" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>4</v>
+      </c>
+      <c r="B510" t="s">
+        <v>5</v>
+      </c>
+      <c r="C510" t="s">
+        <v>6</v>
+      </c>
+      <c r="D510" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>4</v>
+      </c>
+      <c r="B511" t="s">
+        <v>5</v>
+      </c>
+      <c r="C511" t="s">
+        <v>6</v>
+      </c>
+      <c r="D511" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>4</v>
+      </c>
+      <c r="B512" t="s">
+        <v>5</v>
+      </c>
+      <c r="C512" t="s">
+        <v>6</v>
+      </c>
+      <c r="D512" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>4</v>
+      </c>
+      <c r="B513" t="s">
+        <v>5</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>4</v>
+      </c>
+      <c r="B514" t="s">
+        <v>5</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>4</v>
+      </c>
+      <c r="B515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C515" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>4</v>
+      </c>
+      <c r="B516" t="s">
+        <v>5</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>4</v>
+      </c>
+      <c r="B517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C517" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>4</v>
+      </c>
+      <c r="B518" t="s">
+        <v>5</v>
+      </c>
+      <c r="C518" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>4</v>
+      </c>
+      <c r="B519" t="s">
+        <v>5</v>
+      </c>
+      <c r="C519" t="s">
+        <v>6</v>
+      </c>
+      <c r="D519" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>4</v>
+      </c>
+      <c r="B520" t="s">
+        <v>5</v>
+      </c>
+      <c r="C520" t="s">
+        <v>6</v>
+      </c>
+      <c r="D520" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>4</v>
+      </c>
+      <c r="B521" t="s">
+        <v>5</v>
+      </c>
+      <c r="C521" t="s">
+        <v>6</v>
+      </c>
+      <c r="D521" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>4</v>
+      </c>
+      <c r="B522" t="s">
+        <v>5</v>
+      </c>
+      <c r="C522" t="s">
+        <v>6</v>
+      </c>
+      <c r="D522" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>4</v>
+      </c>
+      <c r="B523" t="s">
+        <v>5</v>
+      </c>
+      <c r="C523" t="s">
+        <v>6</v>
+      </c>
+      <c r="D523" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>4</v>
+      </c>
+      <c r="B524" t="s">
+        <v>5</v>
+      </c>
+      <c r="C524" t="s">
+        <v>6</v>
+      </c>
+      <c r="D524" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>4</v>
+      </c>
+      <c r="B525" t="s">
+        <v>5</v>
+      </c>
+      <c r="C525" t="s">
+        <v>6</v>
+      </c>
+      <c r="D525" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>4</v>
+      </c>
+      <c r="B526" t="s">
+        <v>5</v>
+      </c>
+      <c r="C526" t="s">
+        <v>6</v>
+      </c>
+      <c r="D526" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>4</v>
+      </c>
+      <c r="B527" t="s">
+        <v>5</v>
+      </c>
+      <c r="C527" t="s">
+        <v>6</v>
+      </c>
+      <c r="D527" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>4</v>
+      </c>
+      <c r="B528" t="s">
+        <v>5</v>
+      </c>
+      <c r="C528" t="s">
+        <v>6</v>
+      </c>
+      <c r="D528" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>4</v>
+      </c>
+      <c r="B529" t="s">
+        <v>5</v>
+      </c>
+      <c r="C529" t="s">
+        <v>6</v>
+      </c>
+      <c r="D529" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>4</v>
+      </c>
+      <c r="B530" t="s">
+        <v>5</v>
+      </c>
+      <c r="C530" t="s">
+        <v>6</v>
+      </c>
+      <c r="D530" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>4</v>
+      </c>
+      <c r="B531" t="s">
+        <v>5</v>
+      </c>
+      <c r="C531" t="s">
+        <v>6</v>
+      </c>
+      <c r="D531" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>4</v>
+      </c>
+      <c r="B532" t="s">
+        <v>5</v>
+      </c>
+      <c r="C532" t="s">
+        <v>6</v>
+      </c>
+      <c r="D532" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>4</v>
+      </c>
+      <c r="B533" t="s">
+        <v>5</v>
+      </c>
+      <c r="C533" t="s">
+        <v>6</v>
+      </c>
+      <c r="D533" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>4</v>
+      </c>
+      <c r="B534" t="s">
+        <v>5</v>
+      </c>
+      <c r="C534" t="s">
+        <v>6</v>
+      </c>
+      <c r="D534" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>4</v>
+      </c>
+      <c r="B535" t="s">
+        <v>5</v>
+      </c>
+      <c r="C535" t="s">
+        <v>6</v>
+      </c>
+      <c r="D535" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>4</v>
+      </c>
+      <c r="B536" t="s">
+        <v>5</v>
+      </c>
+      <c r="C536" t="s">
+        <v>6</v>
+      </c>
+      <c r="D536" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>4</v>
+      </c>
+      <c r="B537" t="s">
+        <v>5</v>
+      </c>
+      <c r="C537" t="s">
+        <v>6</v>
+      </c>
+      <c r="D537" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>4</v>
+      </c>
+      <c r="B538" t="s">
+        <v>5</v>
+      </c>
+      <c r="C538" t="s">
+        <v>6</v>
+      </c>
+      <c r="D538" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>4</v>
+      </c>
+      <c r="B539" t="s">
+        <v>5</v>
+      </c>
+      <c r="C539" t="s">
+        <v>6</v>
+      </c>
+      <c r="D539" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>4</v>
+      </c>
+      <c r="B540" t="s">
+        <v>5</v>
+      </c>
+      <c r="C540" t="s">
+        <v>6</v>
+      </c>
+      <c r="D540" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>4</v>
+      </c>
+      <c r="B541" t="s">
+        <v>5</v>
+      </c>
+      <c r="C541" t="s">
+        <v>6</v>
+      </c>
+      <c r="D541" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>4</v>
+      </c>
+      <c r="B542" t="s">
+        <v>5</v>
+      </c>
+      <c r="C542" t="s">
+        <v>6</v>
+      </c>
+      <c r="D542" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>4</v>
+      </c>
+      <c r="B543" t="s">
+        <v>5</v>
+      </c>
+      <c r="C543" t="s">
+        <v>6</v>
+      </c>
+      <c r="D543" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>4</v>
+      </c>
+      <c r="B544" t="s">
+        <v>5</v>
+      </c>
+      <c r="C544" t="s">
+        <v>6</v>
+      </c>
+      <c r="D544" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>4</v>
+      </c>
+      <c r="B545" t="s">
+        <v>5</v>
+      </c>
+      <c r="C545" t="s">
+        <v>6</v>
+      </c>
+      <c r="D545" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>4</v>
+      </c>
+      <c r="B546" t="s">
+        <v>5</v>
+      </c>
+      <c r="C546" t="s">
+        <v>6</v>
+      </c>
+      <c r="D546" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>4</v>
+      </c>
+      <c r="B547" t="s">
+        <v>5</v>
+      </c>
+      <c r="C547" t="s">
+        <v>6</v>
+      </c>
+      <c r="D547" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>4</v>
+      </c>
+      <c r="B548" t="s">
+        <v>5</v>
+      </c>
+      <c r="C548" t="s">
+        <v>6</v>
+      </c>
+      <c r="D548" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>4</v>
+      </c>
+      <c r="B549" t="s">
+        <v>5</v>
+      </c>
+      <c r="C549" t="s">
+        <v>6</v>
+      </c>
+      <c r="D549" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>4</v>
+      </c>
+      <c r="B550" t="s">
+        <v>5</v>
+      </c>
+      <c r="C550" t="s">
+        <v>6</v>
+      </c>
+      <c r="D550" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>4</v>
+      </c>
+      <c r="B551" t="s">
+        <v>5</v>
+      </c>
+      <c r="C551" t="s">
+        <v>6</v>
+      </c>
+      <c r="D551" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>4</v>
+      </c>
+      <c r="B552" t="s">
+        <v>5</v>
+      </c>
+      <c r="C552" t="s">
+        <v>6</v>
+      </c>
+      <c r="D552" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>4</v>
+      </c>
+      <c r="B553" t="s">
+        <v>5</v>
+      </c>
+      <c r="C553" t="s">
+        <v>6</v>
+      </c>
+      <c r="D553" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>4</v>
+      </c>
+      <c r="B554" t="s">
+        <v>5</v>
+      </c>
+      <c r="C554" t="s">
+        <v>6</v>
+      </c>
+      <c r="D554" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>4</v>
+      </c>
+      <c r="B555" t="s">
+        <v>5</v>
+      </c>
+      <c r="C555" t="s">
+        <v>6</v>
+      </c>
+      <c r="D555" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>4</v>
+      </c>
+      <c r="B556" t="s">
+        <v>5</v>
+      </c>
+      <c r="C556" t="s">
+        <v>6</v>
+      </c>
+      <c r="D556" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>4</v>
+      </c>
+      <c r="B557" t="s">
+        <v>5</v>
+      </c>
+      <c r="C557" t="s">
+        <v>6</v>
+      </c>
+      <c r="D557" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>4</v>
+      </c>
+      <c r="B558" t="s">
+        <v>5</v>
+      </c>
+      <c r="C558" t="s">
+        <v>6</v>
+      </c>
+      <c r="D558" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>4</v>
+      </c>
+      <c r="B559" t="s">
+        <v>5</v>
+      </c>
+      <c r="C559" t="s">
+        <v>6</v>
+      </c>
+      <c r="D559" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>4</v>
+      </c>
+      <c r="B560" t="s">
+        <v>5</v>
+      </c>
+      <c r="C560" t="s">
+        <v>6</v>
+      </c>
+      <c r="D560" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>4</v>
+      </c>
+      <c r="B561" t="s">
+        <v>5</v>
+      </c>
+      <c r="C561" t="s">
+        <v>6</v>
+      </c>
+      <c r="D561" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>4</v>
+      </c>
+      <c r="B562" t="s">
+        <v>5</v>
+      </c>
+      <c r="C562" t="s">
+        <v>6</v>
+      </c>
+      <c r="D562" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>4</v>
+      </c>
+      <c r="B563" t="s">
+        <v>5</v>
+      </c>
+      <c r="C563" t="s">
+        <v>6</v>
+      </c>
+      <c r="D563" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>4</v>
+      </c>
+      <c r="B564" t="s">
+        <v>5</v>
+      </c>
+      <c r="C564" t="s">
+        <v>6</v>
+      </c>
+      <c r="D564" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>4</v>
+      </c>
+      <c r="B565" t="s">
+        <v>5</v>
+      </c>
+      <c r="C565" t="s">
+        <v>6</v>
+      </c>
+      <c r="D565" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>4</v>
+      </c>
+      <c r="B566" t="s">
+        <v>5</v>
+      </c>
+      <c r="C566" t="s">
+        <v>6</v>
+      </c>
+      <c r="D566" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>4</v>
+      </c>
+      <c r="B567" t="s">
+        <v>5</v>
+      </c>
+      <c r="C567" t="s">
+        <v>6</v>
+      </c>
+      <c r="D567" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>4</v>
+      </c>
+      <c r="B568" t="s">
+        <v>5</v>
+      </c>
+      <c r="C568" t="s">
+        <v>6</v>
+      </c>
+      <c r="D568" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>4</v>
+      </c>
+      <c r="B569" t="s">
+        <v>5</v>
+      </c>
+      <c r="C569" t="s">
+        <v>6</v>
+      </c>
+      <c r="D569" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>4</v>
+      </c>
+      <c r="B570" t="s">
+        <v>5</v>
+      </c>
+      <c r="C570" t="s">
+        <v>6</v>
+      </c>
+      <c r="D570" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>4</v>
+      </c>
+      <c r="B571" t="s">
+        <v>5</v>
+      </c>
+      <c r="C571" t="s">
+        <v>6</v>
+      </c>
+      <c r="D571" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>4</v>
+      </c>
+      <c r="B572" t="s">
+        <v>5</v>
+      </c>
+      <c r="C572" t="s">
+        <v>6</v>
+      </c>
+      <c r="D572" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>4</v>
+      </c>
+      <c r="B573" t="s">
+        <v>5</v>
+      </c>
+      <c r="C573" t="s">
+        <v>6</v>
+      </c>
+      <c r="D573" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>4</v>
+      </c>
+      <c r="B574" t="s">
+        <v>5</v>
+      </c>
+      <c r="C574" t="s">
+        <v>6</v>
+      </c>
+      <c r="D574" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>4</v>
+      </c>
+      <c r="B575" t="s">
+        <v>5</v>
+      </c>
+      <c r="C575" t="s">
+        <v>6</v>
+      </c>
+      <c r="D575" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>4</v>
+      </c>
+      <c r="B576" t="s">
+        <v>5</v>
+      </c>
+      <c r="C576" t="s">
+        <v>6</v>
+      </c>
+      <c r="D576" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>4</v>
+      </c>
+      <c r="B577" t="s">
+        <v>5</v>
+      </c>
+      <c r="C577" t="s">
+        <v>6</v>
+      </c>
+      <c r="D577" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>4</v>
+      </c>
+      <c r="B578" t="s">
+        <v>5</v>
+      </c>
+      <c r="C578" t="s">
+        <v>6</v>
+      </c>
+      <c r="D578" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>4</v>
+      </c>
+      <c r="B579" t="s">
+        <v>5</v>
+      </c>
+      <c r="C579" t="s">
+        <v>6</v>
+      </c>
+      <c r="D579" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>4</v>
+      </c>
+      <c r="B580" t="s">
+        <v>5</v>
+      </c>
+      <c r="C580" t="s">
+        <v>6</v>
+      </c>
+      <c r="D580" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>4</v>
+      </c>
+      <c r="B581" t="s">
+        <v>5</v>
+      </c>
+      <c r="C581" t="s">
+        <v>6</v>
+      </c>
+      <c r="D581" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>4</v>
+      </c>
+      <c r="B582" t="s">
+        <v>5</v>
+      </c>
+      <c r="C582" t="s">
+        <v>6</v>
+      </c>
+      <c r="D582" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>4</v>
+      </c>
+      <c r="B583" t="s">
+        <v>5</v>
+      </c>
+      <c r="C583" t="s">
+        <v>6</v>
+      </c>
+      <c r="D583" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>4</v>
+      </c>
+      <c r="B584" t="s">
+        <v>5</v>
+      </c>
+      <c r="C584" t="s">
+        <v>6</v>
+      </c>
+      <c r="D584" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>4</v>
+      </c>
+      <c r="B585" t="s">
+        <v>5</v>
+      </c>
+      <c r="C585" t="s">
+        <v>6</v>
+      </c>
+      <c r="D585" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>4</v>
+      </c>
+      <c r="B586" t="s">
+        <v>5</v>
+      </c>
+      <c r="C586" t="s">
+        <v>6</v>
+      </c>
+      <c r="D586" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>4</v>
+      </c>
+      <c r="B587" t="s">
+        <v>5</v>
+      </c>
+      <c r="C587" t="s">
+        <v>6</v>
+      </c>
+      <c r="D587" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>4</v>
+      </c>
+      <c r="B588" t="s">
+        <v>5</v>
+      </c>
+      <c r="C588" t="s">
+        <v>6</v>
+      </c>
+      <c r="D588" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>4</v>
+      </c>
+      <c r="B589" t="s">
+        <v>5</v>
+      </c>
+      <c r="C589" t="s">
+        <v>6</v>
+      </c>
+      <c r="D589" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>4</v>
+      </c>
+      <c r="B590" t="s">
+        <v>5</v>
+      </c>
+      <c r="C590" t="s">
+        <v>6</v>
+      </c>
+      <c r="D590" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>4</v>
+      </c>
+      <c r="B591" t="s">
+        <v>5</v>
+      </c>
+      <c r="C591" t="s">
+        <v>6</v>
+      </c>
+      <c r="D591" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>4</v>
+      </c>
+      <c r="B592" t="s">
+        <v>5</v>
+      </c>
+      <c r="C592" t="s">
+        <v>6</v>
+      </c>
+      <c r="D592" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>4</v>
+      </c>
+      <c r="B593" t="s">
+        <v>5</v>
+      </c>
+      <c r="C593" t="s">
+        <v>6</v>
+      </c>
+      <c r="D593" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>4</v>
+      </c>
+      <c r="B594" t="s">
+        <v>5</v>
+      </c>
+      <c r="C594" t="s">
+        <v>6</v>
+      </c>
+      <c r="D594" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>4</v>
+      </c>
+      <c r="B595" t="s">
+        <v>5</v>
+      </c>
+      <c r="C595" t="s">
+        <v>6</v>
+      </c>
+      <c r="D595" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>4</v>
+      </c>
+      <c r="B596" t="s">
+        <v>5</v>
+      </c>
+      <c r="C596" t="s">
+        <v>6</v>
+      </c>
+      <c r="D596" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>4</v>
+      </c>
+      <c r="B597" t="s">
+        <v>5</v>
+      </c>
+      <c r="C597" t="s">
+        <v>6</v>
+      </c>
+      <c r="D597" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>4</v>
+      </c>
+      <c r="B598" t="s">
+        <v>5</v>
+      </c>
+      <c r="C598" t="s">
+        <v>6</v>
+      </c>
+      <c r="D598" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>4</v>
+      </c>
+      <c r="B599" t="s">
+        <v>5</v>
+      </c>
+      <c r="C599" t="s">
+        <v>6</v>
+      </c>
+      <c r="D599" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>4</v>
+      </c>
+      <c r="B600" t="s">
+        <v>5</v>
+      </c>
+      <c r="C600" t="s">
+        <v>6</v>
+      </c>
+      <c r="D600" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>4</v>
+      </c>
+      <c r="B601" t="s">
+        <v>5</v>
+      </c>
+      <c r="C601" t="s">
+        <v>6</v>
+      </c>
+      <c r="D601" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>4</v>
+      </c>
+      <c r="B602" t="s">
+        <v>5</v>
+      </c>
+      <c r="C602" t="s">
+        <v>6</v>
+      </c>
+      <c r="D602" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>4</v>
+      </c>
+      <c r="B603" t="s">
+        <v>5</v>
+      </c>
+      <c r="C603" t="s">
+        <v>6</v>
+      </c>
+      <c r="D603" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>4</v>
+      </c>
+      <c r="B604" t="s">
+        <v>5</v>
+      </c>
+      <c r="C604" t="s">
+        <v>6</v>
+      </c>
+      <c r="D604" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>4</v>
+      </c>
+      <c r="B605" t="s">
+        <v>5</v>
+      </c>
+      <c r="C605" t="s">
+        <v>6</v>
+      </c>
+      <c r="D605" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>4</v>
+      </c>
+      <c r="B606" t="s">
+        <v>5</v>
+      </c>
+      <c r="C606" t="s">
+        <v>6</v>
+      </c>
+      <c r="D606" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>4</v>
+      </c>
+      <c r="B607" t="s">
+        <v>5</v>
+      </c>
+      <c r="C607" t="s">
+        <v>6</v>
+      </c>
+      <c r="D607" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>4</v>
+      </c>
+      <c r="B608" t="s">
+        <v>5</v>
+      </c>
+      <c r="C608" t="s">
+        <v>6</v>
+      </c>
+      <c r="D608" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>4</v>
+      </c>
+      <c r="B609" t="s">
+        <v>5</v>
+      </c>
+      <c r="C609" t="s">
+        <v>6</v>
+      </c>
+      <c r="D609" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>4</v>
+      </c>
+      <c r="B610" t="s">
+        <v>5</v>
+      </c>
+      <c r="C610" t="s">
+        <v>6</v>
+      </c>
+      <c r="D610" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>4</v>
+      </c>
+      <c r="B611" t="s">
+        <v>5</v>
+      </c>
+      <c r="C611" t="s">
+        <v>6</v>
+      </c>
+      <c r="D611" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>4</v>
+      </c>
+      <c r="B612" t="s">
+        <v>5</v>
+      </c>
+      <c r="C612" t="s">
+        <v>6</v>
+      </c>
+      <c r="D612" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>4</v>
+      </c>
+      <c r="B613" t="s">
+        <v>5</v>
+      </c>
+      <c r="C613" t="s">
+        <v>6</v>
+      </c>
+      <c r="D613" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>4</v>
+      </c>
+      <c r="B614" t="s">
+        <v>5</v>
+      </c>
+      <c r="C614" t="s">
+        <v>6</v>
+      </c>
+      <c r="D614" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>4</v>
+      </c>
+      <c r="B615" t="s">
+        <v>5</v>
+      </c>
+      <c r="C615" t="s">
+        <v>6</v>
+      </c>
+      <c r="D615" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>4</v>
+      </c>
+      <c r="B616" t="s">
+        <v>5</v>
+      </c>
+      <c r="C616" t="s">
+        <v>6</v>
+      </c>
+      <c r="D616" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>4</v>
+      </c>
+      <c r="B617" t="s">
+        <v>5</v>
+      </c>
+      <c r="C617" t="s">
+        <v>6</v>
+      </c>
+      <c r="D617" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>4</v>
+      </c>
+      <c r="B618" t="s">
+        <v>5</v>
+      </c>
+      <c r="C618" t="s">
+        <v>6</v>
+      </c>
+      <c r="D618" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>4</v>
+      </c>
+      <c r="B619" t="s">
+        <v>5</v>
+      </c>
+      <c r="C619" t="s">
+        <v>6</v>
+      </c>
+      <c r="D619" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>4</v>
+      </c>
+      <c r="B620" t="s">
+        <v>5</v>
+      </c>
+      <c r="C620" t="s">
+        <v>6</v>
+      </c>
+      <c r="D620" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>4</v>
+      </c>
+      <c r="B621" t="s">
+        <v>5</v>
+      </c>
+      <c r="C621" t="s">
+        <v>6</v>
+      </c>
+      <c r="D621" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>4</v>
+      </c>
+      <c r="B622" t="s">
+        <v>5</v>
+      </c>
+      <c r="C622" t="s">
+        <v>6</v>
+      </c>
+      <c r="D622" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>4</v>
+      </c>
+      <c r="B623" t="s">
+        <v>5</v>
+      </c>
+      <c r="C623" t="s">
+        <v>6</v>
+      </c>
+      <c r="D623" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>4</v>
+      </c>
+      <c r="B624" t="s">
+        <v>5</v>
+      </c>
+      <c r="C624" t="s">
+        <v>6</v>
+      </c>
+      <c r="D624" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>4</v>
+      </c>
+      <c r="B625" t="s">
+        <v>5</v>
+      </c>
+      <c r="C625" t="s">
+        <v>6</v>
+      </c>
+      <c r="D625" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>4</v>
+      </c>
+      <c r="B626" t="s">
+        <v>5</v>
+      </c>
+      <c r="C626" t="s">
+        <v>6</v>
+      </c>
+      <c r="D626" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>4</v>
+      </c>
+      <c r="B627" t="s">
+        <v>5</v>
+      </c>
+      <c r="C627" t="s">
+        <v>6</v>
+      </c>
+      <c r="D627" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>4</v>
+      </c>
+      <c r="B628" t="s">
+        <v>5</v>
+      </c>
+      <c r="C628" t="s">
+        <v>6</v>
+      </c>
+      <c r="D628" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>4</v>
+      </c>
+      <c r="B629" t="s">
+        <v>5</v>
+      </c>
+      <c r="C629" t="s">
+        <v>6</v>
+      </c>
+      <c r="D629" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>4</v>
+      </c>
+      <c r="B630" t="s">
+        <v>5</v>
+      </c>
+      <c r="C630" t="s">
+        <v>6</v>
+      </c>
+      <c r="D630" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>4</v>
+      </c>
+      <c r="B631" t="s">
+        <v>5</v>
+      </c>
+      <c r="C631" t="s">
+        <v>6</v>
+      </c>
+      <c r="D631" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>4</v>
+      </c>
+      <c r="B632" t="s">
+        <v>5</v>
+      </c>
+      <c r="C632" t="s">
+        <v>6</v>
+      </c>
+      <c r="D632" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>4</v>
+      </c>
+      <c r="B633" t="s">
+        <v>5</v>
+      </c>
+      <c r="C633" t="s">
+        <v>6</v>
+      </c>
+      <c r="D633" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>4</v>
+      </c>
+      <c r="B634" t="s">
+        <v>5</v>
+      </c>
+      <c r="C634" t="s">
+        <v>6</v>
+      </c>
+      <c r="D634" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>4</v>
+      </c>
+      <c r="B635" t="s">
+        <v>5</v>
+      </c>
+      <c r="C635" t="s">
+        <v>6</v>
+      </c>
+      <c r="D635" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>4</v>
+      </c>
+      <c r="B636" t="s">
+        <v>5</v>
+      </c>
+      <c r="C636" t="s">
+        <v>6</v>
+      </c>
+      <c r="D636" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>4</v>
+      </c>
+      <c r="B637" t="s">
+        <v>5</v>
+      </c>
+      <c r="C637" t="s">
+        <v>6</v>
+      </c>
+      <c r="D637" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>4</v>
+      </c>
+      <c r="B638" t="s">
+        <v>5</v>
+      </c>
+      <c r="C638" t="s">
+        <v>6</v>
+      </c>
+      <c r="D638" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>4</v>
+      </c>
+      <c r="B639" t="s">
+        <v>5</v>
+      </c>
+      <c r="C639" t="s">
+        <v>6</v>
+      </c>
+      <c r="D639" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>4</v>
+      </c>
+      <c r="B640" t="s">
+        <v>5</v>
+      </c>
+      <c r="C640" t="s">
+        <v>6</v>
+      </c>
+      <c r="D640" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>4</v>
+      </c>
+      <c r="B641" t="s">
+        <v>5</v>
+      </c>
+      <c r="C641" t="s">
+        <v>6</v>
+      </c>
+      <c r="D641" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>4</v>
+      </c>
+      <c r="B642" t="s">
+        <v>5</v>
+      </c>
+      <c r="C642" t="s">
+        <v>6</v>
+      </c>
+      <c r="D642" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>4</v>
+      </c>
+      <c r="B643" t="s">
+        <v>5</v>
+      </c>
+      <c r="C643" t="s">
+        <v>6</v>
+      </c>
+      <c r="D643" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>4</v>
+      </c>
+      <c r="B644" t="s">
+        <v>5</v>
+      </c>
+      <c r="C644" t="s">
+        <v>6</v>
+      </c>
+      <c r="D644" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>4</v>
+      </c>
+      <c r="B645" t="s">
+        <v>5</v>
+      </c>
+      <c r="C645" t="s">
+        <v>6</v>
+      </c>
+      <c r="D645" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>4</v>
+      </c>
+      <c r="B646" t="s">
+        <v>5</v>
+      </c>
+      <c r="C646" t="s">
+        <v>6</v>
+      </c>
+      <c r="D646" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>4</v>
+      </c>
+      <c r="B647" t="s">
+        <v>5</v>
+      </c>
+      <c r="C647" t="s">
+        <v>6</v>
+      </c>
+      <c r="D647" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>4</v>
+      </c>
+      <c r="B648" t="s">
+        <v>5</v>
+      </c>
+      <c r="C648" t="s">
+        <v>6</v>
+      </c>
+      <c r="D648" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>4</v>
+      </c>
+      <c r="B649" t="s">
+        <v>5</v>
+      </c>
+      <c r="C649" t="s">
+        <v>6</v>
+      </c>
+      <c r="D649" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>4</v>
+      </c>
+      <c r="B650" t="s">
+        <v>5</v>
+      </c>
+      <c r="C650" t="s">
+        <v>6</v>
+      </c>
+      <c r="D650" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>4</v>
+      </c>
+      <c r="B651" t="s">
+        <v>5</v>
+      </c>
+      <c r="C651" t="s">
+        <v>6</v>
+      </c>
+      <c r="D651" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>4</v>
+      </c>
+      <c r="B652" t="s">
+        <v>5</v>
+      </c>
+      <c r="C652" t="s">
+        <v>6</v>
+      </c>
+      <c r="D652" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>4</v>
+      </c>
+      <c r="B653" t="s">
+        <v>5</v>
+      </c>
+      <c r="C653" t="s">
+        <v>6</v>
+      </c>
+      <c r="D653" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>4</v>
+      </c>
+      <c r="B654" t="s">
+        <v>5</v>
+      </c>
+      <c r="C654" t="s">
+        <v>6</v>
+      </c>
+      <c r="D654" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>4</v>
+      </c>
+      <c r="B655" t="s">
+        <v>5</v>
+      </c>
+      <c r="C655" t="s">
+        <v>6</v>
+      </c>
+      <c r="D655" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>4</v>
+      </c>
+      <c r="B656" t="s">
+        <v>5</v>
+      </c>
+      <c r="C656" t="s">
+        <v>6</v>
+      </c>
+      <c r="D656" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>4</v>
+      </c>
+      <c r="B657" t="s">
+        <v>5</v>
+      </c>
+      <c r="C657" t="s">
+        <v>6</v>
+      </c>
+      <c r="D657" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>4</v>
+      </c>
+      <c r="B658" t="s">
+        <v>5</v>
+      </c>
+      <c r="C658" t="s">
+        <v>6</v>
+      </c>
+      <c r="D658" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>4</v>
+      </c>
+      <c r="B659" t="s">
+        <v>5</v>
+      </c>
+      <c r="C659" t="s">
+        <v>6</v>
+      </c>
+      <c r="D659" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>4</v>
+      </c>
+      <c r="B660" t="s">
+        <v>5</v>
+      </c>
+      <c r="C660" t="s">
+        <v>6</v>
+      </c>
+      <c r="D660" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>4</v>
+      </c>
+      <c r="B661" t="s">
+        <v>5</v>
+      </c>
+      <c r="C661" t="s">
+        <v>6</v>
+      </c>
+      <c r="D661" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>4</v>
+      </c>
+      <c r="B662" t="s">
+        <v>5</v>
+      </c>
+      <c r="C662" t="s">
+        <v>6</v>
+      </c>
+      <c r="D662" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>4</v>
+      </c>
+      <c r="B663" t="s">
+        <v>5</v>
+      </c>
+      <c r="C663" t="s">
+        <v>6</v>
+      </c>
+      <c r="D663" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>4</v>
+      </c>
+      <c r="B664" t="s">
+        <v>5</v>
+      </c>
+      <c r="C664" t="s">
+        <v>6</v>
+      </c>
+      <c r="D664" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>4</v>
+      </c>
+      <c r="B665" t="s">
+        <v>5</v>
+      </c>
+      <c r="C665" t="s">
+        <v>6</v>
+      </c>
+      <c r="D665" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>4</v>
+      </c>
+      <c r="B666" t="s">
+        <v>5</v>
+      </c>
+      <c r="C666" t="s">
+        <v>6</v>
+      </c>
+      <c r="D666" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>4</v>
+      </c>
+      <c r="B667" t="s">
+        <v>5</v>
+      </c>
+      <c r="C667" t="s">
+        <v>6</v>
+      </c>
+      <c r="D667" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>4</v>
+      </c>
+      <c r="B668" t="s">
+        <v>5</v>
+      </c>
+      <c r="C668" t="s">
+        <v>6</v>
+      </c>
+      <c r="D668" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>4</v>
+      </c>
+      <c r="B669" t="s">
+        <v>5</v>
+      </c>
+      <c r="C669" t="s">
+        <v>6</v>
+      </c>
+      <c r="D669" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>4</v>
+      </c>
+      <c r="B670" t="s">
+        <v>5</v>
+      </c>
+      <c r="C670" t="s">
+        <v>6</v>
+      </c>
+      <c r="D670" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>4</v>
+      </c>
+      <c r="B671" t="s">
+        <v>5</v>
+      </c>
+      <c r="C671" t="s">
+        <v>6</v>
+      </c>
+      <c r="D671" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>4</v>
+      </c>
+      <c r="B672" t="s">
+        <v>5</v>
+      </c>
+      <c r="C672" t="s">
+        <v>6</v>
+      </c>
+      <c r="D672" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>4</v>
+      </c>
+      <c r="B673" t="s">
+        <v>5</v>
+      </c>
+      <c r="C673" t="s">
+        <v>6</v>
+      </c>
+      <c r="D673" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>4</v>
+      </c>
+      <c r="B674" t="s">
+        <v>5</v>
+      </c>
+      <c r="C674" t="s">
+        <v>6</v>
+      </c>
+      <c r="D674" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>4</v>
+      </c>
+      <c r="B675" t="s">
+        <v>5</v>
+      </c>
+      <c r="C675" t="s">
+        <v>6</v>
+      </c>
+      <c r="D675" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>4</v>
+      </c>
+      <c r="B676" t="s">
+        <v>5</v>
+      </c>
+      <c r="C676" t="s">
+        <v>6</v>
+      </c>
+      <c r="D676" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>4</v>
+      </c>
+      <c r="B677" t="s">
+        <v>5</v>
+      </c>
+      <c r="C677" t="s">
+        <v>6</v>
+      </c>
+      <c r="D677" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>4</v>
+      </c>
+      <c r="B678" t="s">
+        <v>5</v>
+      </c>
+      <c r="C678" t="s">
+        <v>6</v>
+      </c>
+      <c r="D678" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>4</v>
+      </c>
+      <c r="B679" t="s">
+        <v>5</v>
+      </c>
+      <c r="C679" t="s">
+        <v>6</v>
+      </c>
+      <c r="D679" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>4</v>
+      </c>
+      <c r="B680" t="s">
+        <v>5</v>
+      </c>
+      <c r="C680" t="s">
+        <v>6</v>
+      </c>
+      <c r="D680" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>4</v>
+      </c>
+      <c r="B681" t="s">
+        <v>5</v>
+      </c>
+      <c r="C681" t="s">
+        <v>6</v>
+      </c>
+      <c r="D681" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>4</v>
+      </c>
+      <c r="B682" t="s">
+        <v>5</v>
+      </c>
+      <c r="C682" t="s">
+        <v>6</v>
+      </c>
+      <c r="D682" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>4</v>
+      </c>
+      <c r="B683" t="s">
+        <v>5</v>
+      </c>
+      <c r="C683" t="s">
+        <v>6</v>
+      </c>
+      <c r="D683" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>4</v>
+      </c>
+      <c r="B684" t="s">
+        <v>5</v>
+      </c>
+      <c r="C684" t="s">
+        <v>6</v>
+      </c>
+      <c r="D684" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>4</v>
+      </c>
+      <c r="B685" t="s">
+        <v>5</v>
+      </c>
+      <c r="C685" t="s">
+        <v>6</v>
+      </c>
+      <c r="D685" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>4</v>
+      </c>
+      <c r="B686" t="s">
+        <v>5</v>
+      </c>
+      <c r="C686" t="s">
+        <v>6</v>
+      </c>
+      <c r="D686" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>4</v>
+      </c>
+      <c r="B687" t="s">
+        <v>5</v>
+      </c>
+      <c r="C687" t="s">
+        <v>6</v>
+      </c>
+      <c r="D687" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>4</v>
+      </c>
+      <c r="B688" t="s">
+        <v>5</v>
+      </c>
+      <c r="C688" t="s">
+        <v>6</v>
+      </c>
+      <c r="D688" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>4</v>
+      </c>
+      <c r="B689" t="s">
+        <v>5</v>
+      </c>
+      <c r="C689" t="s">
+        <v>6</v>
+      </c>
+      <c r="D689" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>4</v>
+      </c>
+      <c r="B690" t="s">
+        <v>5</v>
+      </c>
+      <c r="C690" t="s">
+        <v>6</v>
+      </c>
+      <c r="D690" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>4</v>
+      </c>
+      <c r="B691" t="s">
+        <v>5</v>
+      </c>
+      <c r="C691" t="s">
+        <v>6</v>
+      </c>
+      <c r="D691" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>4</v>
+      </c>
+      <c r="B692" t="s">
+        <v>5</v>
+      </c>
+      <c r="C692" t="s">
+        <v>6</v>
+      </c>
+      <c r="D692" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>4</v>
+      </c>
+      <c r="B693" t="s">
+        <v>5</v>
+      </c>
+      <c r="C693" t="s">
+        <v>6</v>
+      </c>
+      <c r="D693" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>4</v>
+      </c>
+      <c r="B694" t="s">
+        <v>5</v>
+      </c>
+      <c r="C694" t="s">
+        <v>6</v>
+      </c>
+      <c r="D694" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>4</v>
+      </c>
+      <c r="B695" t="s">
+        <v>5</v>
+      </c>
+      <c r="C695" t="s">
+        <v>6</v>
+      </c>
+      <c r="D695" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>4</v>
+      </c>
+      <c r="B696" t="s">
+        <v>5</v>
+      </c>
+      <c r="C696" t="s">
+        <v>6</v>
+      </c>
+      <c r="D696" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>4</v>
+      </c>
+      <c r="B697" t="s">
+        <v>5</v>
+      </c>
+      <c r="C697" t="s">
+        <v>6</v>
+      </c>
+      <c r="D697" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>4</v>
+      </c>
+      <c r="B698" t="s">
+        <v>5</v>
+      </c>
+      <c r="C698" t="s">
+        <v>6</v>
+      </c>
+      <c r="D698" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>4</v>
+      </c>
+      <c r="B699" t="s">
+        <v>5</v>
+      </c>
+      <c r="C699" t="s">
+        <v>6</v>
+      </c>
+      <c r="D699" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>4</v>
+      </c>
+      <c r="B700" t="s">
+        <v>5</v>
+      </c>
+      <c r="C700" t="s">
+        <v>6</v>
+      </c>
+      <c r="D700" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>4</v>
+      </c>
+      <c r="B701" t="s">
+        <v>5</v>
+      </c>
+      <c r="C701" t="s">
+        <v>6</v>
+      </c>
+      <c r="D701" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>4</v>
+      </c>
+      <c r="B702" t="s">
+        <v>5</v>
+      </c>
+      <c r="C702" t="s">
+        <v>6</v>
+      </c>
+      <c r="D702" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>4</v>
+      </c>
+      <c r="B703" t="s">
+        <v>5</v>
+      </c>
+      <c r="C703" t="s">
+        <v>6</v>
+      </c>
+      <c r="D703" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>4</v>
+      </c>
+      <c r="B704" t="s">
+        <v>5</v>
+      </c>
+      <c r="C704" t="s">
+        <v>6</v>
+      </c>
+      <c r="D704" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>4</v>
+      </c>
+      <c r="B705" t="s">
+        <v>5</v>
+      </c>
+      <c r="C705" t="s">
+        <v>6</v>
+      </c>
+      <c r="D705" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>4</v>
+      </c>
+      <c r="B706" t="s">
+        <v>5</v>
+      </c>
+      <c r="C706" t="s">
+        <v>6</v>
+      </c>
+      <c r="D706" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>4</v>
+      </c>
+      <c r="B707" t="s">
+        <v>5</v>
+      </c>
+      <c r="C707" t="s">
+        <v>6</v>
+      </c>
+      <c r="D707" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>4</v>
+      </c>
+      <c r="B708" t="s">
+        <v>5</v>
+      </c>
+      <c r="C708" t="s">
+        <v>6</v>
+      </c>
+      <c r="D708" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>4</v>
+      </c>
+      <c r="B709" t="s">
+        <v>5</v>
+      </c>
+      <c r="C709" t="s">
+        <v>6</v>
+      </c>
+      <c r="D709" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>4</v>
+      </c>
+      <c r="B710" t="s">
+        <v>5</v>
+      </c>
+      <c r="C710" t="s">
+        <v>6</v>
+      </c>
+      <c r="D710" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>4</v>
+      </c>
+      <c r="B711" t="s">
+        <v>5</v>
+      </c>
+      <c r="C711" t="s">
+        <v>6</v>
+      </c>
+      <c r="D711" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>4</v>
+      </c>
+      <c r="B712" t="s">
+        <v>5</v>
+      </c>
+      <c r="C712" t="s">
+        <v>6</v>
+      </c>
+      <c r="D712" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>4</v>
+      </c>
+      <c r="B713" t="s">
+        <v>5</v>
+      </c>
+      <c r="C713" t="s">
+        <v>6</v>
+      </c>
+      <c r="D713" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>4</v>
+      </c>
+      <c r="B714" t="s">
+        <v>5</v>
+      </c>
+      <c r="C714" t="s">
+        <v>6</v>
+      </c>
+      <c r="D714" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>4</v>
+      </c>
+      <c r="B715" t="s">
+        <v>5</v>
+      </c>
+      <c r="C715" t="s">
+        <v>6</v>
+      </c>
+      <c r="D715" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>4</v>
+      </c>
+      <c r="B716" t="s">
+        <v>5</v>
+      </c>
+      <c r="C716" t="s">
+        <v>6</v>
+      </c>
+      <c r="D716" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>4</v>
+      </c>
+      <c r="B717" t="s">
+        <v>5</v>
+      </c>
+      <c r="C717" t="s">
+        <v>6</v>
+      </c>
+      <c r="D717" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>4</v>
+      </c>
+      <c r="B718" t="s">
+        <v>5</v>
+      </c>
+      <c r="C718" t="s">
+        <v>6</v>
+      </c>
+      <c r="D718" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>4</v>
+      </c>
+      <c r="B719" t="s">
+        <v>5</v>
+      </c>
+      <c r="C719" t="s">
+        <v>6</v>
+      </c>
+      <c r="D719" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>4</v>
+      </c>
+      <c r="B720" t="s">
+        <v>5</v>
+      </c>
+      <c r="C720" t="s">
+        <v>6</v>
+      </c>
+      <c r="D720" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>4</v>
+      </c>
+      <c r="B721" t="s">
+        <v>5</v>
+      </c>
+      <c r="C721" t="s">
+        <v>6</v>
+      </c>
+      <c r="D721" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>4</v>
+      </c>
+      <c r="B722" t="s">
+        <v>5</v>
+      </c>
+      <c r="C722" t="s">
+        <v>6</v>
+      </c>
+      <c r="D722" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>4</v>
+      </c>
+      <c r="B723" t="s">
+        <v>5</v>
+      </c>
+      <c r="C723" t="s">
+        <v>6</v>
+      </c>
+      <c r="D723" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>4</v>
+      </c>
+      <c r="B724" t="s">
+        <v>5</v>
+      </c>
+      <c r="C724" t="s">
+        <v>6</v>
+      </c>
+      <c r="D724" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>4</v>
+      </c>
+      <c r="B725" t="s">
+        <v>5</v>
+      </c>
+      <c r="C725" t="s">
+        <v>6</v>
+      </c>
+      <c r="D725" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>4</v>
+      </c>
+      <c r="B726" t="s">
+        <v>5</v>
+      </c>
+      <c r="C726" t="s">
+        <v>6</v>
+      </c>
+      <c r="D726" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>4</v>
+      </c>
+      <c r="B727" t="s">
+        <v>5</v>
+      </c>
+      <c r="C727" t="s">
+        <v>6</v>
+      </c>
+      <c r="D727" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>4</v>
+      </c>
+      <c r="B728" t="s">
+        <v>5</v>
+      </c>
+      <c r="C728" t="s">
+        <v>6</v>
+      </c>
+      <c r="D728" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>4</v>
+      </c>
+      <c r="B729" t="s">
+        <v>5</v>
+      </c>
+      <c r="C729" t="s">
+        <v>6</v>
+      </c>
+      <c r="D729" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>4</v>
+      </c>
+      <c r="B730" t="s">
+        <v>5</v>
+      </c>
+      <c r="C730" t="s">
+        <v>6</v>
+      </c>
+      <c r="D730" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s">
+        <v>4</v>
+      </c>
+      <c r="B731" t="s">
+        <v>5</v>
+      </c>
+      <c r="C731" t="s">
+        <v>6</v>
+      </c>
+      <c r="D731" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>4</v>
+      </c>
+      <c r="B732" t="s">
+        <v>5</v>
+      </c>
+      <c r="C732" t="s">
+        <v>6</v>
+      </c>
+      <c r="D732" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>4</v>
+      </c>
+      <c r="B733" t="s">
+        <v>5</v>
+      </c>
+      <c r="C733" t="s">
+        <v>6</v>
+      </c>
+      <c r="D733" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>4</v>
+      </c>
+      <c r="B734" t="s">
+        <v>5</v>
+      </c>
+      <c r="C734" t="s">
+        <v>6</v>
+      </c>
+      <c r="D734" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>4</v>
+      </c>
+      <c r="B735" t="s">
+        <v>5</v>
+      </c>
+      <c r="C735" t="s">
+        <v>6</v>
+      </c>
+      <c r="D735" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>4</v>
+      </c>
+      <c r="B736" t="s">
+        <v>5</v>
+      </c>
+      <c r="C736" t="s">
+        <v>6</v>
+      </c>
+      <c r="D736" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s">
+        <v>4</v>
+      </c>
+      <c r="B737" t="s">
+        <v>5</v>
+      </c>
+      <c r="C737" t="s">
+        <v>6</v>
+      </c>
+      <c r="D737" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s">
+        <v>4</v>
+      </c>
+      <c r="B738" t="s">
+        <v>5</v>
+      </c>
+      <c r="C738" t="s">
+        <v>6</v>
+      </c>
+      <c r="D738" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>4</v>
+      </c>
+      <c r="B739" t="s">
+        <v>5</v>
+      </c>
+      <c r="C739" t="s">
+        <v>6</v>
+      </c>
+      <c r="D739" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s">
+        <v>4</v>
+      </c>
+      <c r="B740" t="s">
+        <v>5</v>
+      </c>
+      <c r="C740" t="s">
+        <v>6</v>
+      </c>
+      <c r="D740" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s">
+        <v>4</v>
+      </c>
+      <c r="B741" t="s">
+        <v>5</v>
+      </c>
+      <c r="C741" t="s">
+        <v>6</v>
+      </c>
+      <c r="D741" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>4</v>
+      </c>
+      <c r="B742" t="s">
+        <v>5</v>
+      </c>
+      <c r="C742" t="s">
+        <v>6</v>
+      </c>
+      <c r="D742" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>4</v>
+      </c>
+      <c r="B743" t="s">
+        <v>5</v>
+      </c>
+      <c r="C743" t="s">
+        <v>6</v>
+      </c>
+      <c r="D743" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s">
+        <v>4</v>
+      </c>
+      <c r="B744" t="s">
+        <v>5</v>
+      </c>
+      <c r="C744" t="s">
+        <v>6</v>
+      </c>
+      <c r="D744" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>4</v>
+      </c>
+      <c r="B745" t="s">
+        <v>5</v>
+      </c>
+      <c r="C745" t="s">
+        <v>6</v>
+      </c>
+      <c r="D745" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>4</v>
+      </c>
+      <c r="B746" t="s">
+        <v>5</v>
+      </c>
+      <c r="C746" t="s">
+        <v>6</v>
+      </c>
+      <c r="D746" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s">
+        <v>4</v>
+      </c>
+      <c r="B747" t="s">
+        <v>5</v>
+      </c>
+      <c r="C747" t="s">
+        <v>6</v>
+      </c>
+      <c r="D747" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s">
+        <v>4</v>
+      </c>
+      <c r="B748" t="s">
+        <v>5</v>
+      </c>
+      <c r="C748" t="s">
+        <v>6</v>
+      </c>
+      <c r="D748" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>4</v>
+      </c>
+      <c r="B749" t="s">
+        <v>5</v>
+      </c>
+      <c r="C749" t="s">
+        <v>6</v>
+      </c>
+      <c r="D749" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s">
+        <v>4</v>
+      </c>
+      <c r="B750" t="s">
+        <v>5</v>
+      </c>
+      <c r="C750" t="s">
+        <v>6</v>
+      </c>
+      <c r="D750" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s">
+        <v>4</v>
+      </c>
+      <c r="B751" t="s">
+        <v>5</v>
+      </c>
+      <c r="C751" t="s">
+        <v>6</v>
+      </c>
+      <c r="D751" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>4</v>
+      </c>
+      <c r="B752" t="s">
+        <v>5</v>
+      </c>
+      <c r="C752" t="s">
+        <v>6</v>
+      </c>
+      <c r="D752" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>4</v>
+      </c>
+      <c r="B753" t="s">
+        <v>5</v>
+      </c>
+      <c r="C753" t="s">
+        <v>6</v>
+      </c>
+      <c r="D753" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>4</v>
+      </c>
+      <c r="B754" t="s">
+        <v>5</v>
+      </c>
+      <c r="C754" t="s">
+        <v>6</v>
+      </c>
+      <c r="D754" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s">
+        <v>4</v>
+      </c>
+      <c r="B755" t="s">
+        <v>5</v>
+      </c>
+      <c r="C755" t="s">
+        <v>6</v>
+      </c>
+      <c r="D755" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s">
+        <v>4</v>
+      </c>
+      <c r="B756" t="s">
+        <v>5</v>
+      </c>
+      <c r="C756" t="s">
+        <v>6</v>
+      </c>
+      <c r="D756" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s">
+        <v>4</v>
+      </c>
+      <c r="B757" t="s">
+        <v>5</v>
+      </c>
+      <c r="C757" t="s">
+        <v>6</v>
+      </c>
+      <c r="D757" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s">
+        <v>4</v>
+      </c>
+      <c r="B758" t="s">
+        <v>5</v>
+      </c>
+      <c r="C758" t="s">
+        <v>6</v>
+      </c>
+      <c r="D758" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s">
+        <v>4</v>
+      </c>
+      <c r="B759" t="s">
+        <v>5</v>
+      </c>
+      <c r="C759" t="s">
+        <v>6</v>
+      </c>
+      <c r="D759" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s">
+        <v>4</v>
+      </c>
+      <c r="B760" t="s">
+        <v>5</v>
+      </c>
+      <c r="C760" t="s">
+        <v>6</v>
+      </c>
+      <c r="D760" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s">
+        <v>4</v>
+      </c>
+      <c r="B761" t="s">
+        <v>5</v>
+      </c>
+      <c r="C761" t="s">
+        <v>6</v>
+      </c>
+      <c r="D761" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s">
+        <v>4</v>
+      </c>
+      <c r="B762" t="s">
+        <v>5</v>
+      </c>
+      <c r="C762" t="s">
+        <v>6</v>
+      </c>
+      <c r="D762" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s">
+        <v>4</v>
+      </c>
+      <c r="B763" t="s">
+        <v>5</v>
+      </c>
+      <c r="C763" t="s">
+        <v>6</v>
+      </c>
+      <c r="D763" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s">
+        <v>4</v>
+      </c>
+      <c r="B764" t="s">
+        <v>5</v>
+      </c>
+      <c r="C764" t="s">
+        <v>6</v>
+      </c>
+      <c r="D764" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>4</v>
+      </c>
+      <c r="B765" t="s">
+        <v>5</v>
+      </c>
+      <c r="C765" t="s">
+        <v>6</v>
+      </c>
+      <c r="D765" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s">
+        <v>4</v>
+      </c>
+      <c r="B766" t="s">
+        <v>5</v>
+      </c>
+      <c r="C766" t="s">
+        <v>6</v>
+      </c>
+      <c r="D766" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s">
+        <v>4</v>
+      </c>
+      <c r="B767" t="s">
+        <v>5</v>
+      </c>
+      <c r="C767" t="s">
+        <v>6</v>
+      </c>
+      <c r="D767" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>4</v>
+      </c>
+      <c r="B768" t="s">
+        <v>5</v>
+      </c>
+      <c r="C768" t="s">
+        <v>6</v>
+      </c>
+      <c r="D768" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>4</v>
+      </c>
+      <c r="B769" t="s">
+        <v>5</v>
+      </c>
+      <c r="C769" t="s">
+        <v>6</v>
+      </c>
+      <c r="D769" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>4</v>
+      </c>
+      <c r="B770" t="s">
+        <v>5</v>
+      </c>
+      <c r="C770" t="s">
+        <v>6</v>
+      </c>
+      <c r="D770" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s">
+        <v>4</v>
+      </c>
+      <c r="B771" t="s">
+        <v>5</v>
+      </c>
+      <c r="C771" t="s">
+        <v>6</v>
+      </c>
+      <c r="D771" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s">
+        <v>4</v>
+      </c>
+      <c r="B772" t="s">
+        <v>5</v>
+      </c>
+      <c r="C772" t="s">
+        <v>6</v>
+      </c>
+      <c r="D772" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s">
+        <v>4</v>
+      </c>
+      <c r="B773" t="s">
+        <v>5</v>
+      </c>
+      <c r="C773" t="s">
+        <v>6</v>
+      </c>
+      <c r="D773" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>4</v>
+      </c>
+      <c r="B774" t="s">
+        <v>5</v>
+      </c>
+      <c r="C774" t="s">
+        <v>6</v>
+      </c>
+      <c r="D774" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>4</v>
+      </c>
+      <c r="B775" t="s">
+        <v>5</v>
+      </c>
+      <c r="C775" t="s">
+        <v>6</v>
+      </c>
+      <c r="D775" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>4</v>
+      </c>
+      <c r="B776" t="s">
+        <v>5</v>
+      </c>
+      <c r="C776" t="s">
+        <v>6</v>
+      </c>
+      <c r="D776" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s">
+        <v>4</v>
+      </c>
+      <c r="B777" t="s">
+        <v>5</v>
+      </c>
+      <c r="C777" t="s">
+        <v>6</v>
+      </c>
+      <c r="D777" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>4</v>
+      </c>
+      <c r="B778" t="s">
+        <v>5</v>
+      </c>
+      <c r="C778" t="s">
+        <v>6</v>
+      </c>
+      <c r="D778" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s">
+        <v>4</v>
+      </c>
+      <c r="B779" t="s">
+        <v>5</v>
+      </c>
+      <c r="C779" t="s">
+        <v>6</v>
+      </c>
+      <c r="D779" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>4</v>
+      </c>
+      <c r="B780" t="s">
+        <v>5</v>
+      </c>
+      <c r="C780" t="s">
+        <v>6</v>
+      </c>
+      <c r="D780" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>4</v>
+      </c>
+      <c r="B781" t="s">
+        <v>5</v>
+      </c>
+      <c r="C781" t="s">
+        <v>6</v>
+      </c>
+      <c r="D781" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s">
+        <v>4</v>
+      </c>
+      <c r="B782" t="s">
+        <v>5</v>
+      </c>
+      <c r="C782" t="s">
+        <v>6</v>
+      </c>
+      <c r="D782" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s">
+        <v>4</v>
+      </c>
+      <c r="B783" t="s">
+        <v>5</v>
+      </c>
+      <c r="C783" t="s">
+        <v>6</v>
+      </c>
+      <c r="D783" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>4</v>
+      </c>
+      <c r="B784" t="s">
+        <v>5</v>
+      </c>
+      <c r="C784" t="s">
+        <v>6</v>
+      </c>
+      <c r="D784" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>4</v>
+      </c>
+      <c r="B785" t="s">
+        <v>5</v>
+      </c>
+      <c r="C785" t="s">
+        <v>6</v>
+      </c>
+      <c r="D785" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>4</v>
+      </c>
+      <c r="B786" t="s">
+        <v>5</v>
+      </c>
+      <c r="C786" t="s">
+        <v>6</v>
+      </c>
+      <c r="D786" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s">
+        <v>4</v>
+      </c>
+      <c r="B787" t="s">
+        <v>5</v>
+      </c>
+      <c r="C787" t="s">
+        <v>6</v>
+      </c>
+      <c r="D787" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s">
+        <v>4</v>
+      </c>
+      <c r="B788" t="s">
+        <v>5</v>
+      </c>
+      <c r="C788" t="s">
+        <v>6</v>
+      </c>
+      <c r="D788" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>4</v>
+      </c>
+      <c r="B789" t="s">
+        <v>5</v>
+      </c>
+      <c r="C789" t="s">
+        <v>6</v>
+      </c>
+      <c r="D789" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>4</v>
+      </c>
+      <c r="B790" t="s">
+        <v>5</v>
+      </c>
+      <c r="C790" t="s">
+        <v>6</v>
+      </c>
+      <c r="D790" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>4</v>
+      </c>
+      <c r="B791" t="s">
+        <v>5</v>
+      </c>
+      <c r="C791" t="s">
+        <v>6</v>
+      </c>
+      <c r="D791" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>4</v>
+      </c>
+      <c r="B792" t="s">
+        <v>5</v>
+      </c>
+      <c r="C792" t="s">
+        <v>6</v>
+      </c>
+      <c r="D792" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>4</v>
+      </c>
+      <c r="B793" t="s">
+        <v>5</v>
+      </c>
+      <c r="C793" t="s">
+        <v>6</v>
+      </c>
+      <c r="D793" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>4</v>
+      </c>
+      <c r="B794" t="s">
+        <v>5</v>
+      </c>
+      <c r="C794" t="s">
+        <v>6</v>
+      </c>
+      <c r="D794" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>4</v>
+      </c>
+      <c r="B795" t="s">
+        <v>5</v>
+      </c>
+      <c r="C795" t="s">
+        <v>6</v>
+      </c>
+      <c r="D795" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>4</v>
+      </c>
+      <c r="B796" t="s">
+        <v>5</v>
+      </c>
+      <c r="C796" t="s">
+        <v>6</v>
+      </c>
+      <c r="D796" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>4</v>
+      </c>
+      <c r="B797" t="s">
+        <v>5</v>
+      </c>
+      <c r="C797" t="s">
+        <v>6</v>
+      </c>
+      <c r="D797" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>4</v>
+      </c>
+      <c r="B798" t="s">
+        <v>5</v>
+      </c>
+      <c r="C798" t="s">
+        <v>6</v>
+      </c>
+      <c r="D798" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>4</v>
+      </c>
+      <c r="B799" t="s">
+        <v>5</v>
+      </c>
+      <c r="C799" t="s">
+        <v>6</v>
+      </c>
+      <c r="D799" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>4</v>
+      </c>
+      <c r="B800" t="s">
+        <v>5</v>
+      </c>
+      <c r="C800" t="s">
+        <v>6</v>
+      </c>
+      <c r="D800" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>4</v>
+      </c>
+      <c r="B801" t="s">
+        <v>5</v>
+      </c>
+      <c r="C801" t="s">
+        <v>6</v>
+      </c>
+      <c r="D801" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>4</v>
+      </c>
+      <c r="B802" t="s">
+        <v>5</v>
+      </c>
+      <c r="C802" t="s">
+        <v>6</v>
+      </c>
+      <c r="D802" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>4</v>
+      </c>
+      <c r="B803" t="s">
+        <v>5</v>
+      </c>
+      <c r="C803" t="s">
+        <v>6</v>
+      </c>
+      <c r="D803" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>4</v>
+      </c>
+      <c r="B804" t="s">
+        <v>5</v>
+      </c>
+      <c r="C804" t="s">
+        <v>6</v>
+      </c>
+      <c r="D804" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>4</v>
+      </c>
+      <c r="B805" t="s">
+        <v>5</v>
+      </c>
+      <c r="C805" t="s">
+        <v>6</v>
+      </c>
+      <c r="D805" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>4</v>
+      </c>
+      <c r="B806" t="s">
+        <v>5</v>
+      </c>
+      <c r="C806" t="s">
+        <v>6</v>
+      </c>
+      <c r="D806" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>4</v>
+      </c>
+      <c r="B807" t="s">
+        <v>5</v>
+      </c>
+      <c r="C807" t="s">
+        <v>6</v>
+      </c>
+      <c r="D807" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>4</v>
+      </c>
+      <c r="B808" t="s">
+        <v>5</v>
+      </c>
+      <c r="C808" t="s">
+        <v>6</v>
+      </c>
+      <c r="D808" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>4</v>
+      </c>
+      <c r="B809" t="s">
+        <v>5</v>
+      </c>
+      <c r="C809" t="s">
+        <v>6</v>
+      </c>
+      <c r="D809" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>4</v>
+      </c>
+      <c r="B810" t="s">
+        <v>5</v>
+      </c>
+      <c r="C810" t="s">
+        <v>6</v>
+      </c>
+      <c r="D810" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>4</v>
+      </c>
+      <c r="B811" t="s">
+        <v>5</v>
+      </c>
+      <c r="C811" t="s">
+        <v>6</v>
+      </c>
+      <c r="D811" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>4</v>
+      </c>
+      <c r="B812" t="s">
+        <v>5</v>
+      </c>
+      <c r="C812" t="s">
+        <v>6</v>
+      </c>
+      <c r="D812" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>4</v>
+      </c>
+      <c r="B813" t="s">
+        <v>5</v>
+      </c>
+      <c r="C813" t="s">
+        <v>6</v>
+      </c>
+      <c r="D813" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s">
+        <v>4</v>
+      </c>
+      <c r="B814" t="s">
+        <v>5</v>
+      </c>
+      <c r="C814" t="s">
+        <v>6</v>
+      </c>
+      <c r="D814" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s">
+        <v>4</v>
+      </c>
+      <c r="B815" t="s">
+        <v>5</v>
+      </c>
+      <c r="C815" t="s">
+        <v>6</v>
+      </c>
+      <c r="D815" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s">
+        <v>4</v>
+      </c>
+      <c r="B816" t="s">
+        <v>5</v>
+      </c>
+      <c r="C816" t="s">
+        <v>6</v>
+      </c>
+      <c r="D816" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>4</v>
+      </c>
+      <c r="B817" t="s">
+        <v>5</v>
+      </c>
+      <c r="C817" t="s">
+        <v>6</v>
+      </c>
+      <c r="D817" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>4</v>
+      </c>
+      <c r="B818" t="s">
+        <v>5</v>
+      </c>
+      <c r="C818" t="s">
+        <v>6</v>
+      </c>
+      <c r="D818" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>4</v>
+      </c>
+      <c r="B819" t="s">
+        <v>5</v>
+      </c>
+      <c r="C819" t="s">
+        <v>6</v>
+      </c>
+      <c r="D819" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>4</v>
+      </c>
+      <c r="B820" t="s">
+        <v>5</v>
+      </c>
+      <c r="C820" t="s">
+        <v>6</v>
+      </c>
+      <c r="D820" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>4</v>
+      </c>
+      <c r="B821" t="s">
+        <v>5</v>
+      </c>
+      <c r="C821" t="s">
+        <v>6</v>
+      </c>
+      <c r="D821" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>4</v>
+      </c>
+      <c r="B822" t="s">
+        <v>5</v>
+      </c>
+      <c r="C822" t="s">
+        <v>6</v>
+      </c>
+      <c r="D822" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>4</v>
+      </c>
+      <c r="B823" t="s">
+        <v>5</v>
+      </c>
+      <c r="C823" t="s">
+        <v>6</v>
+      </c>
+      <c r="D823" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>4</v>
+      </c>
+      <c r="B824" t="s">
+        <v>5</v>
+      </c>
+      <c r="C824" t="s">
+        <v>6</v>
+      </c>
+      <c r="D824" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>4</v>
+      </c>
+      <c r="B825" t="s">
+        <v>5</v>
+      </c>
+      <c r="C825" t="s">
+        <v>6</v>
+      </c>
+      <c r="D825" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>4</v>
+      </c>
+      <c r="B826" t="s">
+        <v>5</v>
+      </c>
+      <c r="C826" t="s">
+        <v>6</v>
+      </c>
+      <c r="D826" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>4</v>
+      </c>
+      <c r="B827" t="s">
+        <v>5</v>
+      </c>
+      <c r="C827" t="s">
+        <v>6</v>
+      </c>
+      <c r="D827" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>4</v>
+      </c>
+      <c r="B828" t="s">
+        <v>5</v>
+      </c>
+      <c r="C828" t="s">
+        <v>6</v>
+      </c>
+      <c r="D828" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>4</v>
+      </c>
+      <c r="B829" t="s">
+        <v>5</v>
+      </c>
+      <c r="C829" t="s">
+        <v>6</v>
+      </c>
+      <c r="D829" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s">
+        <v>4</v>
+      </c>
+      <c r="B830" t="s">
+        <v>5</v>
+      </c>
+      <c r="C830" t="s">
+        <v>6</v>
+      </c>
+      <c r="D830" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s">
+        <v>4</v>
+      </c>
+      <c r="B831" t="s">
+        <v>5</v>
+      </c>
+      <c r="C831" t="s">
+        <v>6</v>
+      </c>
+      <c r="D831" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>4</v>
+      </c>
+      <c r="B832" t="s">
+        <v>5</v>
+      </c>
+      <c r="C832" t="s">
+        <v>6</v>
+      </c>
+      <c r="D832" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>4</v>
+      </c>
+      <c r="B833" t="s">
+        <v>5</v>
+      </c>
+      <c r="C833" t="s">
+        <v>6</v>
+      </c>
+      <c r="D833" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s">
+        <v>4</v>
+      </c>
+      <c r="B834" t="s">
+        <v>5</v>
+      </c>
+      <c r="C834" t="s">
+        <v>6</v>
+      </c>
+      <c r="D834" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s">
+        <v>4</v>
+      </c>
+      <c r="B835" t="s">
+        <v>5</v>
+      </c>
+      <c r="C835" t="s">
+        <v>6</v>
+      </c>
+      <c r="D835" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>4</v>
+      </c>
+      <c r="B836" t="s">
+        <v>5</v>
+      </c>
+      <c r="C836" t="s">
+        <v>6</v>
+      </c>
+      <c r="D836" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s">
+        <v>4</v>
+      </c>
+      <c r="B837" t="s">
+        <v>5</v>
+      </c>
+      <c r="C837" t="s">
+        <v>6</v>
+      </c>
+      <c r="D837" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>4</v>
+      </c>
+      <c r="B838" t="s">
+        <v>5</v>
+      </c>
+      <c r="C838" t="s">
+        <v>6</v>
+      </c>
+      <c r="D838" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s">
+        <v>4</v>
+      </c>
+      <c r="B839" t="s">
+        <v>5</v>
+      </c>
+      <c r="C839" t="s">
+        <v>6</v>
+      </c>
+      <c r="D839" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s">
+        <v>4</v>
+      </c>
+      <c r="B840" t="s">
+        <v>5</v>
+      </c>
+      <c r="C840" t="s">
+        <v>6</v>
+      </c>
+      <c r="D840" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s">
+        <v>4</v>
+      </c>
+      <c r="B841" t="s">
+        <v>5</v>
+      </c>
+      <c r="C841" t="s">
+        <v>6</v>
+      </c>
+      <c r="D841" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>4</v>
+      </c>
+      <c r="B842" t="s">
+        <v>5</v>
+      </c>
+      <c r="C842" t="s">
+        <v>6</v>
+      </c>
+      <c r="D842" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s">
+        <v>4</v>
+      </c>
+      <c r="B843" t="s">
+        <v>5</v>
+      </c>
+      <c r="C843" t="s">
+        <v>6</v>
+      </c>
+      <c r="D843" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>4</v>
+      </c>
+      <c r="B844" t="s">
+        <v>5</v>
+      </c>
+      <c r="C844" t="s">
+        <v>6</v>
+      </c>
+      <c r="D844" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s">
+        <v>4</v>
+      </c>
+      <c r="B845" t="s">
+        <v>5</v>
+      </c>
+      <c r="C845" t="s">
+        <v>6</v>
+      </c>
+      <c r="D845" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>4</v>
+      </c>
+      <c r="B846" t="s">
+        <v>5</v>
+      </c>
+      <c r="C846" t="s">
+        <v>6</v>
+      </c>
+      <c r="D846" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s">
+        <v>4</v>
+      </c>
+      <c r="B847" t="s">
+        <v>5</v>
+      </c>
+      <c r="C847" t="s">
+        <v>6</v>
+      </c>
+      <c r="D847" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s">
+        <v>4</v>
+      </c>
+      <c r="B848" t="s">
+        <v>5</v>
+      </c>
+      <c r="C848" t="s">
+        <v>6</v>
+      </c>
+      <c r="D848" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>4</v>
+      </c>
+      <c r="B849" t="s">
+        <v>5</v>
+      </c>
+      <c r="C849" t="s">
+        <v>6</v>
+      </c>
+      <c r="D849" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>4</v>
+      </c>
+      <c r="B850" t="s">
+        <v>5</v>
+      </c>
+      <c r="C850" t="s">
+        <v>6</v>
+      </c>
+      <c r="D850" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>4</v>
+      </c>
+      <c r="B851" t="s">
+        <v>5</v>
+      </c>
+      <c r="C851" t="s">
+        <v>6</v>
+      </c>
+      <c r="D851" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>4</v>
+      </c>
+      <c r="B852" t="s">
+        <v>5</v>
+      </c>
+      <c r="C852" t="s">
+        <v>6</v>
+      </c>
+      <c r="D852" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>4</v>
+      </c>
+      <c r="B853" t="s">
+        <v>5</v>
+      </c>
+      <c r="C853" t="s">
+        <v>6</v>
+      </c>
+      <c r="D853" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>4</v>
+      </c>
+      <c r="B854" t="s">
+        <v>5</v>
+      </c>
+      <c r="C854" t="s">
+        <v>6</v>
+      </c>
+      <c r="D854" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>4</v>
+      </c>
+      <c r="B855" t="s">
+        <v>5</v>
+      </c>
+      <c r="C855" t="s">
+        <v>6</v>
+      </c>
+      <c r="D855" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>4</v>
+      </c>
+      <c r="B856" t="s">
+        <v>5</v>
+      </c>
+      <c r="C856" t="s">
+        <v>6</v>
+      </c>
+      <c r="D856" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>4</v>
+      </c>
+      <c r="B857" t="s">
+        <v>5</v>
+      </c>
+      <c r="C857" t="s">
+        <v>6</v>
+      </c>
+      <c r="D857" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>4</v>
+      </c>
+      <c r="B858" t="s">
+        <v>5</v>
+      </c>
+      <c r="C858" t="s">
+        <v>6</v>
+      </c>
+      <c r="D858" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>4</v>
+      </c>
+      <c r="B859" t="s">
+        <v>5</v>
+      </c>
+      <c r="C859" t="s">
+        <v>6</v>
+      </c>
+      <c r="D859" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>4</v>
+      </c>
+      <c r="B860" t="s">
+        <v>5</v>
+      </c>
+      <c r="C860" t="s">
+        <v>6</v>
+      </c>
+      <c r="D860" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>4</v>
+      </c>
+      <c r="B861" t="s">
+        <v>5</v>
+      </c>
+      <c r="C861" t="s">
+        <v>6</v>
+      </c>
+      <c r="D861" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>4</v>
+      </c>
+      <c r="B862" t="s">
+        <v>5</v>
+      </c>
+      <c r="C862" t="s">
+        <v>6</v>
+      </c>
+      <c r="D862" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>4</v>
+      </c>
+      <c r="B863" t="s">
+        <v>5</v>
+      </c>
+      <c r="C863" t="s">
+        <v>6</v>
+      </c>
+      <c r="D863" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>4</v>
+      </c>
+      <c r="B864" t="s">
+        <v>5</v>
+      </c>
+      <c r="C864" t="s">
+        <v>6</v>
+      </c>
+      <c r="D864" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>4</v>
+      </c>
+      <c r="B865" t="s">
+        <v>5</v>
+      </c>
+      <c r="C865" t="s">
+        <v>6</v>
+      </c>
+      <c r="D865" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>4</v>
+      </c>
+      <c r="B866" t="s">
+        <v>5</v>
+      </c>
+      <c r="C866" t="s">
+        <v>6</v>
+      </c>
+      <c r="D866" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>4</v>
+      </c>
+      <c r="B867" t="s">
+        <v>5</v>
+      </c>
+      <c r="C867" t="s">
+        <v>6</v>
+      </c>
+      <c r="D867" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>4</v>
+      </c>
+      <c r="B868" t="s">
+        <v>5</v>
+      </c>
+      <c r="C868" t="s">
+        <v>6</v>
+      </c>
+      <c r="D868" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>4</v>
+      </c>
+      <c r="B869" t="s">
+        <v>5</v>
+      </c>
+      <c r="C869" t="s">
+        <v>6</v>
+      </c>
+      <c r="D869" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>4</v>
+      </c>
+      <c r="B870" t="s">
+        <v>5</v>
+      </c>
+      <c r="C870" t="s">
+        <v>6</v>
+      </c>
+      <c r="D870" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>4</v>
+      </c>
+      <c r="B871" t="s">
+        <v>5</v>
+      </c>
+      <c r="C871" t="s">
+        <v>6</v>
+      </c>
+      <c r="D871" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>4</v>
+      </c>
+      <c r="B872" t="s">
+        <v>5</v>
+      </c>
+      <c r="C872" t="s">
+        <v>6</v>
+      </c>
+      <c r="D872" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>4</v>
+      </c>
+      <c r="B873" t="s">
+        <v>5</v>
+      </c>
+      <c r="C873" t="s">
+        <v>6</v>
+      </c>
+      <c r="D873" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>4</v>
+      </c>
+      <c r="B874" t="s">
+        <v>5</v>
+      </c>
+      <c r="C874" t="s">
+        <v>6</v>
+      </c>
+      <c r="D874" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>4</v>
+      </c>
+      <c r="B875" t="s">
+        <v>5</v>
+      </c>
+      <c r="C875" t="s">
+        <v>6</v>
+      </c>
+      <c r="D875" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>4</v>
+      </c>
+      <c r="B876" t="s">
+        <v>5</v>
+      </c>
+      <c r="C876" t="s">
+        <v>6</v>
+      </c>
+      <c r="D876" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>4</v>
+      </c>
+      <c r="B877" t="s">
+        <v>5</v>
+      </c>
+      <c r="C877" t="s">
+        <v>6</v>
+      </c>
+      <c r="D877" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s">
+        <v>4</v>
+      </c>
+      <c r="B878" t="s">
+        <v>5</v>
+      </c>
+      <c r="C878" t="s">
+        <v>6</v>
+      </c>
+      <c r="D878" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>4</v>
+      </c>
+      <c r="B879" t="s">
+        <v>5</v>
+      </c>
+      <c r="C879" t="s">
+        <v>6</v>
+      </c>
+      <c r="D879" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s">
+        <v>4</v>
+      </c>
+      <c r="B880" t="s">
+        <v>5</v>
+      </c>
+      <c r="C880" t="s">
+        <v>6</v>
+      </c>
+      <c r="D880" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s">
+        <v>4</v>
+      </c>
+      <c r="B881" t="s">
+        <v>5</v>
+      </c>
+      <c r="C881" t="s">
+        <v>6</v>
+      </c>
+      <c r="D881" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s">
+        <v>4</v>
+      </c>
+      <c r="B882" t="s">
+        <v>5</v>
+      </c>
+      <c r="C882" t="s">
+        <v>6</v>
+      </c>
+      <c r="D882" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>4</v>
+      </c>
+      <c r="B883" t="s">
+        <v>5</v>
+      </c>
+      <c r="C883" t="s">
+        <v>6</v>
+      </c>
+      <c r="D883" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>4</v>
+      </c>
+      <c r="B884" t="s">
+        <v>5</v>
+      </c>
+      <c r="C884" t="s">
+        <v>6</v>
+      </c>
+      <c r="D884" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="s">
+        <v>4</v>
+      </c>
+      <c r="B885" t="s">
+        <v>5</v>
+      </c>
+      <c r="C885" t="s">
+        <v>6</v>
+      </c>
+      <c r="D885" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>4</v>
+      </c>
+      <c r="B886" t="s">
+        <v>5</v>
+      </c>
+      <c r="C886" t="s">
+        <v>6</v>
+      </c>
+      <c r="D886" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>4</v>
+      </c>
+      <c r="B887" t="s">
+        <v>5</v>
+      </c>
+      <c r="C887" t="s">
+        <v>6</v>
+      </c>
+      <c r="D887" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>4</v>
+      </c>
+      <c r="B888" t="s">
+        <v>5</v>
+      </c>
+      <c r="C888" t="s">
+        <v>6</v>
+      </c>
+      <c r="D888" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>4</v>
+      </c>
+      <c r="B889" t="s">
+        <v>5</v>
+      </c>
+      <c r="C889" t="s">
+        <v>6</v>
+      </c>
+      <c r="D889" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="s">
+        <v>4</v>
+      </c>
+      <c r="B890" t="s">
+        <v>5</v>
+      </c>
+      <c r="C890" t="s">
+        <v>6</v>
+      </c>
+      <c r="D890" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="s">
+        <v>4</v>
+      </c>
+      <c r="B891" t="s">
+        <v>5</v>
+      </c>
+      <c r="C891" t="s">
+        <v>6</v>
+      </c>
+      <c r="D891" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="s">
+        <v>4</v>
+      </c>
+      <c r="B892" t="s">
+        <v>5</v>
+      </c>
+      <c r="C892" t="s">
+        <v>6</v>
+      </c>
+      <c r="D892" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>4</v>
+      </c>
+      <c r="B893" t="s">
+        <v>5</v>
+      </c>
+      <c r="C893" t="s">
+        <v>6</v>
+      </c>
+      <c r="D893" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>4</v>
+      </c>
+      <c r="B894" t="s">
+        <v>5</v>
+      </c>
+      <c r="C894" t="s">
+        <v>6</v>
+      </c>
+      <c r="D894" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>4</v>
+      </c>
+      <c r="B895" t="s">
+        <v>5</v>
+      </c>
+      <c r="C895" t="s">
+        <v>6</v>
+      </c>
+      <c r="D895" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s">
+        <v>4</v>
+      </c>
+      <c r="B896" t="s">
+        <v>5</v>
+      </c>
+      <c r="C896" t="s">
+        <v>6</v>
+      </c>
+      <c r="D896" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s">
+        <v>4</v>
+      </c>
+      <c r="B897" t="s">
+        <v>5</v>
+      </c>
+      <c r="C897" t="s">
+        <v>6</v>
+      </c>
+      <c r="D897" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>4</v>
+      </c>
+      <c r="B898" t="s">
+        <v>5</v>
+      </c>
+      <c r="C898" t="s">
+        <v>6</v>
+      </c>
+      <c r="D898" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s">
+        <v>4</v>
+      </c>
+      <c r="B899" t="s">
+        <v>5</v>
+      </c>
+      <c r="C899" t="s">
+        <v>6</v>
+      </c>
+      <c r="D899" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s">
+        <v>4</v>
+      </c>
+      <c r="B900" t="s">
+        <v>5</v>
+      </c>
+      <c r="C900" t="s">
+        <v>6</v>
+      </c>
+      <c r="D900" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s">
+        <v>4</v>
+      </c>
+      <c r="B901" t="s">
+        <v>5</v>
+      </c>
+      <c r="C901" t="s">
+        <v>6</v>
+      </c>
+      <c r="D901" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s">
+        <v>4</v>
+      </c>
+      <c r="B902" t="s">
+        <v>5</v>
+      </c>
+      <c r="C902" t="s">
+        <v>6</v>
+      </c>
+      <c r="D902" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>4</v>
+      </c>
+      <c r="B903" t="s">
+        <v>5</v>
+      </c>
+      <c r="C903" t="s">
+        <v>6</v>
+      </c>
+      <c r="D903" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
+        <v>4</v>
+      </c>
+      <c r="B904" t="s">
+        <v>5</v>
+      </c>
+      <c r="C904" t="s">
+        <v>6</v>
+      </c>
+      <c r="D904" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>4</v>
+      </c>
+      <c r="B905" t="s">
+        <v>5</v>
+      </c>
+      <c r="C905" t="s">
+        <v>6</v>
+      </c>
+      <c r="D905" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>4</v>
+      </c>
+      <c r="B906" t="s">
+        <v>5</v>
+      </c>
+      <c r="C906" t="s">
+        <v>6</v>
+      </c>
+      <c r="D906" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s">
+        <v>4</v>
+      </c>
+      <c r="B907" t="s">
+        <v>5</v>
+      </c>
+      <c r="C907" t="s">
+        <v>6</v>
+      </c>
+      <c r="D907" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s">
+        <v>4</v>
+      </c>
+      <c r="B908" t="s">
+        <v>5</v>
+      </c>
+      <c r="C908" t="s">
+        <v>6</v>
+      </c>
+      <c r="D908" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s">
+        <v>4</v>
+      </c>
+      <c r="B909" t="s">
+        <v>5</v>
+      </c>
+      <c r="C909" t="s">
+        <v>6</v>
+      </c>
+      <c r="D909" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s">
+        <v>4</v>
+      </c>
+      <c r="B910" t="s">
+        <v>5</v>
+      </c>
+      <c r="C910" t="s">
+        <v>6</v>
+      </c>
+      <c r="D910" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s">
+        <v>4</v>
+      </c>
+      <c r="B911" t="s">
+        <v>5</v>
+      </c>
+      <c r="C911" t="s">
+        <v>6</v>
+      </c>
+      <c r="D911" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s">
+        <v>4</v>
+      </c>
+      <c r="B912" t="s">
+        <v>5</v>
+      </c>
+      <c r="C912" t="s">
+        <v>6</v>
+      </c>
+      <c r="D912" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="s">
+        <v>4</v>
+      </c>
+      <c r="B913" t="s">
+        <v>5</v>
+      </c>
+      <c r="C913" t="s">
+        <v>6</v>
+      </c>
+      <c r="D913" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="s">
+        <v>4</v>
+      </c>
+      <c r="B914" t="s">
+        <v>5</v>
+      </c>
+      <c r="C914" t="s">
+        <v>6</v>
+      </c>
+      <c r="D914" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="s">
+        <v>4</v>
+      </c>
+      <c r="B915" t="s">
+        <v>5</v>
+      </c>
+      <c r="C915" t="s">
+        <v>6</v>
+      </c>
+      <c r="D915" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="s">
+        <v>4</v>
+      </c>
+      <c r="B916" t="s">
+        <v>5</v>
+      </c>
+      <c r="C916" t="s">
+        <v>6</v>
+      </c>
+      <c r="D916" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="s">
+        <v>4</v>
+      </c>
+      <c r="B917" t="s">
+        <v>5</v>
+      </c>
+      <c r="C917" t="s">
+        <v>6</v>
+      </c>
+      <c r="D917" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="s">
+        <v>4</v>
+      </c>
+      <c r="B918" t="s">
+        <v>5</v>
+      </c>
+      <c r="C918" t="s">
+        <v>6</v>
+      </c>
+      <c r="D918" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="s">
+        <v>4</v>
+      </c>
+      <c r="B919" t="s">
+        <v>5</v>
+      </c>
+      <c r="C919" t="s">
+        <v>6</v>
+      </c>
+      <c r="D919" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="s">
+        <v>4</v>
+      </c>
+      <c r="B920" t="s">
+        <v>5</v>
+      </c>
+      <c r="C920" t="s">
+        <v>6</v>
+      </c>
+      <c r="D920" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="s">
+        <v>4</v>
+      </c>
+      <c r="B921" t="s">
+        <v>5</v>
+      </c>
+      <c r="C921" t="s">
+        <v>6</v>
+      </c>
+      <c r="D921" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s">
+        <v>4</v>
+      </c>
+      <c r="B922" t="s">
+        <v>5</v>
+      </c>
+      <c r="C922" t="s">
+        <v>6</v>
+      </c>
+      <c r="D922" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="s">
+        <v>4</v>
+      </c>
+      <c r="B923" t="s">
+        <v>5</v>
+      </c>
+      <c r="C923" t="s">
+        <v>6</v>
+      </c>
+      <c r="D923" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="s">
+        <v>4</v>
+      </c>
+      <c r="B924" t="s">
+        <v>5</v>
+      </c>
+      <c r="C924" t="s">
+        <v>6</v>
+      </c>
+      <c r="D924" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="s">
+        <v>4</v>
+      </c>
+      <c r="B925" t="s">
+        <v>5</v>
+      </c>
+      <c r="C925" t="s">
+        <v>6</v>
+      </c>
+      <c r="D925" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="s">
+        <v>4</v>
+      </c>
+      <c r="B926" t="s">
+        <v>5</v>
+      </c>
+      <c r="C926" t="s">
+        <v>6</v>
+      </c>
+      <c r="D926" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="s">
+        <v>4</v>
+      </c>
+      <c r="B927" t="s">
+        <v>5</v>
+      </c>
+      <c r="C927" t="s">
+        <v>6</v>
+      </c>
+      <c r="D927" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="s">
+        <v>4</v>
+      </c>
+      <c r="B928" t="s">
+        <v>5</v>
+      </c>
+      <c r="C928" t="s">
+        <v>6</v>
+      </c>
+      <c r="D928" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="s">
+        <v>4</v>
+      </c>
+      <c r="B929" t="s">
+        <v>5</v>
+      </c>
+      <c r="C929" t="s">
+        <v>6</v>
+      </c>
+      <c r="D929" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="s">
+        <v>4</v>
+      </c>
+      <c r="B930" t="s">
+        <v>5</v>
+      </c>
+      <c r="C930" t="s">
+        <v>6</v>
+      </c>
+      <c r="D930" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="s">
+        <v>4</v>
+      </c>
+      <c r="B931" t="s">
+        <v>5</v>
+      </c>
+      <c r="C931" t="s">
+        <v>6</v>
+      </c>
+      <c r="D931" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="s">
+        <v>4</v>
+      </c>
+      <c r="B932" t="s">
+        <v>5</v>
+      </c>
+      <c r="C932" t="s">
+        <v>6</v>
+      </c>
+      <c r="D932" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="s">
+        <v>4</v>
+      </c>
+      <c r="B933" t="s">
+        <v>5</v>
+      </c>
+      <c r="C933" t="s">
+        <v>6</v>
+      </c>
+      <c r="D933" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="s">
+        <v>4</v>
+      </c>
+      <c r="B934" t="s">
+        <v>5</v>
+      </c>
+      <c r="C934" t="s">
+        <v>6</v>
+      </c>
+      <c r="D934" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="s">
+        <v>4</v>
+      </c>
+      <c r="B935" t="s">
+        <v>5</v>
+      </c>
+      <c r="C935" t="s">
+        <v>6</v>
+      </c>
+      <c r="D935" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="s">
+        <v>4</v>
+      </c>
+      <c r="B936" t="s">
+        <v>5</v>
+      </c>
+      <c r="C936" t="s">
+        <v>6</v>
+      </c>
+      <c r="D936" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="s">
+        <v>4</v>
+      </c>
+      <c r="B937" t="s">
+        <v>5</v>
+      </c>
+      <c r="C937" t="s">
+        <v>6</v>
+      </c>
+      <c r="D937" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="s">
+        <v>4</v>
+      </c>
+      <c r="B938" t="s">
+        <v>5</v>
+      </c>
+      <c r="C938" t="s">
+        <v>6</v>
+      </c>
+      <c r="D938" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="s">
+        <v>4</v>
+      </c>
+      <c r="B939" t="s">
+        <v>5</v>
+      </c>
+      <c r="C939" t="s">
+        <v>6</v>
+      </c>
+      <c r="D939" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="s">
+        <v>4</v>
+      </c>
+      <c r="B940" t="s">
+        <v>5</v>
+      </c>
+      <c r="C940" t="s">
+        <v>6</v>
+      </c>
+      <c r="D940" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="s">
+        <v>4</v>
+      </c>
+      <c r="B941" t="s">
+        <v>5</v>
+      </c>
+      <c r="C941" t="s">
+        <v>6</v>
+      </c>
+      <c r="D941" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="s">
+        <v>4</v>
+      </c>
+      <c r="B942" t="s">
+        <v>5</v>
+      </c>
+      <c r="C942" t="s">
+        <v>6</v>
+      </c>
+      <c r="D942" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="s">
+        <v>4</v>
+      </c>
+      <c r="B943" t="s">
+        <v>5</v>
+      </c>
+      <c r="C943" t="s">
+        <v>6</v>
+      </c>
+      <c r="D943" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="s">
+        <v>4</v>
+      </c>
+      <c r="B944" t="s">
+        <v>5</v>
+      </c>
+      <c r="C944" t="s">
+        <v>6</v>
+      </c>
+      <c r="D944" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="s">
+        <v>4</v>
+      </c>
+      <c r="B945" t="s">
+        <v>5</v>
+      </c>
+      <c r="C945" t="s">
+        <v>6</v>
+      </c>
+      <c r="D945" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="s">
+        <v>4</v>
+      </c>
+      <c r="B946" t="s">
+        <v>5</v>
+      </c>
+      <c r="C946" t="s">
+        <v>6</v>
+      </c>
+      <c r="D946" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="s">
+        <v>4</v>
+      </c>
+      <c r="B947" t="s">
+        <v>5</v>
+      </c>
+      <c r="C947" t="s">
+        <v>6</v>
+      </c>
+      <c r="D947" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="s">
+        <v>4</v>
+      </c>
+      <c r="B948" t="s">
+        <v>5</v>
+      </c>
+      <c r="C948" t="s">
+        <v>6</v>
+      </c>
+      <c r="D948" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="s">
+        <v>4</v>
+      </c>
+      <c r="B949" t="s">
+        <v>5</v>
+      </c>
+      <c r="C949" t="s">
+        <v>6</v>
+      </c>
+      <c r="D949" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="s">
+        <v>4</v>
+      </c>
+      <c r="B950" t="s">
+        <v>5</v>
+      </c>
+      <c r="C950" t="s">
+        <v>6</v>
+      </c>
+      <c r="D950" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="s">
+        <v>4</v>
+      </c>
+      <c r="B951" t="s">
+        <v>5</v>
+      </c>
+      <c r="C951" t="s">
+        <v>6</v>
+      </c>
+      <c r="D951" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="s">
+        <v>4</v>
+      </c>
+      <c r="B952" t="s">
+        <v>5</v>
+      </c>
+      <c r="C952" t="s">
+        <v>6</v>
+      </c>
+      <c r="D952" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="s">
+        <v>4</v>
+      </c>
+      <c r="B953" t="s">
+        <v>5</v>
+      </c>
+      <c r="C953" t="s">
+        <v>6</v>
+      </c>
+      <c r="D953" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="s">
+        <v>4</v>
+      </c>
+      <c r="B954" t="s">
+        <v>5</v>
+      </c>
+      <c r="C954" t="s">
+        <v>6</v>
+      </c>
+      <c r="D954" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="s">
+        <v>4</v>
+      </c>
+      <c r="B955" t="s">
+        <v>5</v>
+      </c>
+      <c r="C955" t="s">
+        <v>6</v>
+      </c>
+      <c r="D955" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="s">
+        <v>4</v>
+      </c>
+      <c r="B956" t="s">
+        <v>5</v>
+      </c>
+      <c r="C956" t="s">
+        <v>6</v>
+      </c>
+      <c r="D956" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="s">
+        <v>4</v>
+      </c>
+      <c r="B957" t="s">
+        <v>5</v>
+      </c>
+      <c r="C957" t="s">
+        <v>6</v>
+      </c>
+      <c r="D957" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="s">
+        <v>4</v>
+      </c>
+      <c r="B958" t="s">
+        <v>5</v>
+      </c>
+      <c r="C958" t="s">
+        <v>6</v>
+      </c>
+      <c r="D958" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="s">
+        <v>4</v>
+      </c>
+      <c r="B959" t="s">
+        <v>5</v>
+      </c>
+      <c r="C959" t="s">
+        <v>6</v>
+      </c>
+      <c r="D959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="s">
+        <v>4</v>
+      </c>
+      <c r="B960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C960" t="s">
+        <v>6</v>
+      </c>
+      <c r="D960" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="s">
+        <v>4</v>
+      </c>
+      <c r="B961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C961" t="s">
+        <v>6</v>
+      </c>
+      <c r="D961" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="s">
+        <v>4</v>
+      </c>
+      <c r="B962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C962" t="s">
+        <v>6</v>
+      </c>
+      <c r="D962" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="s">
+        <v>4</v>
+      </c>
+      <c r="B963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C963" t="s">
+        <v>6</v>
+      </c>
+      <c r="D963" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="s">
+        <v>4</v>
+      </c>
+      <c r="B964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C964" t="s">
+        <v>6</v>
+      </c>
+      <c r="D964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="s">
+        <v>4</v>
+      </c>
+      <c r="B965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C965" t="s">
+        <v>6</v>
+      </c>
+      <c r="D965" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="s">
+        <v>4</v>
+      </c>
+      <c r="B966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C966" t="s">
+        <v>6</v>
+      </c>
+      <c r="D966" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="s">
+        <v>4</v>
+      </c>
+      <c r="B967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C967" t="s">
+        <v>6</v>
+      </c>
+      <c r="D967" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="s">
+        <v>4</v>
+      </c>
+      <c r="B968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C968" t="s">
+        <v>6</v>
+      </c>
+      <c r="D968" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="s">
+        <v>4</v>
+      </c>
+      <c r="B969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C969" t="s">
+        <v>6</v>
+      </c>
+      <c r="D969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="s">
+        <v>4</v>
+      </c>
+      <c r="B970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C970" t="s">
+        <v>6</v>
+      </c>
+      <c r="D970" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="s">
+        <v>4</v>
+      </c>
+      <c r="B971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C971" t="s">
+        <v>6</v>
+      </c>
+      <c r="D971" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="s">
+        <v>4</v>
+      </c>
+      <c r="B972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C972" t="s">
+        <v>6</v>
+      </c>
+      <c r="D972" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="s">
+        <v>4</v>
+      </c>
+      <c r="B973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C973" t="s">
+        <v>6</v>
+      </c>
+      <c r="D973" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="s">
+        <v>4</v>
+      </c>
+      <c r="B974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C974" t="s">
+        <v>6</v>
+      </c>
+      <c r="D974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="s">
+        <v>4</v>
+      </c>
+      <c r="B975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C975" t="s">
+        <v>6</v>
+      </c>
+      <c r="D975" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="s">
+        <v>4</v>
+      </c>
+      <c r="B976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C976" t="s">
+        <v>6</v>
+      </c>
+      <c r="D976" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="s">
+        <v>4</v>
+      </c>
+      <c r="B977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C977" t="s">
+        <v>6</v>
+      </c>
+      <c r="D977" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="s">
+        <v>4</v>
+      </c>
+      <c r="B978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C978" t="s">
+        <v>6</v>
+      </c>
+      <c r="D978" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="s">
+        <v>4</v>
+      </c>
+      <c r="B979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C979" t="s">
+        <v>6</v>
+      </c>
+      <c r="D979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="s">
+        <v>4</v>
+      </c>
+      <c r="B980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C980" t="s">
+        <v>6</v>
+      </c>
+      <c r="D980" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="s">
+        <v>4</v>
+      </c>
+      <c r="B981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C981" t="s">
+        <v>6</v>
+      </c>
+      <c r="D981" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="s">
+        <v>4</v>
+      </c>
+      <c r="B982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C982" t="s">
+        <v>6</v>
+      </c>
+      <c r="D982" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="s">
+        <v>4</v>
+      </c>
+      <c r="B983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C983" t="s">
+        <v>6</v>
+      </c>
+      <c r="D983" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="s">
+        <v>4</v>
+      </c>
+      <c r="B984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C984" t="s">
+        <v>6</v>
+      </c>
+      <c r="D984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="s">
+        <v>4</v>
+      </c>
+      <c r="B985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C985" t="s">
+        <v>6</v>
+      </c>
+      <c r="D985" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="s">
+        <v>4</v>
+      </c>
+      <c r="B986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C986" t="s">
+        <v>6</v>
+      </c>
+      <c r="D986" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="s">
+        <v>4</v>
+      </c>
+      <c r="B987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C987" t="s">
+        <v>6</v>
+      </c>
+      <c r="D987" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="s">
+        <v>4</v>
+      </c>
+      <c r="B988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C988" t="s">
+        <v>6</v>
+      </c>
+      <c r="D988" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="s">
+        <v>4</v>
+      </c>
+      <c r="B989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C989" t="s">
+        <v>6</v>
+      </c>
+      <c r="D989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="s">
+        <v>4</v>
+      </c>
+      <c r="B990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C990" t="s">
+        <v>6</v>
+      </c>
+      <c r="D990" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="s">
+        <v>4</v>
+      </c>
+      <c r="B991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C991" t="s">
+        <v>6</v>
+      </c>
+      <c r="D991" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="s">
+        <v>4</v>
+      </c>
+      <c r="B992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C992" t="s">
+        <v>6</v>
+      </c>
+      <c r="D992" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="s">
+        <v>4</v>
+      </c>
+      <c r="B993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C993" t="s">
+        <v>6</v>
+      </c>
+      <c r="D993" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="s">
+        <v>4</v>
+      </c>
+      <c r="B994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C994" t="s">
+        <v>6</v>
+      </c>
+      <c r="D994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="s">
+        <v>4</v>
+      </c>
+      <c r="B995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C995" t="s">
+        <v>6</v>
+      </c>
+      <c r="D995" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="s">
+        <v>4</v>
+      </c>
+      <c r="B996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C996" t="s">
+        <v>6</v>
+      </c>
+      <c r="D996" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="s">
+        <v>4</v>
+      </c>
+      <c r="B997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C997" t="s">
+        <v>6</v>
+      </c>
+      <c r="D997" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="s">
+        <v>4</v>
+      </c>
+      <c r="B998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C998" t="s">
+        <v>6</v>
+      </c>
+      <c r="D998" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="s">
+        <v>4</v>
+      </c>
+      <c r="B999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C999" t="s">
+        <v>6</v>
+      </c>
+      <c r="D999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1001" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -29,7 +29,7 @@
     <t>007</t>
   </si>
   <si>
-    <t>What is appear in test?</t>
+    <t>gfxvrjenhtfepklfpplc</t>
   </si>
   <si>
     <t>12/12/22 12:09:59</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>gfxvrjenhtfepklfpplc</t>
   </si>
   <si>
-    <t>12/12/22 12:09:59</t>
+    <t>12/12/22 12:10:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>gfxvrjenhtfepklfpplc</t>
   </si>
   <si>
-    <t>12/12/22 12:10:59</t>
+    <t>12/12/22 12:11:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>gfxvrjenhtfepklfpplc</t>
   </si>
   <si>
-    <t>12/12/22 12:11:59</t>
+    <t>12/12/22 12:12:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>gfxvrjenhtfepklfpplc</t>
   </si>
   <si>
-    <t>12/12/22 12:12:59</t>
+    <t>12/12/22 12:13:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>gfxvrjenhtfepklfpplc</t>
   </si>
   <si>
-    <t>12/12/22 12:13:59</t>
+    <t>12/12/22 12:14:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -29,10 +29,10 @@
     <t>007</t>
   </si>
   <si>
-    <t>gfxvrjenhtfepklfpplc</t>
+    <t>hitsvqxmcgnmmjrewquq</t>
   </si>
   <si>
-    <t>12/12/22 12:14:59</t>
+    <t>12/12/22 12:15:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -92,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,10 +129,22 @@
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
@@ -141,6 +153,18 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
@@ -149,6 +173,18 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
@@ -157,11 +193,93 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="12">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -92,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,7 +129,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="3">
@@ -209,7 +209,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="7">
@@ -279,6 +279,1266 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="111">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -29,13 +29,310 @@
     <t>007</t>
   </si>
   <si>
-    <t>hitsvqxmcgnmmjrewquq</t>
+    <t>jtqrqgwlehhxdlekqwam</t>
   </si>
   <si>
     <t>12/12/22 12:15:59</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>mmcbolqlboyauofxrsel</t>
+  </si>
+  <si>
+    <t>eckyrogxfynzmahdtiyf</t>
+  </si>
+  <si>
+    <t>fzqyrdajfykfprkxlhos</t>
+  </si>
+  <si>
+    <t>vtlnwqtgzvduwkdkovst</t>
+  </si>
+  <si>
+    <t>ijjoykhdydmvnvebelcn</t>
+  </si>
+  <si>
+    <t>gvesaflkfdscptawdlaa</t>
+  </si>
+  <si>
+    <t>hmodyqayoamutoxlvyiy</t>
+  </si>
+  <si>
+    <t>qeoehlopxbpeweaodxxe</t>
+  </si>
+  <si>
+    <t>gkamsvampvavasbbjoje</t>
+  </si>
+  <si>
+    <t>mnzrjrfxacfjqrmrdgzn</t>
+  </si>
+  <si>
+    <t>vrpvnojnogkqvsylqcyy</t>
+  </si>
+  <si>
+    <t>etyhhyhqlgdtycslgycy</t>
+  </si>
+  <si>
+    <t>iluoteecempmvdjfqcyu</t>
+  </si>
+  <si>
+    <t>tayvkdullturxaswcxau</t>
+  </si>
+  <si>
+    <t>kkcexjbtpshdpuqiizhl</t>
+  </si>
+  <si>
+    <t>xpekhyatfaujvlxebzfd</t>
+  </si>
+  <si>
+    <t>cdlorbhdofkwmhjutefu</t>
+  </si>
+  <si>
+    <t>nxmrjlokmzeorfvnyxho</t>
+  </si>
+  <si>
+    <t>fiwcubcebfzuqzshytsm</t>
+  </si>
+  <si>
+    <t>brrkevhlgjwswvefdezo</t>
+  </si>
+  <si>
+    <t>kjrkkcxquemtcrwhxcrq</t>
+  </si>
+  <si>
+    <t>eafshimuwzmlkislazzf</t>
+  </si>
+  <si>
+    <t>dbdodxusmzhahsclrwet</t>
+  </si>
+  <si>
+    <t>ihttyvwfosmpbuknrnan</t>
+  </si>
+  <si>
+    <t>mvoxfrulckralelgdvax</t>
+  </si>
+  <si>
+    <t>vkeaydkeixyqbudvvrfm</t>
+  </si>
+  <si>
+    <t>rztfigofjgklqkqdjjvl</t>
+  </si>
+  <si>
+    <t>mvtlexlkhghcvoqoumvu</t>
+  </si>
+  <si>
+    <t>xaawlntnvqcxduemopcd</t>
+  </si>
+  <si>
+    <t>eqylxwmccyblhtlkpsst</t>
+  </si>
+  <si>
+    <t>bquisxaiatueotmrzpfq</t>
+  </si>
+  <si>
+    <t>vkoiebasaznqnlvgayml</t>
+  </si>
+  <si>
+    <t>uggjmvfyliljhtksykyq</t>
+  </si>
+  <si>
+    <t>zlkypbzyjhsktyqzokxx</t>
+  </si>
+  <si>
+    <t>pqyfqivxdrshschvrteo</t>
+  </si>
+  <si>
+    <t>ksfmjumrarlgypfcenmq</t>
+  </si>
+  <si>
+    <t>lsndbikcypsmmnpsduxk</t>
+  </si>
+  <si>
+    <t>pdwuihcszrgepogyopmt</t>
+  </si>
+  <si>
+    <t>mttvmwflrhyqsiyiyvlt</t>
+  </si>
+  <si>
+    <t>mzyptdjfvccktxnhzqev</t>
+  </si>
+  <si>
+    <t>kzdsjxfbpkygjxjbivcq</t>
+  </si>
+  <si>
+    <t>bsjepuvslsouzucvepfd</t>
+  </si>
+  <si>
+    <t>slzblfzhuygbqezclvbc</t>
+  </si>
+  <si>
+    <t>xmowmghtxmhvdoespjdu</t>
+  </si>
+  <si>
+    <t>bmhmadhvargiuwnezcvq</t>
+  </si>
+  <si>
+    <t>ntfmqgrofpbstuyoybxh</t>
+  </si>
+  <si>
+    <t>cxivwqbfeswletoxypaw</t>
+  </si>
+  <si>
+    <t>pekhrbpjrutlxsnhbzst</t>
+  </si>
+  <si>
+    <t>bvjwtzlwnotyrgxhizsp</t>
+  </si>
+  <si>
+    <t>bqkjqrbogenzugcfzusb</t>
+  </si>
+  <si>
+    <t>vfiwboheegrmwodxlpqg</t>
+  </si>
+  <si>
+    <t>koubxsgegzvcakksyhwq</t>
+  </si>
+  <si>
+    <t>uybvwxkiedxncuaocbyj</t>
+  </si>
+  <si>
+    <t>tchcpuqldriqqxyivcmc</t>
+  </si>
+  <si>
+    <t>idgdqnkfqpmyoxlzikrx</t>
+  </si>
+  <si>
+    <t>dmvjizcaioeftgfpmwfj</t>
+  </si>
+  <si>
+    <t>rgtuxetpskfmgbvwlgba</t>
+  </si>
+  <si>
+    <t>yrwxrhnqxwezymxmpiyi</t>
+  </si>
+  <si>
+    <t>kmqlcxuqehriopvpbukh</t>
+  </si>
+  <si>
+    <t>lycqyaddqfidbmqcfmfb</t>
+  </si>
+  <si>
+    <t>suoevedknioxlvrvshke</t>
+  </si>
+  <si>
+    <t>ngvfgvoxrpcwsiogzdxi</t>
+  </si>
+  <si>
+    <t>ffcevjxeoxhosnztbxui</t>
+  </si>
+  <si>
+    <t>lgrpxdabekxnfivyctkj</t>
+  </si>
+  <si>
+    <t>wddjeksrysxalkoiasxm</t>
+  </si>
+  <si>
+    <t>rsqbrpkyhsltbvebwnbv</t>
+  </si>
+  <si>
+    <t>lemftxfjdmatisthwphg</t>
+  </si>
+  <si>
+    <t>aeusrmaiptqeyrjchpgo</t>
+  </si>
+  <si>
+    <t>audivbqeezjmrtpkclol</t>
+  </si>
+  <si>
+    <t>mluleilqdbmsxwyiscja</t>
+  </si>
+  <si>
+    <t>zffgjzvtkgruwhtgptwr</t>
+  </si>
+  <si>
+    <t>ititqzdsmgedfedrmmdy</t>
+  </si>
+  <si>
+    <t>jtyebehmjlblyhhyqpef</t>
+  </si>
+  <si>
+    <t>dsjjohqprqxuvrebhnpt</t>
+  </si>
+  <si>
+    <t>aiqjnumxatwrnwgojqcy</t>
+  </si>
+  <si>
+    <t>nnnbuqsrqhshtmmbcitz</t>
+  </si>
+  <si>
+    <t>rwblfeaqfyuafakoxhtt</t>
+  </si>
+  <si>
+    <t>cwscxdpvzbdbvpacvjqz</t>
+  </si>
+  <si>
+    <t>urnzbwyrqeamsujxkrsw</t>
+  </si>
+  <si>
+    <t>oydjevytpiwvvpjwmpma</t>
+  </si>
+  <si>
+    <t>bnmrhzvdicocgphekhou</t>
+  </si>
+  <si>
+    <t>xqavpqlntfmzhiwenhpq</t>
+  </si>
+  <si>
+    <t>xymrbsfalrrddfwserfe</t>
+  </si>
+  <si>
+    <t>zgofqqseebemmqqqooab</t>
+  </si>
+  <si>
+    <t>oqgtfwmjzmowwxrbslyf</t>
+  </si>
+  <si>
+    <t>lvlqajkgpcqfdqmjjjqo</t>
+  </si>
+  <si>
+    <t>gioaufquqlrtlwqgnryi</t>
+  </si>
+  <si>
+    <t>iyeiasqxymxqehvtwznw</t>
+  </si>
+  <si>
+    <t>dfyfzjziykuctilzfjkp</t>
+  </si>
+  <si>
+    <t>edxpwonatdvehoxazwcy</t>
+  </si>
+  <si>
+    <t>bhmtvkdhfawdmasnmxnp</t>
+  </si>
+  <si>
+    <t>wscuubkqjhytemqqjufy</t>
+  </si>
+  <si>
+    <t>jlabfynwjsfhirovecer</t>
+  </si>
+  <si>
+    <t>bzfxemxxenllyanznvjo</t>
+  </si>
+  <si>
+    <t>ykhutssexnmuttfdcxxt</t>
+  </si>
+  <si>
+    <t>rgamfzugokwtalyxghhx</t>
+  </si>
+  <si>
+    <t>uhkhzznwnmmcjhjpfpkq</t>
+  </si>
+  <si>
+    <t>fckrwxoslzxchxibhaqv</t>
+  </si>
+  <si>
+    <t>xvtjjeclntqixvhoxhsy</t>
   </si>
   <si>
     <t>Fail</t>
@@ -137,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -146,7 +443,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -157,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -166,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -177,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -186,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -197,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -206,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="G6" t="n">
         <v>100.0</v>
@@ -217,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -231,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -245,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -259,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -273,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -287,7 +584,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -301,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -315,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -329,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -343,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -357,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -371,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -385,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -399,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -413,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -427,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -441,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -455,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -469,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -483,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -497,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -511,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -525,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -539,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -553,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -567,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -581,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -595,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -609,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -623,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -637,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -651,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -665,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -679,7 +976,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -693,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -707,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -721,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -735,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -749,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -763,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -777,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -791,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -805,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -819,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -833,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -847,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -861,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -875,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -889,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -903,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -917,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -931,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -945,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -959,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -973,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -987,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1001,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -1015,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1029,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -1043,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1057,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1071,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -1085,7 +1382,7 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -1099,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -1113,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -1127,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1141,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1155,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -1169,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -1183,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -1197,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -1211,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -1225,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -1239,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -1253,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -1267,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -1281,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -1295,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -1309,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -1323,7 +1620,7 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -1337,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -1351,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -1365,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -1379,7 +1676,7 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -1393,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -1407,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -1421,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -1435,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -1449,7 +1746,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -1463,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -1477,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -1491,7 +1788,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -1505,7 +1802,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -1519,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
@@ -1533,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>jtqrqgwlehhxdlekqwam</t>
   </si>
   <si>
-    <t>12/12/22 12:15:59</t>
+    <t>12/12/22 12:17:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>jtqrqgwlehhxdlekqwam</t>
   </si>
   <si>
-    <t>12/12/22 12:17:59</t>
+    <t>12/12/22 12:18:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>jtqrqgwlehhxdlekqwam</t>
   </si>
   <si>
-    <t>12/12/22 12:18:59</t>
+    <t>12/12/22 12:19:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -29,310 +29,310 @@
     <t>007</t>
   </si>
   <si>
-    <t>jtqrqgwlehhxdlekqwam</t>
-  </si>
-  <si>
-    <t>12/12/22 12:19:59</t>
+    <t>hghzdytxlndcrwiblyuk</t>
+  </si>
+  <si>
+    <t>12/12/22 12:20:59</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>mmcbolqlboyauofxrsel</t>
-  </si>
-  <si>
-    <t>eckyrogxfynzmahdtiyf</t>
-  </si>
-  <si>
-    <t>fzqyrdajfykfprkxlhos</t>
-  </si>
-  <si>
-    <t>vtlnwqtgzvduwkdkovst</t>
-  </si>
-  <si>
-    <t>ijjoykhdydmvnvebelcn</t>
-  </si>
-  <si>
-    <t>gvesaflkfdscptawdlaa</t>
-  </si>
-  <si>
-    <t>hmodyqayoamutoxlvyiy</t>
-  </si>
-  <si>
-    <t>qeoehlopxbpeweaodxxe</t>
-  </si>
-  <si>
-    <t>gkamsvampvavasbbjoje</t>
-  </si>
-  <si>
-    <t>mnzrjrfxacfjqrmrdgzn</t>
-  </si>
-  <si>
-    <t>vrpvnojnogkqvsylqcyy</t>
-  </si>
-  <si>
-    <t>etyhhyhqlgdtycslgycy</t>
-  </si>
-  <si>
-    <t>iluoteecempmvdjfqcyu</t>
-  </si>
-  <si>
-    <t>tayvkdullturxaswcxau</t>
-  </si>
-  <si>
-    <t>kkcexjbtpshdpuqiizhl</t>
-  </si>
-  <si>
-    <t>xpekhyatfaujvlxebzfd</t>
-  </si>
-  <si>
-    <t>cdlorbhdofkwmhjutefu</t>
-  </si>
-  <si>
-    <t>nxmrjlokmzeorfvnyxho</t>
-  </si>
-  <si>
-    <t>fiwcubcebfzuqzshytsm</t>
-  </si>
-  <si>
-    <t>brrkevhlgjwswvefdezo</t>
-  </si>
-  <si>
-    <t>kjrkkcxquemtcrwhxcrq</t>
-  </si>
-  <si>
-    <t>eafshimuwzmlkislazzf</t>
-  </si>
-  <si>
-    <t>dbdodxusmzhahsclrwet</t>
-  </si>
-  <si>
-    <t>ihttyvwfosmpbuknrnan</t>
-  </si>
-  <si>
-    <t>mvoxfrulckralelgdvax</t>
-  </si>
-  <si>
-    <t>vkeaydkeixyqbudvvrfm</t>
-  </si>
-  <si>
-    <t>rztfigofjgklqkqdjjvl</t>
-  </si>
-  <si>
-    <t>mvtlexlkhghcvoqoumvu</t>
-  </si>
-  <si>
-    <t>xaawlntnvqcxduemopcd</t>
-  </si>
-  <si>
-    <t>eqylxwmccyblhtlkpsst</t>
-  </si>
-  <si>
-    <t>bquisxaiatueotmrzpfq</t>
-  </si>
-  <si>
-    <t>vkoiebasaznqnlvgayml</t>
-  </si>
-  <si>
-    <t>uggjmvfyliljhtksykyq</t>
-  </si>
-  <si>
-    <t>zlkypbzyjhsktyqzokxx</t>
-  </si>
-  <si>
-    <t>pqyfqivxdrshschvrteo</t>
-  </si>
-  <si>
-    <t>ksfmjumrarlgypfcenmq</t>
-  </si>
-  <si>
-    <t>lsndbikcypsmmnpsduxk</t>
-  </si>
-  <si>
-    <t>pdwuihcszrgepogyopmt</t>
-  </si>
-  <si>
-    <t>mttvmwflrhyqsiyiyvlt</t>
-  </si>
-  <si>
-    <t>mzyptdjfvccktxnhzqev</t>
-  </si>
-  <si>
-    <t>kzdsjxfbpkygjxjbivcq</t>
-  </si>
-  <si>
-    <t>bsjepuvslsouzucvepfd</t>
-  </si>
-  <si>
-    <t>slzblfzhuygbqezclvbc</t>
-  </si>
-  <si>
-    <t>xmowmghtxmhvdoespjdu</t>
-  </si>
-  <si>
-    <t>bmhmadhvargiuwnezcvq</t>
-  </si>
-  <si>
-    <t>ntfmqgrofpbstuyoybxh</t>
-  </si>
-  <si>
-    <t>cxivwqbfeswletoxypaw</t>
-  </si>
-  <si>
-    <t>pekhrbpjrutlxsnhbzst</t>
-  </si>
-  <si>
-    <t>bvjwtzlwnotyrgxhizsp</t>
-  </si>
-  <si>
-    <t>bqkjqrbogenzugcfzusb</t>
-  </si>
-  <si>
-    <t>vfiwboheegrmwodxlpqg</t>
-  </si>
-  <si>
-    <t>koubxsgegzvcakksyhwq</t>
-  </si>
-  <si>
-    <t>uybvwxkiedxncuaocbyj</t>
-  </si>
-  <si>
-    <t>tchcpuqldriqqxyivcmc</t>
-  </si>
-  <si>
-    <t>idgdqnkfqpmyoxlzikrx</t>
-  </si>
-  <si>
-    <t>dmvjizcaioeftgfpmwfj</t>
-  </si>
-  <si>
-    <t>rgtuxetpskfmgbvwlgba</t>
-  </si>
-  <si>
-    <t>yrwxrhnqxwezymxmpiyi</t>
-  </si>
-  <si>
-    <t>kmqlcxuqehriopvpbukh</t>
-  </si>
-  <si>
-    <t>lycqyaddqfidbmqcfmfb</t>
-  </si>
-  <si>
-    <t>suoevedknioxlvrvshke</t>
-  </si>
-  <si>
-    <t>ngvfgvoxrpcwsiogzdxi</t>
-  </si>
-  <si>
-    <t>ffcevjxeoxhosnztbxui</t>
-  </si>
-  <si>
-    <t>lgrpxdabekxnfivyctkj</t>
-  </si>
-  <si>
-    <t>wddjeksrysxalkoiasxm</t>
-  </si>
-  <si>
-    <t>rsqbrpkyhsltbvebwnbv</t>
-  </si>
-  <si>
-    <t>lemftxfjdmatisthwphg</t>
-  </si>
-  <si>
-    <t>aeusrmaiptqeyrjchpgo</t>
-  </si>
-  <si>
-    <t>audivbqeezjmrtpkclol</t>
-  </si>
-  <si>
-    <t>mluleilqdbmsxwyiscja</t>
-  </si>
-  <si>
-    <t>zffgjzvtkgruwhtgptwr</t>
-  </si>
-  <si>
-    <t>ititqzdsmgedfedrmmdy</t>
-  </si>
-  <si>
-    <t>jtyebehmjlblyhhyqpef</t>
-  </si>
-  <si>
-    <t>dsjjohqprqxuvrebhnpt</t>
-  </si>
-  <si>
-    <t>aiqjnumxatwrnwgojqcy</t>
-  </si>
-  <si>
-    <t>nnnbuqsrqhshtmmbcitz</t>
-  </si>
-  <si>
-    <t>rwblfeaqfyuafakoxhtt</t>
-  </si>
-  <si>
-    <t>cwscxdpvzbdbvpacvjqz</t>
-  </si>
-  <si>
-    <t>urnzbwyrqeamsujxkrsw</t>
-  </si>
-  <si>
-    <t>oydjevytpiwvvpjwmpma</t>
-  </si>
-  <si>
-    <t>bnmrhzvdicocgphekhou</t>
-  </si>
-  <si>
-    <t>xqavpqlntfmzhiwenhpq</t>
-  </si>
-  <si>
-    <t>xymrbsfalrrddfwserfe</t>
-  </si>
-  <si>
-    <t>zgofqqseebemmqqqooab</t>
-  </si>
-  <si>
-    <t>oqgtfwmjzmowwxrbslyf</t>
-  </si>
-  <si>
-    <t>lvlqajkgpcqfdqmjjjqo</t>
-  </si>
-  <si>
-    <t>gioaufquqlrtlwqgnryi</t>
-  </si>
-  <si>
-    <t>iyeiasqxymxqehvtwznw</t>
-  </si>
-  <si>
-    <t>dfyfzjziykuctilzfjkp</t>
-  </si>
-  <si>
-    <t>edxpwonatdvehoxazwcy</t>
-  </si>
-  <si>
-    <t>bhmtvkdhfawdmasnmxnp</t>
-  </si>
-  <si>
-    <t>wscuubkqjhytemqqjufy</t>
-  </si>
-  <si>
-    <t>jlabfynwjsfhirovecer</t>
-  </si>
-  <si>
-    <t>bzfxemxxenllyanznvjo</t>
-  </si>
-  <si>
-    <t>ykhutssexnmuttfdcxxt</t>
-  </si>
-  <si>
-    <t>rgamfzugokwtalyxghhx</t>
-  </si>
-  <si>
-    <t>uhkhzznwnmmcjhjpfpkq</t>
-  </si>
-  <si>
-    <t>fckrwxoslzxchxibhaqv</t>
-  </si>
-  <si>
-    <t>xvtjjeclntqixvhoxhsy</t>
+    <t>solklpyhywnvzajrhbnc</t>
+  </si>
+  <si>
+    <t>jtpkwgffculpiuququeq</t>
+  </si>
+  <si>
+    <t>odovfcogdvxxhvrkmvro</t>
+  </si>
+  <si>
+    <t>abbiwfjhiecehxppwxls</t>
+  </si>
+  <si>
+    <t>xlwvmhzfimpcglmdkwrd</t>
+  </si>
+  <si>
+    <t>zpdyzcybrdthkhbxyglh</t>
+  </si>
+  <si>
+    <t>qmjltcvjevuenaaxgkgw</t>
+  </si>
+  <si>
+    <t>ukpykototivabartegkb</t>
+  </si>
+  <si>
+    <t>damjmoaqkclozadacuoz</t>
+  </si>
+  <si>
+    <t>hwmynvtmpamxqbxutcrl</t>
+  </si>
+  <si>
+    <t>elttoleenltkxrxpoqcx</t>
+  </si>
+  <si>
+    <t>jjozyzmjqgtygkllybca</t>
+  </si>
+  <si>
+    <t>xloligqlopfkjvbzxfxp</t>
+  </si>
+  <si>
+    <t>sxzwvmzuwbeemqjmishe</t>
+  </si>
+  <si>
+    <t>fnteigppnczkgjuiawkj</t>
+  </si>
+  <si>
+    <t>qnszporwcipqrtmnzauq</t>
+  </si>
+  <si>
+    <t>xppzgxehhfbqasestmff</t>
+  </si>
+  <si>
+    <t>wogyebdbaiufesyqqwcm</t>
+  </si>
+  <si>
+    <t>lpnteqbgvjtxzjtotuvg</t>
+  </si>
+  <si>
+    <t>erkozvcnpmzdmqqhqdhj</t>
+  </si>
+  <si>
+    <t>jsiutybbyqdjzjmzonst</t>
+  </si>
+  <si>
+    <t>qaipzwppgsduwncytgqz</t>
+  </si>
+  <si>
+    <t>rpniwuzwlwyfbfcmlpbp</t>
+  </si>
+  <si>
+    <t>rxbpdwcoajgxdszueqwk</t>
+  </si>
+  <si>
+    <t>nxpdhqmzwptxyezxukiy</t>
+  </si>
+  <si>
+    <t>fgedoewlahvnyjvmivzp</t>
+  </si>
+  <si>
+    <t>jqlewuzunlhupzbyqsoz</t>
+  </si>
+  <si>
+    <t>qiytxlwpvwtzdxjztqmf</t>
+  </si>
+  <si>
+    <t>iukptjjmvzkfohtjmiix</t>
+  </si>
+  <si>
+    <t>uzlbenbomozxrgnvajom</t>
+  </si>
+  <si>
+    <t>ibydzgnebrhqbgudzieq</t>
+  </si>
+  <si>
+    <t>wtxoxvnsxmamyhjuyyky</t>
+  </si>
+  <si>
+    <t>boxtqxzgsyupejybckhi</t>
+  </si>
+  <si>
+    <t>aprohieinkmpvnflueru</t>
+  </si>
+  <si>
+    <t>sxlsghubnkvzkoolvsyu</t>
+  </si>
+  <si>
+    <t>etnuosblnvddcnmyalva</t>
+  </si>
+  <si>
+    <t>owzoytzilqompdjcbedt</t>
+  </si>
+  <si>
+    <t>xuhedhddzxzlxnydmuzc</t>
+  </si>
+  <si>
+    <t>fogxrgisgffxiuztibrt</t>
+  </si>
+  <si>
+    <t>bonmafynkatbvboeemfv</t>
+  </si>
+  <si>
+    <t>srusnvvxkhxbvymcapqg</t>
+  </si>
+  <si>
+    <t>fgnzbxwpnedqmwjsmilk</t>
+  </si>
+  <si>
+    <t>jwabuvakkrjjapsvdmsx</t>
+  </si>
+  <si>
+    <t>uyihwovhmpbvlbdickuv</t>
+  </si>
+  <si>
+    <t>rcgjwnpsmeflleoumiuq</t>
+  </si>
+  <si>
+    <t>hotflabfoblytuayxokp</t>
+  </si>
+  <si>
+    <t>rnfhvezcllwtjdhurerh</t>
+  </si>
+  <si>
+    <t>gcrrxcpcehweimfbxjnn</t>
+  </si>
+  <si>
+    <t>blgkgyligwdaztfvcsjn</t>
+  </si>
+  <si>
+    <t>qtsfefziokmrrwjyufkp</t>
+  </si>
+  <si>
+    <t>wadxyxbeqcaznexevwil</t>
+  </si>
+  <si>
+    <t>ewgzocfqvkworlasvyni</t>
+  </si>
+  <si>
+    <t>xmfxhdhaamowzgeoikor</t>
+  </si>
+  <si>
+    <t>nikvjzfvpxwhtvhnyxyy</t>
+  </si>
+  <si>
+    <t>wugwxpwvszuyychfdfej</t>
+  </si>
+  <si>
+    <t>qnsznyqzdbnmhodqxlkn</t>
+  </si>
+  <si>
+    <t>zwkifuxzszqsncmrbsht</t>
+  </si>
+  <si>
+    <t>fqfuxiwetrtgvmhgogtc</t>
+  </si>
+  <si>
+    <t>iaprnisrujjvulyixeer</t>
+  </si>
+  <si>
+    <t>iefzhefszzxnnrbvvfku</t>
+  </si>
+  <si>
+    <t>bvwtpxwsxngmmvotllgz</t>
+  </si>
+  <si>
+    <t>kdtyixihmueiyjqavyqd</t>
+  </si>
+  <si>
+    <t>kbljehdpxfkezvliifdy</t>
+  </si>
+  <si>
+    <t>nkfrjhbydncukbqvvrka</t>
+  </si>
+  <si>
+    <t>vqyqndroubycwwpkseau</t>
+  </si>
+  <si>
+    <t>erykpvbyvxwslbagwyyj</t>
+  </si>
+  <si>
+    <t>aqxgvvmwkbfkafxgkhtk</t>
+  </si>
+  <si>
+    <t>wwlvwmjespqgbkbnkadg</t>
+  </si>
+  <si>
+    <t>mfeagetectrgnxjeqhoi</t>
+  </si>
+  <si>
+    <t>ruplfmikglmopwwqesaa</t>
+  </si>
+  <si>
+    <t>olfxtamtmdegawbafvei</t>
+  </si>
+  <si>
+    <t>ccoxhaxyicmauaeniuai</t>
+  </si>
+  <si>
+    <t>rgnepxclllcsaobqyzna</t>
+  </si>
+  <si>
+    <t>nrjncteayrsvazgksdel</t>
+  </si>
+  <si>
+    <t>irbvqkhjsqksusvkbmah</t>
+  </si>
+  <si>
+    <t>awqaqyzyfvgctpsjovwc</t>
+  </si>
+  <si>
+    <t>xigtncmaybzoanuqpnom</t>
+  </si>
+  <si>
+    <t>warvbnhxlspndssjaixp</t>
+  </si>
+  <si>
+    <t>hwtsqudnjowitjshidos</t>
+  </si>
+  <si>
+    <t>dumukfesowmffhrktpre</t>
+  </si>
+  <si>
+    <t>wmlpoaqdtzwdqqnxymai</t>
+  </si>
+  <si>
+    <t>lvdcirwturfjxhyxjdxg</t>
+  </si>
+  <si>
+    <t>qmklpqjyyqulcsldpubv</t>
+  </si>
+  <si>
+    <t>dhdqfjmcrwsqvvzsustk</t>
+  </si>
+  <si>
+    <t>drtakufohmdsdoqrxggj</t>
+  </si>
+  <si>
+    <t>ixjvjwmnyrkjerkxdlfr</t>
+  </si>
+  <si>
+    <t>mfimtojwjhbtixpgxnpc</t>
+  </si>
+  <si>
+    <t>hzjqojpfwjdflhnzzwvw</t>
+  </si>
+  <si>
+    <t>cnbqelbqsxdtrlibwuca</t>
+  </si>
+  <si>
+    <t>lwjbtogtbdkjqacmtskd</t>
+  </si>
+  <si>
+    <t>qzvnetbsbcskjdewjgme</t>
+  </si>
+  <si>
+    <t>deussnozxtjrrqqbvmuy</t>
+  </si>
+  <si>
+    <t>ckhbiegycpqgyycaynxr</t>
+  </si>
+  <si>
+    <t>vxvddrqrmtegmyrqvahi</t>
+  </si>
+  <si>
+    <t>btljrazcwuidyfflfugn</t>
+  </si>
+  <si>
+    <t>mksestudzsagknupjtkh</t>
+  </si>
+  <si>
+    <t>glrcuoiimyejxpvytkhu</t>
+  </si>
+  <si>
+    <t>ajwmxvkbkkfjpbmywmbn</t>
+  </si>
+  <si>
+    <t>aymbeelzsmwctbkhnzpq</t>
   </si>
   <si>
     <t>Fail</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>hghzdytxlndcrwiblyuk</t>
   </si>
   <si>
-    <t>12/12/22 12:20:59</t>
+    <t>12/12/22 12:21:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>hghzdytxlndcrwiblyuk</t>
   </si>
   <si>
-    <t>12/12/22 12:21:59</t>
+    <t>12/12/22 12:23:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>hghzdytxlndcrwiblyuk</t>
   </si>
   <si>
-    <t>12/12/22 12:23:59</t>
+    <t>12/12/22 12:24:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>hghzdytxlndcrwiblyuk</t>
   </si>
   <si>
-    <t>12/12/22 12:24:59</t>
+    <t>12/12/22 12:25:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="111">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
         <v>110</v>
       </c>
       <c r="G6" t="n">
-        <v>100.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="7">
@@ -1836,6 +1836,5606 @@
         <v>6</v>
       </c>
       <c r="D101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>37</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>42</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>49</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>50</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>51</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>53</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>55</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>57</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>58</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>59</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>60</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>61</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>62</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>63</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>64</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>65</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>66</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>67</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>68</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>69</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>70</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>71</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>72</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>73</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>74</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>75</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>76</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>77</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" t="s">
+        <v>78</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>79</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>80</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>81</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>82</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>83</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>84</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>85</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>86</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>87</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s">
+        <v>88</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" t="s">
+        <v>89</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" t="s">
+        <v>90</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" t="s">
+        <v>91</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" t="s">
+        <v>92</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" t="s">
+        <v>93</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" t="s">
+        <v>94</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" t="s">
+        <v>95</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>96</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" t="s">
+        <v>97</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" t="s">
+        <v>98</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" t="s">
+        <v>99</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" t="s">
+        <v>100</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
+        <v>102</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" t="s">
+        <v>104</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>105</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s">
+        <v>106</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" t="s">
+        <v>16</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>17</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s">
+        <v>18</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" t="s">
+        <v>20</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" t="s">
+        <v>21</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s">
+        <v>24</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" t="s">
+        <v>25</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" t="s">
+        <v>26</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" t="s">
+        <v>27</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223" t="s">
+        <v>28</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" t="s">
+        <v>29</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" t="s">
+        <v>30</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" t="s">
+        <v>31</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B227" t="s">
+        <v>32</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B228" t="s">
+        <v>33</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229" t="s">
+        <v>34</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" t="s">
+        <v>35</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231" t="s">
+        <v>36</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>37</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B233" t="s">
+        <v>38</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234" t="s">
+        <v>39</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B235" t="s">
+        <v>40</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B236" t="s">
+        <v>41</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" t="s">
+        <v>42</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B238" t="s">
+        <v>43</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" t="s">
+        <v>44</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B240" t="s">
+        <v>45</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241" t="s">
+        <v>46</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242" t="s">
+        <v>47</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" t="s">
+        <v>48</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" t="s">
+        <v>49</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" t="s">
+        <v>50</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B246" t="s">
+        <v>51</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" t="s">
+        <v>52</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248" t="s">
+        <v>53</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B249" t="s">
+        <v>54</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250" t="s">
+        <v>55</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251" t="s">
+        <v>56</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" t="s">
+        <v>57</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253" t="s">
+        <v>58</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" t="s">
+        <v>59</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" t="s">
+        <v>60</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" t="s">
+        <v>61</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" t="s">
+        <v>62</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" t="s">
+        <v>63</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" t="s">
+        <v>64</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" t="s">
+        <v>65</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" t="s">
+        <v>66</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" t="s">
+        <v>67</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" t="s">
+        <v>68</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" t="s">
+        <v>69</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265" t="s">
+        <v>70</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" t="s">
+        <v>71</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" t="s">
+        <v>72</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" t="s">
+        <v>73</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" t="s">
+        <v>74</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" t="s">
+        <v>75</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" t="s">
+        <v>76</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272" t="s">
+        <v>77</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" t="s">
+        <v>78</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274" t="s">
+        <v>79</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" t="s">
+        <v>80</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B276" t="s">
+        <v>81</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B277" t="s">
+        <v>82</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B278" t="s">
+        <v>83</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" t="s">
+        <v>84</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B280" t="s">
+        <v>85</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" t="s">
+        <v>86</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B282" t="s">
+        <v>87</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B283" t="s">
+        <v>88</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B284" t="s">
+        <v>89</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B285" t="s">
+        <v>90</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B286" t="s">
+        <v>91</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287" t="s">
+        <v>92</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288" t="s">
+        <v>93</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" t="s">
+        <v>94</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B290" t="s">
+        <v>95</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B291" t="s">
+        <v>96</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B292" t="s">
+        <v>97</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B293" t="s">
+        <v>98</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B294" t="s">
+        <v>99</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B295" t="s">
+        <v>100</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B296" t="s">
+        <v>101</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297" t="s">
+        <v>102</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B298" t="s">
+        <v>103</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B299" t="s">
+        <v>104</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300" t="s">
+        <v>105</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B301" t="s">
+        <v>106</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B303" t="s">
+        <v>8</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B305" t="s">
+        <v>10</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B306" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B308" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B309" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B310" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B311" t="s">
+        <v>16</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B312" t="s">
+        <v>17</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B313" t="s">
+        <v>18</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B314" t="s">
+        <v>19</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B315" t="s">
+        <v>20</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B316" t="s">
+        <v>21</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B317" t="s">
+        <v>22</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B318" t="s">
+        <v>23</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B319" t="s">
+        <v>24</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B320" t="s">
+        <v>25</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B321" t="s">
+        <v>26</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B322" t="s">
+        <v>27</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B323" t="s">
+        <v>28</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B324" t="s">
+        <v>29</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B325" t="s">
+        <v>30</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B326" t="s">
+        <v>31</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B327" t="s">
+        <v>32</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B328" t="s">
+        <v>33</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B329" t="s">
+        <v>34</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B330" t="s">
+        <v>35</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B331" t="s">
+        <v>36</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B332" t="s">
+        <v>37</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B333" t="s">
+        <v>38</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B334" t="s">
+        <v>39</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B335" t="s">
+        <v>40</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B336" t="s">
+        <v>41</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B337" t="s">
+        <v>42</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B338" t="s">
+        <v>43</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339" t="s">
+        <v>44</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B340" t="s">
+        <v>45</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B341" t="s">
+        <v>46</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B342" t="s">
+        <v>47</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B343" t="s">
+        <v>48</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344" t="s">
+        <v>49</v>
+      </c>
+      <c r="C344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B345" t="s">
+        <v>50</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B346" t="s">
+        <v>51</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B347" t="s">
+        <v>52</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B348" t="s">
+        <v>53</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B349" t="s">
+        <v>54</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B350" t="s">
+        <v>55</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B351" t="s">
+        <v>56</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B352" t="s">
+        <v>57</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B353" t="s">
+        <v>58</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B354" t="s">
+        <v>59</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B355" t="s">
+        <v>60</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B356" t="s">
+        <v>61</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B357" t="s">
+        <v>62</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B358" t="s">
+        <v>63</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B359" t="s">
+        <v>64</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B360" t="s">
+        <v>65</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B361" t="s">
+        <v>66</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B362" t="s">
+        <v>67</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>4</v>
+      </c>
+      <c r="B363" t="s">
+        <v>68</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>4</v>
+      </c>
+      <c r="B364" t="s">
+        <v>69</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B365" t="s">
+        <v>70</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>4</v>
+      </c>
+      <c r="B366" t="s">
+        <v>71</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>4</v>
+      </c>
+      <c r="B367" t="s">
+        <v>72</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>4</v>
+      </c>
+      <c r="B368" t="s">
+        <v>73</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>4</v>
+      </c>
+      <c r="B369" t="s">
+        <v>74</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B370" t="s">
+        <v>75</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B371" t="s">
+        <v>76</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>4</v>
+      </c>
+      <c r="B372" t="s">
+        <v>77</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B373" t="s">
+        <v>78</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B374" t="s">
+        <v>79</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>4</v>
+      </c>
+      <c r="B375" t="s">
+        <v>80</v>
+      </c>
+      <c r="C375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B376" t="s">
+        <v>81</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B377" t="s">
+        <v>82</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>4</v>
+      </c>
+      <c r="B378" t="s">
+        <v>83</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>4</v>
+      </c>
+      <c r="B379" t="s">
+        <v>84</v>
+      </c>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>4</v>
+      </c>
+      <c r="B380" t="s">
+        <v>85</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B381" t="s">
+        <v>86</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B382" t="s">
+        <v>87</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B383" t="s">
+        <v>88</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>4</v>
+      </c>
+      <c r="B384" t="s">
+        <v>89</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>4</v>
+      </c>
+      <c r="B385" t="s">
+        <v>90</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>4</v>
+      </c>
+      <c r="B386" t="s">
+        <v>91</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B387" t="s">
+        <v>92</v>
+      </c>
+      <c r="C387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B388" t="s">
+        <v>93</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B389" t="s">
+        <v>94</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>4</v>
+      </c>
+      <c r="B390" t="s">
+        <v>95</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B391" t="s">
+        <v>96</v>
+      </c>
+      <c r="C391" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>4</v>
+      </c>
+      <c r="B392" t="s">
+        <v>97</v>
+      </c>
+      <c r="C392" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B393" t="s">
+        <v>98</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B394" t="s">
+        <v>99</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>4</v>
+      </c>
+      <c r="B395" t="s">
+        <v>100</v>
+      </c>
+      <c r="C395" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>4</v>
+      </c>
+      <c r="B396" t="s">
+        <v>101</v>
+      </c>
+      <c r="C396" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B397" t="s">
+        <v>102</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B398" t="s">
+        <v>103</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>4</v>
+      </c>
+      <c r="B399" t="s">
+        <v>104</v>
+      </c>
+      <c r="C399" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B400" t="s">
+        <v>105</v>
+      </c>
+      <c r="C400" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B401" t="s">
+        <v>106</v>
+      </c>
+      <c r="C401" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B403" t="s">
+        <v>8</v>
+      </c>
+      <c r="C403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B404" t="s">
+        <v>9</v>
+      </c>
+      <c r="C404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B405" t="s">
+        <v>10</v>
+      </c>
+      <c r="C405" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B406" t="s">
+        <v>11</v>
+      </c>
+      <c r="C406" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B407" t="s">
+        <v>12</v>
+      </c>
+      <c r="C407" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>4</v>
+      </c>
+      <c r="B408" t="s">
+        <v>13</v>
+      </c>
+      <c r="C408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B409" t="s">
+        <v>14</v>
+      </c>
+      <c r="C409" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B410" t="s">
+        <v>15</v>
+      </c>
+      <c r="C410" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B411" t="s">
+        <v>16</v>
+      </c>
+      <c r="C411" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>4</v>
+      </c>
+      <c r="B412" t="s">
+        <v>17</v>
+      </c>
+      <c r="C412" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B413" t="s">
+        <v>18</v>
+      </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>4</v>
+      </c>
+      <c r="B414" t="s">
+        <v>19</v>
+      </c>
+      <c r="C414" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>4</v>
+      </c>
+      <c r="B415" t="s">
+        <v>20</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>4</v>
+      </c>
+      <c r="B416" t="s">
+        <v>21</v>
+      </c>
+      <c r="C416" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B417" t="s">
+        <v>22</v>
+      </c>
+      <c r="C417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>4</v>
+      </c>
+      <c r="B418" t="s">
+        <v>23</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>4</v>
+      </c>
+      <c r="B419" t="s">
+        <v>24</v>
+      </c>
+      <c r="C419" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>4</v>
+      </c>
+      <c r="B420" t="s">
+        <v>25</v>
+      </c>
+      <c r="C420" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>4</v>
+      </c>
+      <c r="B421" t="s">
+        <v>26</v>
+      </c>
+      <c r="C421" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B422" t="s">
+        <v>27</v>
+      </c>
+      <c r="C422" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>4</v>
+      </c>
+      <c r="B423" t="s">
+        <v>28</v>
+      </c>
+      <c r="C423" t="s">
+        <v>6</v>
+      </c>
+      <c r="D423" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>4</v>
+      </c>
+      <c r="B424" t="s">
+        <v>29</v>
+      </c>
+      <c r="C424" t="s">
+        <v>6</v>
+      </c>
+      <c r="D424" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>4</v>
+      </c>
+      <c r="B425" t="s">
+        <v>30</v>
+      </c>
+      <c r="C425" t="s">
+        <v>6</v>
+      </c>
+      <c r="D425" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>4</v>
+      </c>
+      <c r="B426" t="s">
+        <v>31</v>
+      </c>
+      <c r="C426" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>4</v>
+      </c>
+      <c r="B427" t="s">
+        <v>32</v>
+      </c>
+      <c r="C427" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>4</v>
+      </c>
+      <c r="B428" t="s">
+        <v>33</v>
+      </c>
+      <c r="C428" t="s">
+        <v>6</v>
+      </c>
+      <c r="D428" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>4</v>
+      </c>
+      <c r="B429" t="s">
+        <v>34</v>
+      </c>
+      <c r="C429" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>4</v>
+      </c>
+      <c r="B430" t="s">
+        <v>35</v>
+      </c>
+      <c r="C430" t="s">
+        <v>6</v>
+      </c>
+      <c r="D430" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>4</v>
+      </c>
+      <c r="B431" t="s">
+        <v>36</v>
+      </c>
+      <c r="C431" t="s">
+        <v>6</v>
+      </c>
+      <c r="D431" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>4</v>
+      </c>
+      <c r="B432" t="s">
+        <v>37</v>
+      </c>
+      <c r="C432" t="s">
+        <v>6</v>
+      </c>
+      <c r="D432" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>4</v>
+      </c>
+      <c r="B433" t="s">
+        <v>38</v>
+      </c>
+      <c r="C433" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>4</v>
+      </c>
+      <c r="B434" t="s">
+        <v>39</v>
+      </c>
+      <c r="C434" t="s">
+        <v>6</v>
+      </c>
+      <c r="D434" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>4</v>
+      </c>
+      <c r="B435" t="s">
+        <v>40</v>
+      </c>
+      <c r="C435" t="s">
+        <v>6</v>
+      </c>
+      <c r="D435" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>4</v>
+      </c>
+      <c r="B436" t="s">
+        <v>41</v>
+      </c>
+      <c r="C436" t="s">
+        <v>6</v>
+      </c>
+      <c r="D436" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>4</v>
+      </c>
+      <c r="B437" t="s">
+        <v>42</v>
+      </c>
+      <c r="C437" t="s">
+        <v>6</v>
+      </c>
+      <c r="D437" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>4</v>
+      </c>
+      <c r="B438" t="s">
+        <v>43</v>
+      </c>
+      <c r="C438" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>4</v>
+      </c>
+      <c r="B439" t="s">
+        <v>44</v>
+      </c>
+      <c r="C439" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>4</v>
+      </c>
+      <c r="B440" t="s">
+        <v>45</v>
+      </c>
+      <c r="C440" t="s">
+        <v>6</v>
+      </c>
+      <c r="D440" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>4</v>
+      </c>
+      <c r="B441" t="s">
+        <v>46</v>
+      </c>
+      <c r="C441" t="s">
+        <v>6</v>
+      </c>
+      <c r="D441" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>4</v>
+      </c>
+      <c r="B442" t="s">
+        <v>47</v>
+      </c>
+      <c r="C442" t="s">
+        <v>6</v>
+      </c>
+      <c r="D442" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>4</v>
+      </c>
+      <c r="B443" t="s">
+        <v>48</v>
+      </c>
+      <c r="C443" t="s">
+        <v>6</v>
+      </c>
+      <c r="D443" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B444" t="s">
+        <v>49</v>
+      </c>
+      <c r="C444" t="s">
+        <v>6</v>
+      </c>
+      <c r="D444" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B445" t="s">
+        <v>50</v>
+      </c>
+      <c r="C445" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>4</v>
+      </c>
+      <c r="B446" t="s">
+        <v>51</v>
+      </c>
+      <c r="C446" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>4</v>
+      </c>
+      <c r="B447" t="s">
+        <v>52</v>
+      </c>
+      <c r="C447" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>4</v>
+      </c>
+      <c r="B448" t="s">
+        <v>53</v>
+      </c>
+      <c r="C448" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>4</v>
+      </c>
+      <c r="B449" t="s">
+        <v>54</v>
+      </c>
+      <c r="C449" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>4</v>
+      </c>
+      <c r="B450" t="s">
+        <v>55</v>
+      </c>
+      <c r="C450" t="s">
+        <v>6</v>
+      </c>
+      <c r="D450" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>4</v>
+      </c>
+      <c r="B451" t="s">
+        <v>56</v>
+      </c>
+      <c r="C451" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>4</v>
+      </c>
+      <c r="B452" t="s">
+        <v>57</v>
+      </c>
+      <c r="C452" t="s">
+        <v>6</v>
+      </c>
+      <c r="D452" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>4</v>
+      </c>
+      <c r="B453" t="s">
+        <v>58</v>
+      </c>
+      <c r="C453" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>4</v>
+      </c>
+      <c r="B454" t="s">
+        <v>59</v>
+      </c>
+      <c r="C454" t="s">
+        <v>6</v>
+      </c>
+      <c r="D454" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>4</v>
+      </c>
+      <c r="B455" t="s">
+        <v>60</v>
+      </c>
+      <c r="C455" t="s">
+        <v>6</v>
+      </c>
+      <c r="D455" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>4</v>
+      </c>
+      <c r="B456" t="s">
+        <v>61</v>
+      </c>
+      <c r="C456" t="s">
+        <v>6</v>
+      </c>
+      <c r="D456" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>4</v>
+      </c>
+      <c r="B457" t="s">
+        <v>62</v>
+      </c>
+      <c r="C457" t="s">
+        <v>6</v>
+      </c>
+      <c r="D457" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B458" t="s">
+        <v>63</v>
+      </c>
+      <c r="C458" t="s">
+        <v>6</v>
+      </c>
+      <c r="D458" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>4</v>
+      </c>
+      <c r="B459" t="s">
+        <v>64</v>
+      </c>
+      <c r="C459" t="s">
+        <v>6</v>
+      </c>
+      <c r="D459" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>4</v>
+      </c>
+      <c r="B460" t="s">
+        <v>65</v>
+      </c>
+      <c r="C460" t="s">
+        <v>6</v>
+      </c>
+      <c r="D460" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B461" t="s">
+        <v>66</v>
+      </c>
+      <c r="C461" t="s">
+        <v>6</v>
+      </c>
+      <c r="D461" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>4</v>
+      </c>
+      <c r="B462" t="s">
+        <v>67</v>
+      </c>
+      <c r="C462" t="s">
+        <v>6</v>
+      </c>
+      <c r="D462" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>4</v>
+      </c>
+      <c r="B463" t="s">
+        <v>68</v>
+      </c>
+      <c r="C463" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>4</v>
+      </c>
+      <c r="B464" t="s">
+        <v>69</v>
+      </c>
+      <c r="C464" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>4</v>
+      </c>
+      <c r="B465" t="s">
+        <v>70</v>
+      </c>
+      <c r="C465" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>4</v>
+      </c>
+      <c r="B466" t="s">
+        <v>71</v>
+      </c>
+      <c r="C466" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>4</v>
+      </c>
+      <c r="B467" t="s">
+        <v>72</v>
+      </c>
+      <c r="C467" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>4</v>
+      </c>
+      <c r="B468" t="s">
+        <v>73</v>
+      </c>
+      <c r="C468" t="s">
+        <v>6</v>
+      </c>
+      <c r="D468" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>4</v>
+      </c>
+      <c r="B469" t="s">
+        <v>74</v>
+      </c>
+      <c r="C469" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>4</v>
+      </c>
+      <c r="B470" t="s">
+        <v>75</v>
+      </c>
+      <c r="C470" t="s">
+        <v>6</v>
+      </c>
+      <c r="D470" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>4</v>
+      </c>
+      <c r="B471" t="s">
+        <v>76</v>
+      </c>
+      <c r="C471" t="s">
+        <v>6</v>
+      </c>
+      <c r="D471" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>4</v>
+      </c>
+      <c r="B472" t="s">
+        <v>77</v>
+      </c>
+      <c r="C472" t="s">
+        <v>6</v>
+      </c>
+      <c r="D472" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>4</v>
+      </c>
+      <c r="B473" t="s">
+        <v>78</v>
+      </c>
+      <c r="C473" t="s">
+        <v>6</v>
+      </c>
+      <c r="D473" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>4</v>
+      </c>
+      <c r="B474" t="s">
+        <v>79</v>
+      </c>
+      <c r="C474" t="s">
+        <v>6</v>
+      </c>
+      <c r="D474" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>4</v>
+      </c>
+      <c r="B475" t="s">
+        <v>80</v>
+      </c>
+      <c r="C475" t="s">
+        <v>6</v>
+      </c>
+      <c r="D475" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>4</v>
+      </c>
+      <c r="B476" t="s">
+        <v>81</v>
+      </c>
+      <c r="C476" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>4</v>
+      </c>
+      <c r="B477" t="s">
+        <v>82</v>
+      </c>
+      <c r="C477" t="s">
+        <v>6</v>
+      </c>
+      <c r="D477" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B478" t="s">
+        <v>83</v>
+      </c>
+      <c r="C478" t="s">
+        <v>6</v>
+      </c>
+      <c r="D478" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>4</v>
+      </c>
+      <c r="B479" t="s">
+        <v>84</v>
+      </c>
+      <c r="C479" t="s">
+        <v>6</v>
+      </c>
+      <c r="D479" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>4</v>
+      </c>
+      <c r="B480" t="s">
+        <v>85</v>
+      </c>
+      <c r="C480" t="s">
+        <v>6</v>
+      </c>
+      <c r="D480" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>4</v>
+      </c>
+      <c r="B481" t="s">
+        <v>86</v>
+      </c>
+      <c r="C481" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>4</v>
+      </c>
+      <c r="B482" t="s">
+        <v>87</v>
+      </c>
+      <c r="C482" t="s">
+        <v>6</v>
+      </c>
+      <c r="D482" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>4</v>
+      </c>
+      <c r="B483" t="s">
+        <v>88</v>
+      </c>
+      <c r="C483" t="s">
+        <v>6</v>
+      </c>
+      <c r="D483" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>4</v>
+      </c>
+      <c r="B484" t="s">
+        <v>89</v>
+      </c>
+      <c r="C484" t="s">
+        <v>6</v>
+      </c>
+      <c r="D484" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>4</v>
+      </c>
+      <c r="B485" t="s">
+        <v>90</v>
+      </c>
+      <c r="C485" t="s">
+        <v>6</v>
+      </c>
+      <c r="D485" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>4</v>
+      </c>
+      <c r="B486" t="s">
+        <v>91</v>
+      </c>
+      <c r="C486" t="s">
+        <v>6</v>
+      </c>
+      <c r="D486" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>4</v>
+      </c>
+      <c r="B487" t="s">
+        <v>92</v>
+      </c>
+      <c r="C487" t="s">
+        <v>6</v>
+      </c>
+      <c r="D487" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B488" t="s">
+        <v>93</v>
+      </c>
+      <c r="C488" t="s">
+        <v>6</v>
+      </c>
+      <c r="D488" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>4</v>
+      </c>
+      <c r="B489" t="s">
+        <v>94</v>
+      </c>
+      <c r="C489" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>4</v>
+      </c>
+      <c r="B490" t="s">
+        <v>95</v>
+      </c>
+      <c r="C490" t="s">
+        <v>6</v>
+      </c>
+      <c r="D490" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>4</v>
+      </c>
+      <c r="B491" t="s">
+        <v>96</v>
+      </c>
+      <c r="C491" t="s">
+        <v>6</v>
+      </c>
+      <c r="D491" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>4</v>
+      </c>
+      <c r="B492" t="s">
+        <v>97</v>
+      </c>
+      <c r="C492" t="s">
+        <v>6</v>
+      </c>
+      <c r="D492" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>4</v>
+      </c>
+      <c r="B493" t="s">
+        <v>98</v>
+      </c>
+      <c r="C493" t="s">
+        <v>6</v>
+      </c>
+      <c r="D493" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B494" t="s">
+        <v>99</v>
+      </c>
+      <c r="C494" t="s">
+        <v>6</v>
+      </c>
+      <c r="D494" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B495" t="s">
+        <v>100</v>
+      </c>
+      <c r="C495" t="s">
+        <v>6</v>
+      </c>
+      <c r="D495" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>4</v>
+      </c>
+      <c r="B496" t="s">
+        <v>101</v>
+      </c>
+      <c r="C496" t="s">
+        <v>6</v>
+      </c>
+      <c r="D496" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>4</v>
+      </c>
+      <c r="B497" t="s">
+        <v>102</v>
+      </c>
+      <c r="C497" t="s">
+        <v>6</v>
+      </c>
+      <c r="D497" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B498" t="s">
+        <v>103</v>
+      </c>
+      <c r="C498" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B499" t="s">
+        <v>104</v>
+      </c>
+      <c r="C499" t="s">
+        <v>6</v>
+      </c>
+      <c r="D499" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>4</v>
+      </c>
+      <c r="B500" t="s">
+        <v>105</v>
+      </c>
+      <c r="C500" t="s">
+        <v>6</v>
+      </c>
+      <c r="D500" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B501" t="s">
+        <v>106</v>
+      </c>
+      <c r="C501" t="s">
+        <v>6</v>
+      </c>
+      <c r="D501" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>hghzdytxlndcrwiblyuk</t>
   </si>
   <si>
-    <t>12/12/22 12:25:59</t>
+    <t>12/12/22 12:26:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>hghzdytxlndcrwiblyuk</t>
   </si>
   <si>
-    <t>12/12/22 12:26:59</t>
+    <t>12/12/22 12:27:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="511">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -29,310 +29,1510 @@
     <t>007</t>
   </si>
   <si>
-    <t>hghzdytxlndcrwiblyuk</t>
-  </si>
-  <si>
-    <t>12/12/22 12:27:59</t>
+    <t>iydiacjssburjblaekpe</t>
+  </si>
+  <si>
+    <t>12/12/22 12:28:59</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>solklpyhywnvzajrhbnc</t>
-  </si>
-  <si>
-    <t>jtpkwgffculpiuququeq</t>
-  </si>
-  <si>
-    <t>odovfcogdvxxhvrkmvro</t>
-  </si>
-  <si>
-    <t>abbiwfjhiecehxppwxls</t>
-  </si>
-  <si>
-    <t>xlwvmhzfimpcglmdkwrd</t>
-  </si>
-  <si>
-    <t>zpdyzcybrdthkhbxyglh</t>
-  </si>
-  <si>
-    <t>qmjltcvjevuenaaxgkgw</t>
-  </si>
-  <si>
-    <t>ukpykototivabartegkb</t>
-  </si>
-  <si>
-    <t>damjmoaqkclozadacuoz</t>
-  </si>
-  <si>
-    <t>hwmynvtmpamxqbxutcrl</t>
-  </si>
-  <si>
-    <t>elttoleenltkxrxpoqcx</t>
-  </si>
-  <si>
-    <t>jjozyzmjqgtygkllybca</t>
-  </si>
-  <si>
-    <t>xloligqlopfkjvbzxfxp</t>
-  </si>
-  <si>
-    <t>sxzwvmzuwbeemqjmishe</t>
-  </si>
-  <si>
-    <t>fnteigppnczkgjuiawkj</t>
-  </si>
-  <si>
-    <t>qnszporwcipqrtmnzauq</t>
-  </si>
-  <si>
-    <t>xppzgxehhfbqasestmff</t>
-  </si>
-  <si>
-    <t>wogyebdbaiufesyqqwcm</t>
-  </si>
-  <si>
-    <t>lpnteqbgvjtxzjtotuvg</t>
-  </si>
-  <si>
-    <t>erkozvcnpmzdmqqhqdhj</t>
-  </si>
-  <si>
-    <t>jsiutybbyqdjzjmzonst</t>
-  </si>
-  <si>
-    <t>qaipzwppgsduwncytgqz</t>
-  </si>
-  <si>
-    <t>rpniwuzwlwyfbfcmlpbp</t>
-  </si>
-  <si>
-    <t>rxbpdwcoajgxdszueqwk</t>
-  </si>
-  <si>
-    <t>nxpdhqmzwptxyezxukiy</t>
-  </si>
-  <si>
-    <t>fgedoewlahvnyjvmivzp</t>
-  </si>
-  <si>
-    <t>jqlewuzunlhupzbyqsoz</t>
-  </si>
-  <si>
-    <t>qiytxlwpvwtzdxjztqmf</t>
-  </si>
-  <si>
-    <t>iukptjjmvzkfohtjmiix</t>
-  </si>
-  <si>
-    <t>uzlbenbomozxrgnvajom</t>
-  </si>
-  <si>
-    <t>ibydzgnebrhqbgudzieq</t>
-  </si>
-  <si>
-    <t>wtxoxvnsxmamyhjuyyky</t>
-  </si>
-  <si>
-    <t>boxtqxzgsyupejybckhi</t>
-  </si>
-  <si>
-    <t>aprohieinkmpvnflueru</t>
-  </si>
-  <si>
-    <t>sxlsghubnkvzkoolvsyu</t>
-  </si>
-  <si>
-    <t>etnuosblnvddcnmyalva</t>
-  </si>
-  <si>
-    <t>owzoytzilqompdjcbedt</t>
-  </si>
-  <si>
-    <t>xuhedhddzxzlxnydmuzc</t>
-  </si>
-  <si>
-    <t>fogxrgisgffxiuztibrt</t>
-  </si>
-  <si>
-    <t>bonmafynkatbvboeemfv</t>
-  </si>
-  <si>
-    <t>srusnvvxkhxbvymcapqg</t>
-  </si>
-  <si>
-    <t>fgnzbxwpnedqmwjsmilk</t>
-  </si>
-  <si>
-    <t>jwabuvakkrjjapsvdmsx</t>
-  </si>
-  <si>
-    <t>uyihwovhmpbvlbdickuv</t>
-  </si>
-  <si>
-    <t>rcgjwnpsmeflleoumiuq</t>
-  </si>
-  <si>
-    <t>hotflabfoblytuayxokp</t>
-  </si>
-  <si>
-    <t>rnfhvezcllwtjdhurerh</t>
-  </si>
-  <si>
-    <t>gcrrxcpcehweimfbxjnn</t>
-  </si>
-  <si>
-    <t>blgkgyligwdaztfvcsjn</t>
-  </si>
-  <si>
-    <t>qtsfefziokmrrwjyufkp</t>
-  </si>
-  <si>
-    <t>wadxyxbeqcaznexevwil</t>
-  </si>
-  <si>
-    <t>ewgzocfqvkworlasvyni</t>
-  </si>
-  <si>
-    <t>xmfxhdhaamowzgeoikor</t>
-  </si>
-  <si>
-    <t>nikvjzfvpxwhtvhnyxyy</t>
-  </si>
-  <si>
-    <t>wugwxpwvszuyychfdfej</t>
-  </si>
-  <si>
-    <t>qnsznyqzdbnmhodqxlkn</t>
-  </si>
-  <si>
-    <t>zwkifuxzszqsncmrbsht</t>
-  </si>
-  <si>
-    <t>fqfuxiwetrtgvmhgogtc</t>
-  </si>
-  <si>
-    <t>iaprnisrujjvulyixeer</t>
-  </si>
-  <si>
-    <t>iefzhefszzxnnrbvvfku</t>
-  </si>
-  <si>
-    <t>bvwtpxwsxngmmvotllgz</t>
-  </si>
-  <si>
-    <t>kdtyixihmueiyjqavyqd</t>
-  </si>
-  <si>
-    <t>kbljehdpxfkezvliifdy</t>
-  </si>
-  <si>
-    <t>nkfrjhbydncukbqvvrka</t>
-  </si>
-  <si>
-    <t>vqyqndroubycwwpkseau</t>
-  </si>
-  <si>
-    <t>erykpvbyvxwslbagwyyj</t>
-  </si>
-  <si>
-    <t>aqxgvvmwkbfkafxgkhtk</t>
-  </si>
-  <si>
-    <t>wwlvwmjespqgbkbnkadg</t>
-  </si>
-  <si>
-    <t>mfeagetectrgnxjeqhoi</t>
-  </si>
-  <si>
-    <t>ruplfmikglmopwwqesaa</t>
-  </si>
-  <si>
-    <t>olfxtamtmdegawbafvei</t>
-  </si>
-  <si>
-    <t>ccoxhaxyicmauaeniuai</t>
-  </si>
-  <si>
-    <t>rgnepxclllcsaobqyzna</t>
-  </si>
-  <si>
-    <t>nrjncteayrsvazgksdel</t>
-  </si>
-  <si>
-    <t>irbvqkhjsqksusvkbmah</t>
-  </si>
-  <si>
-    <t>awqaqyzyfvgctpsjovwc</t>
-  </si>
-  <si>
-    <t>xigtncmaybzoanuqpnom</t>
-  </si>
-  <si>
-    <t>warvbnhxlspndssjaixp</t>
-  </si>
-  <si>
-    <t>hwtsqudnjowitjshidos</t>
-  </si>
-  <si>
-    <t>dumukfesowmffhrktpre</t>
-  </si>
-  <si>
-    <t>wmlpoaqdtzwdqqnxymai</t>
-  </si>
-  <si>
-    <t>lvdcirwturfjxhyxjdxg</t>
-  </si>
-  <si>
-    <t>qmklpqjyyqulcsldpubv</t>
-  </si>
-  <si>
-    <t>dhdqfjmcrwsqvvzsustk</t>
-  </si>
-  <si>
-    <t>drtakufohmdsdoqrxggj</t>
-  </si>
-  <si>
-    <t>ixjvjwmnyrkjerkxdlfr</t>
-  </si>
-  <si>
-    <t>mfimtojwjhbtixpgxnpc</t>
-  </si>
-  <si>
-    <t>hzjqojpfwjdflhnzzwvw</t>
-  </si>
-  <si>
-    <t>cnbqelbqsxdtrlibwuca</t>
-  </si>
-  <si>
-    <t>lwjbtogtbdkjqacmtskd</t>
-  </si>
-  <si>
-    <t>qzvnetbsbcskjdewjgme</t>
-  </si>
-  <si>
-    <t>deussnozxtjrrqqbvmuy</t>
-  </si>
-  <si>
-    <t>ckhbiegycpqgyycaynxr</t>
-  </si>
-  <si>
-    <t>vxvddrqrmtegmyrqvahi</t>
-  </si>
-  <si>
-    <t>btljrazcwuidyfflfugn</t>
-  </si>
-  <si>
-    <t>mksestudzsagknupjtkh</t>
-  </si>
-  <si>
-    <t>glrcuoiimyejxpvytkhu</t>
-  </si>
-  <si>
-    <t>ajwmxvkbkkfjpbmywmbn</t>
-  </si>
-  <si>
-    <t>aymbeelzsmwctbkhnzpq</t>
+    <t>lcaybimbidhuynedpbnx</t>
+  </si>
+  <si>
+    <t>ebgixgpekozfsjmiqvyx</t>
+  </si>
+  <si>
+    <t>vtdoalfyetakgmyxwynl</t>
+  </si>
+  <si>
+    <t>bqnmesjjquwmxslyxxth</t>
+  </si>
+  <si>
+    <t>oajwskhmkwhpbequnyqp</t>
+  </si>
+  <si>
+    <t>vumrqbdzgbkpmzhmgtgw</t>
+  </si>
+  <si>
+    <t>idxlmxvdkucrqoznzqih</t>
+  </si>
+  <si>
+    <t>uubyshnahiymlylfbsag</t>
+  </si>
+  <si>
+    <t>qovrkfakncrifgqetjdd</t>
+  </si>
+  <si>
+    <t>rvhetudzzqwcpxwoukxd</t>
+  </si>
+  <si>
+    <t>fpqulltexuoeiqcaeoxe</t>
+  </si>
+  <si>
+    <t>rvsusvolnwkygmitqwlj</t>
+  </si>
+  <si>
+    <t>tynimbhitwddfgpuplae</t>
+  </si>
+  <si>
+    <t>iznkhbvegugvwqklgedn</t>
+  </si>
+  <si>
+    <t>yqygxjbtgptilhjrzeik</t>
+  </si>
+  <si>
+    <t>bkzlflwmxrfcusiebbrp</t>
+  </si>
+  <si>
+    <t>gwgbezdraiggcsriugob</t>
+  </si>
+  <si>
+    <t>pcrpqizckxnrdakscczz</t>
+  </si>
+  <si>
+    <t>miiotfxxdtdmkgdurhsr</t>
+  </si>
+  <si>
+    <t>jptdrjkugmtqytdmnvov</t>
+  </si>
+  <si>
+    <t>kcqqvphntddfzekcvqbp</t>
+  </si>
+  <si>
+    <t>rtutdmwlmcjyditpbifk</t>
+  </si>
+  <si>
+    <t>pymjpjvhwkzetklmauhj</t>
+  </si>
+  <si>
+    <t>hqvdwinieywslybkyzfk</t>
+  </si>
+  <si>
+    <t>sqizntekztowqkqyhlci</t>
+  </si>
+  <si>
+    <t>cgvsqsnmmvxfnldjtguf</t>
+  </si>
+  <si>
+    <t>wywxhawspxtnmmifnjxb</t>
+  </si>
+  <si>
+    <t>erldaymkyharmcgulbgh</t>
+  </si>
+  <si>
+    <t>nekmwuvehlcmrqiwaqbu</t>
+  </si>
+  <si>
+    <t>ceiwmtcfxolnidnilsrz</t>
+  </si>
+  <si>
+    <t>aixqduemmeffehjlzmlr</t>
+  </si>
+  <si>
+    <t>bqqeykcithvqykfhxlsf</t>
+  </si>
+  <si>
+    <t>bflyogoxgykpavrccjzs</t>
+  </si>
+  <si>
+    <t>jmrafdpuayontmewxacp</t>
+  </si>
+  <si>
+    <t>xonunxwpiabisehlzfst</t>
+  </si>
+  <si>
+    <t>zxokcsufbdyxwavzndql</t>
+  </si>
+  <si>
+    <t>lcruxrjolcmkdcnnacwg</t>
+  </si>
+  <si>
+    <t>tzpnskdizucefwlxvosm</t>
+  </si>
+  <si>
+    <t>qucipdaafknjgwbvqsgj</t>
+  </si>
+  <si>
+    <t>myvjnvxlvtrgxtjbgbyx</t>
+  </si>
+  <si>
+    <t>uwiqerzmozgwywirhach</t>
+  </si>
+  <si>
+    <t>dxtufyqqtctgvfxjmphl</t>
+  </si>
+  <si>
+    <t>rcwwxljabvyzfuqkivci</t>
+  </si>
+  <si>
+    <t>ncnlgeavdhbsljulqqop</t>
+  </si>
+  <si>
+    <t>qkgsbpdebvlsiagshcpq</t>
+  </si>
+  <si>
+    <t>kfspuzwvzxuythpqjdbh</t>
+  </si>
+  <si>
+    <t>dllcraqtujontryzlqnd</t>
+  </si>
+  <si>
+    <t>xwtvetrzfqoouoydtchn</t>
+  </si>
+  <si>
+    <t>rvqubfhddukpzremcuhd</t>
+  </si>
+  <si>
+    <t>jnmciewypvvkmzhzccle</t>
+  </si>
+  <si>
+    <t>dhubxvmplmhutmuqszme</t>
+  </si>
+  <si>
+    <t>gwvpieohhwrvqchkxmjp</t>
+  </si>
+  <si>
+    <t>mwxwpugrbwciohiyrztn</t>
+  </si>
+  <si>
+    <t>gdohfopprhjlxupfugwo</t>
+  </si>
+  <si>
+    <t>tzfzzqwwdstkttxuzxwl</t>
+  </si>
+  <si>
+    <t>dgvlivvvulvmszkdswgc</t>
+  </si>
+  <si>
+    <t>toqiqiwylfjhiniwuylx</t>
+  </si>
+  <si>
+    <t>wcccwojeurzmpnaucxon</t>
+  </si>
+  <si>
+    <t>zcaphyyzspixdmojlclg</t>
+  </si>
+  <si>
+    <t>pvzmzashgawsvpweilhe</t>
+  </si>
+  <si>
+    <t>egzmyqlkcktuguulmjbb</t>
+  </si>
+  <si>
+    <t>upbhprclqcpwzwcpeyqa</t>
+  </si>
+  <si>
+    <t>ysrmrgkjfpsxmusjndem</t>
+  </si>
+  <si>
+    <t>wbvvuppuqlbxjclbdxlf</t>
+  </si>
+  <si>
+    <t>jrbntdbmhqevvjeluiol</t>
+  </si>
+  <si>
+    <t>aoawoulxxojqyqwghoki</t>
+  </si>
+  <si>
+    <t>kgswikkfekfntqfdahit</t>
+  </si>
+  <si>
+    <t>vunqqzkncnlkglirnwxp</t>
+  </si>
+  <si>
+    <t>tjppfhimpjspxvrrlxjg</t>
+  </si>
+  <si>
+    <t>vflapubkgcxolqepgyhe</t>
+  </si>
+  <si>
+    <t>saacytvjxkylhjiqmlke</t>
+  </si>
+  <si>
+    <t>pelhpqjqpgtbwhcusgaa</t>
+  </si>
+  <si>
+    <t>egvzyhzxnoghsmssztvv</t>
+  </si>
+  <si>
+    <t>evqkgyjtbjhndtxevoys</t>
+  </si>
+  <si>
+    <t>eranforgxrxqimxmjdcx</t>
+  </si>
+  <si>
+    <t>txemnldbeotqwkdbqtgt</t>
+  </si>
+  <si>
+    <t>akmkaydlbfvzpjljyfuw</t>
+  </si>
+  <si>
+    <t>lafxmfxxzaaxhqozmvto</t>
+  </si>
+  <si>
+    <t>wgthiavnxnkohghqbmxq</t>
+  </si>
+  <si>
+    <t>qqamotebmruhthqykmue</t>
+  </si>
+  <si>
+    <t>roxtbuuzwonufshgjmfj</t>
+  </si>
+  <si>
+    <t>kqxwcvrxkpmeaaholysa</t>
+  </si>
+  <si>
+    <t>oeqnlkppmmsbrtnxuqce</t>
+  </si>
+  <si>
+    <t>vfwadqvsyqqvdiyftocb</t>
+  </si>
+  <si>
+    <t>xfelilmdqgikctlntblt</t>
+  </si>
+  <si>
+    <t>owuetgthyouvfshtdqmc</t>
+  </si>
+  <si>
+    <t>difsnccnjmivvyrftpbd</t>
+  </si>
+  <si>
+    <t>ecifhybfximtgpytpojw</t>
+  </si>
+  <si>
+    <t>opznquevmeohrviuhiuf</t>
+  </si>
+  <si>
+    <t>ppcuultnqcgocyqachfu</t>
+  </si>
+  <si>
+    <t>dfrowbxvxycpncanukxe</t>
+  </si>
+  <si>
+    <t>pcaqumrizbjeestnowtl</t>
+  </si>
+  <si>
+    <t>udsfadrrxopanuzyehfl</t>
+  </si>
+  <si>
+    <t>mynxfipmsnmubnqweldk</t>
+  </si>
+  <si>
+    <t>ikvivapfqtpjtmyfsnlr</t>
+  </si>
+  <si>
+    <t>bvvkbxgubvhelmkfhhmr</t>
+  </si>
+  <si>
+    <t>ffbvjxbazrnswlaonvco</t>
+  </si>
+  <si>
+    <t>xavkpbayclooutnrabaf</t>
+  </si>
+  <si>
+    <t>gfmtprrkidscfmfgdmku</t>
+  </si>
+  <si>
+    <t>emufmvseczlnnbswyioa</t>
+  </si>
+  <si>
+    <t>qwuxxfylphmgeluktizo</t>
+  </si>
+  <si>
+    <t>qrepcpruykfvqxihfhly</t>
+  </si>
+  <si>
+    <t>rcbtuvmnjpfffohzcgly</t>
+  </si>
+  <si>
+    <t>gapmiexcxiwgxgrepsko</t>
+  </si>
+  <si>
+    <t>ljgeewsowhdefcopfsct</t>
+  </si>
+  <si>
+    <t>uhvlennbcjtytwljtest</t>
+  </si>
+  <si>
+    <t>njnndepxqsooyugeroym</t>
+  </si>
+  <si>
+    <t>gqfasmonuienkfosecja</t>
+  </si>
+  <si>
+    <t>bnpgglafekysfwqtdzin</t>
+  </si>
+  <si>
+    <t>hwraaslclxfcgjnvzory</t>
+  </si>
+  <si>
+    <t>wiaaxdlqazcymxqmghfg</t>
+  </si>
+  <si>
+    <t>dgltpskphiuzejxmcumz</t>
+  </si>
+  <si>
+    <t>rpakejhdycjvihkjtskw</t>
+  </si>
+  <si>
+    <t>shcndahquqrrifkklzlx</t>
+  </si>
+  <si>
+    <t>skudfouxjjwvmfbxegvd</t>
+  </si>
+  <si>
+    <t>uoskzvkgoemmgbbgyqvr</t>
+  </si>
+  <si>
+    <t>brhitbhrcxyepmcppngd</t>
+  </si>
+  <si>
+    <t>ozlrreaatzcgdedkpfrc</t>
+  </si>
+  <si>
+    <t>qncjsppmqmztiqvilsrg</t>
+  </si>
+  <si>
+    <t>jygpvloeqdsqhytdwtzd</t>
+  </si>
+  <si>
+    <t>hsotvgfsbhaalfysqtly</t>
+  </si>
+  <si>
+    <t>dqzeshrppsjpwpreorbm</t>
+  </si>
+  <si>
+    <t>vkkqvhgsbijibkiqqvuf</t>
+  </si>
+  <si>
+    <t>snsitxpstjjpmrctkhvk</t>
+  </si>
+  <si>
+    <t>xzpmknnktcqznrqvzuaw</t>
+  </si>
+  <si>
+    <t>hsllupawtoklxrfidbpd</t>
+  </si>
+  <si>
+    <t>lmadkcbuwripuuesqdxw</t>
+  </si>
+  <si>
+    <t>rdlwfwgzxskteluqjkoi</t>
+  </si>
+  <si>
+    <t>fiwvkknmhlkxispicerb</t>
+  </si>
+  <si>
+    <t>yzeyisirjotxfhpubcac</t>
+  </si>
+  <si>
+    <t>xojacfuklqwiocyzoxjz</t>
+  </si>
+  <si>
+    <t>rarucsqsbcdyqwsexlsc</t>
+  </si>
+  <si>
+    <t>iavwmeqhffygszdpkzxl</t>
+  </si>
+  <si>
+    <t>rwrupcygryswrbgdnnuk</t>
+  </si>
+  <si>
+    <t>bufxoatvgqjzebzzdkvk</t>
+  </si>
+  <si>
+    <t>bdzzyuslnsiuzkbenosd</t>
+  </si>
+  <si>
+    <t>bojvhitvftnbnyckqynz</t>
+  </si>
+  <si>
+    <t>xhbuwlwwcmuzsjtfsszl</t>
+  </si>
+  <si>
+    <t>wjntmalorbulsayvuxgo</t>
+  </si>
+  <si>
+    <t>xwljubzrpemmcribcynw</t>
+  </si>
+  <si>
+    <t>deziqtsbzulcwwmehxzs</t>
+  </si>
+  <si>
+    <t>pkeaxdfiwezxmfstjhog</t>
+  </si>
+  <si>
+    <t>lbubblpmtndcqhbyzyvw</t>
+  </si>
+  <si>
+    <t>rchyhyunhtquyytisxix</t>
+  </si>
+  <si>
+    <t>qelxylchocvnzrrzgpdt</t>
+  </si>
+  <si>
+    <t>kxyjklgvweguejrzmfxc</t>
+  </si>
+  <si>
+    <t>hbnmdhdgyxrfijfnwuoo</t>
+  </si>
+  <si>
+    <t>mdjqxjqmlogmloygfzbp</t>
+  </si>
+  <si>
+    <t>dwjuqdvsuvcokpuntopx</t>
+  </si>
+  <si>
+    <t>ckfrtsvjkshzwqddtzzz</t>
+  </si>
+  <si>
+    <t>busnhhbmdgdqhfidblem</t>
+  </si>
+  <si>
+    <t>xgmwopuvgoxwuzsuppzd</t>
+  </si>
+  <si>
+    <t>xdgmkvikyrwyqhcuifbg</t>
+  </si>
+  <si>
+    <t>fakizamxnllexdvsccpi</t>
+  </si>
+  <si>
+    <t>zhminkihbuplzxdvudfv</t>
+  </si>
+  <si>
+    <t>uzdoxqymckcqqkwgzzim</t>
+  </si>
+  <si>
+    <t>qhliooqwzcnwsqyzvada</t>
+  </si>
+  <si>
+    <t>hhcixwtmxgjokikqettn</t>
+  </si>
+  <si>
+    <t>azthyeridmrkyrdyftwb</t>
+  </si>
+  <si>
+    <t>jdvyovthgufozuoijdot</t>
+  </si>
+  <si>
+    <t>muperloeiigukzdjazdp</t>
+  </si>
+  <si>
+    <t>yegvnnvuqjbedqnrckaq</t>
+  </si>
+  <si>
+    <t>jembfhykjbtrrthmqahm</t>
+  </si>
+  <si>
+    <t>zczevqgburziymnsjfei</t>
+  </si>
+  <si>
+    <t>hcmzbjcccypunwgzlhge</t>
+  </si>
+  <si>
+    <t>hqnilucutraxrwwqiuof</t>
+  </si>
+  <si>
+    <t>rljwuqtqdvvehsjdedjt</t>
+  </si>
+  <si>
+    <t>xqtywwmhxsrjnmnbzpkl</t>
+  </si>
+  <si>
+    <t>mzxfoaefeqbcalnydlfy</t>
+  </si>
+  <si>
+    <t>hrgjsogwyogokfmuzgqr</t>
+  </si>
+  <si>
+    <t>qnilnpogjhrexvlbaddl</t>
+  </si>
+  <si>
+    <t>udeylscghreveipnnoya</t>
+  </si>
+  <si>
+    <t>jsvaacbnwxztohudnjzy</t>
+  </si>
+  <si>
+    <t>bdjttixoxfqplgedzlcj</t>
+  </si>
+  <si>
+    <t>xbxtdbqwttsoplcgljyh</t>
+  </si>
+  <si>
+    <t>jdipxjywvvwfiogufndk</t>
+  </si>
+  <si>
+    <t>ayrdmtlmaakgotozurym</t>
+  </si>
+  <si>
+    <t>gqjstyzvgtzqzhbjsijw</t>
+  </si>
+  <si>
+    <t>iswbmflqchbrooxtdynq</t>
+  </si>
+  <si>
+    <t>dnzvggrsqoqokhmtkaob</t>
+  </si>
+  <si>
+    <t>muuoaneldadrwowszxlx</t>
+  </si>
+  <si>
+    <t>eehinujrcumjngcecyyo</t>
+  </si>
+  <si>
+    <t>nzqblkmiyhwnszypxpyf</t>
+  </si>
+  <si>
+    <t>iwsmqscjgozjvcxloclp</t>
+  </si>
+  <si>
+    <t>oamclcabrpphzlgqiplx</t>
+  </si>
+  <si>
+    <t>ycuisyeqmkdraavlneto</t>
+  </si>
+  <si>
+    <t>tgogmntbiqyybezieymp</t>
+  </si>
+  <si>
+    <t>cjebnblcmnsozmpcyieh</t>
+  </si>
+  <si>
+    <t>hcjsgunqlbioxyhvrjpc</t>
+  </si>
+  <si>
+    <t>jjnaemmtqcoyitkallgq</t>
+  </si>
+  <si>
+    <t>amuyfkacvlvqtazssnhh</t>
+  </si>
+  <si>
+    <t>bivslfeadscxkwidwzfm</t>
+  </si>
+  <si>
+    <t>cftuurljaobmqpfdcplt</t>
+  </si>
+  <si>
+    <t>chvbqmkcwfduixfjvznr</t>
+  </si>
+  <si>
+    <t>jzgwirviqnrwqgmnsknv</t>
+  </si>
+  <si>
+    <t>yzcwsanciygcvjluvqtc</t>
+  </si>
+  <si>
+    <t>tgfabxkxtozqqqtsgsyq</t>
+  </si>
+  <si>
+    <t>kdnqreezqdjgenxyuetb</t>
+  </si>
+  <si>
+    <t>cfbsomfnsjnlsciggfck</t>
+  </si>
+  <si>
+    <t>wehdntcfsijgzkrgzzeu</t>
+  </si>
+  <si>
+    <t>puzgfvkgfkekbwlamvry</t>
+  </si>
+  <si>
+    <t>coehgupctfbsbkpqpntl</t>
+  </si>
+  <si>
+    <t>euhedlxstcfkfzbtjyvk</t>
+  </si>
+  <si>
+    <t>tbpyxmueclwfzaegztrm</t>
+  </si>
+  <si>
+    <t>tmakqfbtpaxtdrhhvmgb</t>
+  </si>
+  <si>
+    <t>mkuehskukmyfacrwyaoh</t>
+  </si>
+  <si>
+    <t>joomluicrpmlpxegndvi</t>
+  </si>
+  <si>
+    <t>afrvvndcljaulsvaorvl</t>
+  </si>
+  <si>
+    <t>rrhzdqeerwakrmpwldxw</t>
+  </si>
+  <si>
+    <t>adfoigugxmnnghrmeiim</t>
+  </si>
+  <si>
+    <t>fmzcetnnzqpmjjwmnfry</t>
+  </si>
+  <si>
+    <t>hthcdkwlumjczibabsuy</t>
+  </si>
+  <si>
+    <t>smsjazfohzpcmxnepjlf</t>
+  </si>
+  <si>
+    <t>iootyvuwddcfvzbcvykf</t>
+  </si>
+  <si>
+    <t>fmfqitevwnmychlnaztw</t>
+  </si>
+  <si>
+    <t>duurhthaosktaolvpfmh</t>
+  </si>
+  <si>
+    <t>acmyeyqmzuontuaskipy</t>
+  </si>
+  <si>
+    <t>kidanddxdhhlkcbivlnv</t>
+  </si>
+  <si>
+    <t>ofbatvgfbhbdwgzyknwm</t>
+  </si>
+  <si>
+    <t>jpafzkjclupmsppnvopk</t>
+  </si>
+  <si>
+    <t>nlctwnsclfhezizcxlvh</t>
+  </si>
+  <si>
+    <t>uobhulghjltfgfourtmf</t>
+  </si>
+  <si>
+    <t>jdfmplszusmhrprchvml</t>
+  </si>
+  <si>
+    <t>lsjajtkimktkicahwlew</t>
+  </si>
+  <si>
+    <t>hlwcgxizkrdccblfzssk</t>
+  </si>
+  <si>
+    <t>batdcrcugocrvrqsaqyh</t>
+  </si>
+  <si>
+    <t>denpaueqopkcunkgnjnh</t>
+  </si>
+  <si>
+    <t>lpuzebyaccngmpwfhfmz</t>
+  </si>
+  <si>
+    <t>jivigxfmtdiavjfncxad</t>
+  </si>
+  <si>
+    <t>dlbpncdwaygrlmggzvvi</t>
+  </si>
+  <si>
+    <t>pzyxzanmedbquvigvqrs</t>
+  </si>
+  <si>
+    <t>iaptmwxvxcjptzmrdflk</t>
+  </si>
+  <si>
+    <t>zkkqmtybkjdsczgnxstu</t>
+  </si>
+  <si>
+    <t>uvixnpbpqeigdnqtjvlw</t>
+  </si>
+  <si>
+    <t>zxsclikywuutkoxdwvus</t>
+  </si>
+  <si>
+    <t>lculqksawiiblytahpqv</t>
+  </si>
+  <si>
+    <t>bcoysfdwvhuqfxkozxoe</t>
+  </si>
+  <si>
+    <t>gzzdrtpehutcrxinrbhb</t>
+  </si>
+  <si>
+    <t>yhunkowoqcdsdvvjvdpc</t>
+  </si>
+  <si>
+    <t>tqcicjzcdfmpfdrzlomf</t>
+  </si>
+  <si>
+    <t>fqxvzjrpjwmkdxodljuk</t>
+  </si>
+  <si>
+    <t>swgivobotdseykrxvuyt</t>
+  </si>
+  <si>
+    <t>pqqflylpmgfqtkjxfjtd</t>
+  </si>
+  <si>
+    <t>qytvgrdwvcjuuiuaqsnx</t>
+  </si>
+  <si>
+    <t>wsfggcxhdfsxjfndlpew</t>
+  </si>
+  <si>
+    <t>jxrxevbfxtsvcgwbhbyi</t>
+  </si>
+  <si>
+    <t>skawgbmaiqhxjwgcsnhm</t>
+  </si>
+  <si>
+    <t>skqnvqsiwnxqrgmhgoyv</t>
+  </si>
+  <si>
+    <t>ltvvjgzyvrwzlrtngmag</t>
+  </si>
+  <si>
+    <t>asusljdtfqyhqyxwwehs</t>
+  </si>
+  <si>
+    <t>nsbejatbnccbaeddgmal</t>
+  </si>
+  <si>
+    <t>ctitdeazdrizamyagsfl</t>
+  </si>
+  <si>
+    <t>sppnkrxclybflynahets</t>
+  </si>
+  <si>
+    <t>yctwdgutwrcazbcnmahr</t>
+  </si>
+  <si>
+    <t>tzumpvzkolocuievlymv</t>
+  </si>
+  <si>
+    <t>zboenmfcygedvrzomkaa</t>
+  </si>
+  <si>
+    <t>cyxeeitmvelvilxuiryw</t>
+  </si>
+  <si>
+    <t>iuqdaolnuivjepetzplj</t>
+  </si>
+  <si>
+    <t>vyfjqvsjmpyqeqyjkmpk</t>
+  </si>
+  <si>
+    <t>vnrdpzurgysfusqqwekr</t>
+  </si>
+  <si>
+    <t>lgvpcrkbhqpwztphbryw</t>
+  </si>
+  <si>
+    <t>zurxcsrlwruhxexufwee</t>
+  </si>
+  <si>
+    <t>ezwowddhbgytfgnzpqkq</t>
+  </si>
+  <si>
+    <t>lolaaqumqixkjmmyksiv</t>
+  </si>
+  <si>
+    <t>jtbvtuhrvgcbvxrehdsq</t>
+  </si>
+  <si>
+    <t>afqikvbjbyeflhwklwjc</t>
+  </si>
+  <si>
+    <t>ebvgbovdmfhrorlxfuwx</t>
+  </si>
+  <si>
+    <t>izucciupwdvfdelgabzt</t>
+  </si>
+  <si>
+    <t>rblodsjuprgqyslghldn</t>
+  </si>
+  <si>
+    <t>wzcgqqvjyrezafacwgye</t>
+  </si>
+  <si>
+    <t>ujgegxyxbewvhrqkdjei</t>
+  </si>
+  <si>
+    <t>icdfcympnqmunsnrbmqa</t>
+  </si>
+  <si>
+    <t>xuzifmgzgoxcrohglqsr</t>
+  </si>
+  <si>
+    <t>snztmpyjyomwmswdwomy</t>
+  </si>
+  <si>
+    <t>fevztyvflybmyckyzjyl</t>
+  </si>
+  <si>
+    <t>jejgitlgvakfcsddnela</t>
+  </si>
+  <si>
+    <t>osnkhdmnqhvwfqtmvxbt</t>
+  </si>
+  <si>
+    <t>zreaqtgvvgioeagbruyi</t>
+  </si>
+  <si>
+    <t>romxzzrrbavdwuocojnx</t>
+  </si>
+  <si>
+    <t>vetqgqfsufkkcerkeojt</t>
+  </si>
+  <si>
+    <t>nqzgqncqrkulonekjbbe</t>
+  </si>
+  <si>
+    <t>kswmmzqmqzajxylaspoc</t>
+  </si>
+  <si>
+    <t>ivrjpdkwhdbxcqigovme</t>
+  </si>
+  <si>
+    <t>kwomxmnyhloxikclnyqu</t>
+  </si>
+  <si>
+    <t>mkoojrymhfdlrsrxxyhu</t>
+  </si>
+  <si>
+    <t>kyzubinbrwyrlkyppyvn</t>
+  </si>
+  <si>
+    <t>uhcyiybnzgyosfomtqom</t>
+  </si>
+  <si>
+    <t>snxbfsycbqfuwgyehpyy</t>
+  </si>
+  <si>
+    <t>dxundkyfoswszprzugol</t>
+  </si>
+  <si>
+    <t>mgxbhakoekdvgzcunnon</t>
+  </si>
+  <si>
+    <t>mqvlwarddddmynpykxyc</t>
+  </si>
+  <si>
+    <t>fdybuvcedsnyuyugqlth</t>
+  </si>
+  <si>
+    <t>mjvihvbubqwpgslfhaaj</t>
+  </si>
+  <si>
+    <t>shfylrltchzyipnwwgol</t>
+  </si>
+  <si>
+    <t>exxcvzrqmmwbizihrhaq</t>
+  </si>
+  <si>
+    <t>gruwqcvstzhgllydesuc</t>
+  </si>
+  <si>
+    <t>kwygdtjmcqxxezczefqq</t>
+  </si>
+  <si>
+    <t>pyjclrkceymxcvhvxegh</t>
+  </si>
+  <si>
+    <t>jrxksknowexnmckfqppq</t>
+  </si>
+  <si>
+    <t>lgrwiiumbhfpynqfejky</t>
+  </si>
+  <si>
+    <t>bcgkjzmyiewrzyqlgvxu</t>
+  </si>
+  <si>
+    <t>gogyahbkeecuyvhxtykk</t>
+  </si>
+  <si>
+    <t>kawknhvvrwripkpkfuwe</t>
+  </si>
+  <si>
+    <t>yqnqmhhchmzwgrnqfono</t>
+  </si>
+  <si>
+    <t>hkitedvodlouxezkuubc</t>
+  </si>
+  <si>
+    <t>jevaipgqfpyustjtxkhn</t>
+  </si>
+  <si>
+    <t>mbnbijmklpbouxvrtplv</t>
+  </si>
+  <si>
+    <t>oghxqgqemhfbdwdyutfr</t>
+  </si>
+  <si>
+    <t>rlexxgzwccvshkqtqcdd</t>
+  </si>
+  <si>
+    <t>cyiljbqgqxqmglvvwapz</t>
+  </si>
+  <si>
+    <t>xprrrvjscfspouypuvqe</t>
+  </si>
+  <si>
+    <t>rzbeywounqaizmtkqpco</t>
+  </si>
+  <si>
+    <t>snqcuoicxktqevjhzezw</t>
+  </si>
+  <si>
+    <t>hdszwczpqahxpkmtapxk</t>
+  </si>
+  <si>
+    <t>trdddweuofqkawwqoply</t>
+  </si>
+  <si>
+    <t>omskaxgxxxzwdcmqiont</t>
+  </si>
+  <si>
+    <t>xppowucumjaxomovjnpc</t>
+  </si>
+  <si>
+    <t>llzkgaslwetlicngyrjy</t>
+  </si>
+  <si>
+    <t>larevgidqdvwewdijacm</t>
+  </si>
+  <si>
+    <t>yldlmkojbkdzuugvslef</t>
+  </si>
+  <si>
+    <t>ichyhxtohgvmjjbilwbt</t>
+  </si>
+  <si>
+    <t>nmdmigicghdghttlnbdx</t>
+  </si>
+  <si>
+    <t>qaqcyxbzqoxbgkgbmecm</t>
+  </si>
+  <si>
+    <t>tcrkbywryithujepelld</t>
+  </si>
+  <si>
+    <t>ttufyniywstgxpbgmzom</t>
+  </si>
+  <si>
+    <t>izgnhhmvncaodewmhtbp</t>
+  </si>
+  <si>
+    <t>mqztgwwptyhgimfnmckb</t>
+  </si>
+  <si>
+    <t>lneelqoydwkogofbguzl</t>
+  </si>
+  <si>
+    <t>yshksgrkpbbfjefvvyft</t>
+  </si>
+  <si>
+    <t>uuwftudondkcirfizqet</t>
+  </si>
+  <si>
+    <t>cutyinouwwdbfzoydhyo</t>
+  </si>
+  <si>
+    <t>rgxjnjnmqukwihqcjpeo</t>
+  </si>
+  <si>
+    <t>pvnoltdusqqcguvjxiip</t>
+  </si>
+  <si>
+    <t>jnpybkixucmzespwieup</t>
+  </si>
+  <si>
+    <t>flujvdcgzpgtlzatumsk</t>
+  </si>
+  <si>
+    <t>ngzlohhreukqrokdnxbd</t>
+  </si>
+  <si>
+    <t>ohuyeaizywkvzykcotsd</t>
+  </si>
+  <si>
+    <t>rximbxelmmugkkbkvyon</t>
+  </si>
+  <si>
+    <t>jrkxkcxiqnvohohogefa</t>
+  </si>
+  <si>
+    <t>dyxouyundznlxroxgyve</t>
+  </si>
+  <si>
+    <t>inbikvohbmaovqvwraun</t>
+  </si>
+  <si>
+    <t>ejravpumudcnamfgajhc</t>
+  </si>
+  <si>
+    <t>ehvxnnritixyarcqymiu</t>
+  </si>
+  <si>
+    <t>sujagaqybgqxgbnykxjg</t>
+  </si>
+  <si>
+    <t>ikxctzbswjykftjznhls</t>
+  </si>
+  <si>
+    <t>lpqzxdtvhfpcmwtqlwam</t>
+  </si>
+  <si>
+    <t>djdsqhpmvorqaananrbi</t>
+  </si>
+  <si>
+    <t>uueqoslmynexmuqgsxky</t>
+  </si>
+  <si>
+    <t>fowuahkiddtghboiswtx</t>
+  </si>
+  <si>
+    <t>jbcgwrzlkogudieyhlro</t>
+  </si>
+  <si>
+    <t>agflxaspffcxibjtooxv</t>
+  </si>
+  <si>
+    <t>omwjfmjaiundvhtkadju</t>
+  </si>
+  <si>
+    <t>haiktoyvwgaxvgpqisoa</t>
+  </si>
+  <si>
+    <t>vmoosoouuhsfcyryeaqs</t>
+  </si>
+  <si>
+    <t>oqxhwyszisskohqrjvbx</t>
+  </si>
+  <si>
+    <t>mmbbrzrksfcgqmzwdwzu</t>
+  </si>
+  <si>
+    <t>imwjlsmcgnbiwsmnjzbb</t>
+  </si>
+  <si>
+    <t>npxnxcivmsglpvcbqimz</t>
+  </si>
+  <si>
+    <t>uxrugkeotyuwqajeojri</t>
+  </si>
+  <si>
+    <t>dyihlvbqyulkczvhddjz</t>
+  </si>
+  <si>
+    <t>kfilehphymnyzoemirzc</t>
+  </si>
+  <si>
+    <t>hpeysuezqonnhfgjfjhf</t>
+  </si>
+  <si>
+    <t>vskxudvdxeawrdnfnhhg</t>
+  </si>
+  <si>
+    <t>uwhrrllcvafxecfddfhb</t>
+  </si>
+  <si>
+    <t>ztbnkqlzxtjxsipqvhpc</t>
+  </si>
+  <si>
+    <t>thxehrylarldkqagpmlj</t>
+  </si>
+  <si>
+    <t>fxyjrdqueqbzilaxbeqz</t>
+  </si>
+  <si>
+    <t>qdbiopsmiyepyxpjxeur</t>
+  </si>
+  <si>
+    <t>mmdzwluxnoynlbyggcvy</t>
+  </si>
+  <si>
+    <t>rrgjtnlvhsymdbltriyz</t>
+  </si>
+  <si>
+    <t>wbdovhptjpmybisluwfv</t>
+  </si>
+  <si>
+    <t>rhccwqjjvzeakdiucfqu</t>
+  </si>
+  <si>
+    <t>hqbsxqkktilggywesctn</t>
+  </si>
+  <si>
+    <t>wlgplvglvnskuliucizm</t>
+  </si>
+  <si>
+    <t>webjqzozkrgardmgppdr</t>
+  </si>
+  <si>
+    <t>mgfruquozmuaiqyiztqw</t>
+  </si>
+  <si>
+    <t>tyfbocshcxcezcybcrlf</t>
+  </si>
+  <si>
+    <t>paaefwrluxvbrjcdhmrw</t>
+  </si>
+  <si>
+    <t>splhvebcxlmwccnkdaok</t>
+  </si>
+  <si>
+    <t>petrpzuwplmrgidyeshl</t>
+  </si>
+  <si>
+    <t>wlxpuytospqzsdfuudmw</t>
+  </si>
+  <si>
+    <t>ulnxkeeuhxriqgpkphra</t>
+  </si>
+  <si>
+    <t>vyasjaqojrfbwcejmsvr</t>
+  </si>
+  <si>
+    <t>fnrwxjkxdpivwwouzecn</t>
+  </si>
+  <si>
+    <t>mqjkbvlxuqfkpkucfhmy</t>
+  </si>
+  <si>
+    <t>cepxccbqydvscoaaclio</t>
+  </si>
+  <si>
+    <t>uqmbqjncsifbxoyshles</t>
+  </si>
+  <si>
+    <t>ocxdbqgxmjzpmkshmzmi</t>
+  </si>
+  <si>
+    <t>foljcdgrgxckbvhwjfwo</t>
+  </si>
+  <si>
+    <t>outpxmdkcowuqaohbgrn</t>
+  </si>
+  <si>
+    <t>kkycyizjaqmnzeoizmpj</t>
+  </si>
+  <si>
+    <t>tpfkyooqvnkphslpwmkv</t>
+  </si>
+  <si>
+    <t>cagbjeznywnqepowyghm</t>
+  </si>
+  <si>
+    <t>biztsuiizvlaybkrciwa</t>
+  </si>
+  <si>
+    <t>mmoqcxjalseytrsfdbwk</t>
+  </si>
+  <si>
+    <t>yljwkqxksvginmejcmys</t>
+  </si>
+  <si>
+    <t>pgdgoqfyhvecznwbnxiv</t>
+  </si>
+  <si>
+    <t>oldbwbhvkbzuhxktvnzg</t>
+  </si>
+  <si>
+    <t>ewoyctygrtigtoqfifer</t>
+  </si>
+  <si>
+    <t>uqmqwlnrgxbrrtncnfsr</t>
+  </si>
+  <si>
+    <t>pfbwpqkdldnbqwwzxbqp</t>
+  </si>
+  <si>
+    <t>xtloplnzaztwjozxffzb</t>
+  </si>
+  <si>
+    <t>najlrwdfjgloizswlyem</t>
+  </si>
+  <si>
+    <t>jsugedmzcmcckzjrpzjo</t>
+  </si>
+  <si>
+    <t>mwajyqzuzbwqyvtfhvhu</t>
+  </si>
+  <si>
+    <t>liigqxuiucrabmgbkzig</t>
+  </si>
+  <si>
+    <t>horoujfnxsptftnhjkaf</t>
+  </si>
+  <si>
+    <t>mfwvmklgbdmkrcjyqhzl</t>
+  </si>
+  <si>
+    <t>aetdznlkimhgasrezyib</t>
+  </si>
+  <si>
+    <t>wbwlzhflqlvemmzjkpgc</t>
+  </si>
+  <si>
+    <t>bplujkxxbvxgmgvyejof</t>
+  </si>
+  <si>
+    <t>jmbjtvvhevqhsawsiqyx</t>
+  </si>
+  <si>
+    <t>eqgtbywhkfxmlbdptyzs</t>
+  </si>
+  <si>
+    <t>rplnbnovjsxypmdtgvye</t>
+  </si>
+  <si>
+    <t>kejfsdbedkjvdkhkpytc</t>
+  </si>
+  <si>
+    <t>fhrwpdwzvvdzqkjugtmi</t>
+  </si>
+  <si>
+    <t>wjsnsoondtekdxiaqjqy</t>
+  </si>
+  <si>
+    <t>pkusvngyyhkgcgrefizg</t>
+  </si>
+  <si>
+    <t>cfnifddlhcairkliukqz</t>
+  </si>
+  <si>
+    <t>urixuxmanrbvbsdbrwpu</t>
+  </si>
+  <si>
+    <t>xnmhdpjfkvktqkunhckw</t>
+  </si>
+  <si>
+    <t>yjabsxthsljlzqhdixuw</t>
+  </si>
+  <si>
+    <t>arotqofsglovvfdqrlkq</t>
+  </si>
+  <si>
+    <t>tefjzyrewifgpnlguqmb</t>
+  </si>
+  <si>
+    <t>xmklqpsbjkrwokdmtkhm</t>
+  </si>
+  <si>
+    <t>mujznbmzltdaglxjmrwa</t>
+  </si>
+  <si>
+    <t>nrkskxfabjsvwglnfori</t>
+  </si>
+  <si>
+    <t>skjfaxwmbmntiputmhid</t>
+  </si>
+  <si>
+    <t>yvyefacngujewsmoqrmy</t>
+  </si>
+  <si>
+    <t>iofsjxosqbnvsdmhvhor</t>
+  </si>
+  <si>
+    <t>xnvmmogceznpkxxdtvso</t>
+  </si>
+  <si>
+    <t>blexedraclmbahinxind</t>
+  </si>
+  <si>
+    <t>qxmtbqfrceqmziopjwxx</t>
+  </si>
+  <si>
+    <t>abezdsiqltqvgcduzwwf</t>
+  </si>
+  <si>
+    <t>sdgnnoudynoticuntcyi</t>
+  </si>
+  <si>
+    <t>bbbemfmshtuscdhbvdvf</t>
+  </si>
+  <si>
+    <t>exzbtjmjofpimrtlmibc</t>
+  </si>
+  <si>
+    <t>uhnzvbclzdaiicstexvo</t>
+  </si>
+  <si>
+    <t>rrlctkyluqiqenufjikl</t>
+  </si>
+  <si>
+    <t>cblrhxfxcujivknjakgm</t>
+  </si>
+  <si>
+    <t>rrqjbaxhslwrqjymqgpe</t>
+  </si>
+  <si>
+    <t>pkxqruggubhfmcpgjodq</t>
+  </si>
+  <si>
+    <t>dsylqerdvqndyqzvntmb</t>
+  </si>
+  <si>
+    <t>efueoulxlbyvkjyvckrv</t>
+  </si>
+  <si>
+    <t>uldtynldjriudkdpmwnc</t>
+  </si>
+  <si>
+    <t>pnsejndwxmzkqjjkjrnq</t>
+  </si>
+  <si>
+    <t>tsvccwahbubbrmmxaruu</t>
+  </si>
+  <si>
+    <t>jxnoferbvuncwqruqhfv</t>
+  </si>
+  <si>
+    <t>ssxdgonmacyffuykxcjw</t>
+  </si>
+  <si>
+    <t>babkxpaoructpmeblifx</t>
+  </si>
+  <si>
+    <t>hmdftbnpvmnvmglvjgdx</t>
+  </si>
+  <si>
+    <t>gdulxyanagshdyzzeptm</t>
+  </si>
+  <si>
+    <t>qkeelafznwvlozfqrpzx</t>
+  </si>
+  <si>
+    <t>qknwfefegblfbmatsfrc</t>
+  </si>
+  <si>
+    <t>ytyissboasqlonnlcpji</t>
+  </si>
+  <si>
+    <t>onacenkmaolvkmyuczxe</t>
+  </si>
+  <si>
+    <t>iejxifcjgarxgnszbqxn</t>
+  </si>
+  <si>
+    <t>riypiqvwkmyjwudssnrb</t>
+  </si>
+  <si>
+    <t>udfqberxnlzahxswqsbo</t>
+  </si>
+  <si>
+    <t>eebugocwzybzdfuwdboj</t>
+  </si>
+  <si>
+    <t>htwzttmvmamxrncfxgaw</t>
+  </si>
+  <si>
+    <t>kncrlnuxsvhpfcnpvdlh</t>
+  </si>
+  <si>
+    <t>etiliukjwrwhwdpiramt</t>
+  </si>
+  <si>
+    <t>jqxnortrlzzpnunxoseb</t>
+  </si>
+  <si>
+    <t>bdzaxcfawhdwnxndeidq</t>
+  </si>
+  <si>
+    <t>ufvxgoqcfgmqpmonwttg</t>
+  </si>
+  <si>
+    <t>haklyesqqemvlwlyhhlq</t>
+  </si>
+  <si>
+    <t>khiqjrccmofeddpupgut</t>
+  </si>
+  <si>
+    <t>biupvvbkvdelpurzvuhg</t>
+  </si>
+  <si>
+    <t>ipxgntggeizdhjkywofq</t>
+  </si>
+  <si>
+    <t>gervkoopihlsmmlcmuyi</t>
+  </si>
+  <si>
+    <t>zaqodbshiolyofjyrdss</t>
+  </si>
+  <si>
+    <t>byqyiqdqhrvtwvdktnhh</t>
+  </si>
+  <si>
+    <t>dsxjzokvoiewpuyqrjdt</t>
+  </si>
+  <si>
+    <t>rmjygmkfzqmlnlrsfpso</t>
+  </si>
+  <si>
+    <t>pqpydccxpicfohhdwcyj</t>
+  </si>
+  <si>
+    <t>hqujbsmjekkkztrzojor</t>
+  </si>
+  <si>
+    <t>uirzzerhzdzkteyhrmhk</t>
+  </si>
+  <si>
+    <t>eejifrjufinnlxegqkdp</t>
+  </si>
+  <si>
+    <t>auzifvnpvgesyyqczdlh</t>
+  </si>
+  <si>
+    <t>otvcxcqzxtbguteeaiok</t>
+  </si>
+  <si>
+    <t>tipymvyhubcgfsxwdaih</t>
+  </si>
+  <si>
+    <t>gieokcwihjfapcnhxytv</t>
+  </si>
+  <si>
+    <t>qbugmkpwazacufiilcpb</t>
+  </si>
+  <si>
+    <t>zvnztarpqzppqwhhrxgl</t>
+  </si>
+  <si>
+    <t>kwklgieqlenmvzigfdaa</t>
+  </si>
+  <si>
+    <t>dbrrvbmgsxlsobztefan</t>
+  </si>
+  <si>
+    <t>bgmjqbvdqdgippgksewh</t>
+  </si>
+  <si>
+    <t>rpwqtqxlwjfmzxcqvkzb</t>
+  </si>
+  <si>
+    <t>glgalobzsmmgojkheran</t>
+  </si>
+  <si>
+    <t>axtaimidcvxeftgyjrxz</t>
+  </si>
+  <si>
+    <t>flkdldyxfkxbzltuyafn</t>
+  </si>
+  <si>
+    <t>kinawablbwjvkjvrepvz</t>
+  </si>
+  <si>
+    <t>mcnrxtjnzvlzpxshirbt</t>
+  </si>
+  <si>
+    <t>uekpqjpkzdixmgjykcml</t>
+  </si>
+  <si>
+    <t>hseybjchldsyfxuilmzp</t>
+  </si>
+  <si>
+    <t>hqoinvniqiqmxioimlex</t>
+  </si>
+  <si>
+    <t>dtprpapyzzupcctjudrz</t>
+  </si>
+  <si>
+    <t>vzvqeswydikjxuqwihde</t>
   </si>
   <si>
     <t>Fail</t>
@@ -443,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>507</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -463,7 +1663,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>508</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -483,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>509</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -503,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>510</v>
       </c>
       <c r="G6" t="n">
         <v>500.0</v>
@@ -1844,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -1858,7 +3058,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -1872,7 +3072,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -1886,7 +3086,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -1900,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -1914,7 +3114,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -1928,7 +3128,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -1942,7 +3142,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
@@ -1956,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
@@ -1970,7 +3170,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
@@ -1984,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
@@ -1998,7 +3198,7 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -2012,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -2026,7 +3226,7 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -2040,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -2054,7 +3254,7 @@
         <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
@@ -2068,7 +3268,7 @@
         <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -2082,7 +3282,7 @@
         <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
@@ -2096,7 +3296,7 @@
         <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
@@ -2110,7 +3310,7 @@
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -2124,7 +3324,7 @@
         <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -2138,7 +3338,7 @@
         <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
@@ -2152,7 +3352,7 @@
         <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="C124" t="s">
         <v>6</v>
@@ -2166,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -2180,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -2194,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -2208,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
@@ -2222,7 +3422,7 @@
         <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
@@ -2236,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
@@ -2250,7 +3450,7 @@
         <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
@@ -2264,7 +3464,7 @@
         <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
@@ -2278,7 +3478,7 @@
         <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
@@ -2292,7 +3492,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
@@ -2306,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
@@ -2320,7 +3520,7 @@
         <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
@@ -2334,7 +3534,7 @@
         <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
@@ -2348,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
@@ -2362,7 +3562,7 @@
         <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
@@ -2376,7 +3576,7 @@
         <v>4</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
@@ -2390,7 +3590,7 @@
         <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
@@ -2404,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="B142" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
@@ -2418,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
@@ -2432,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
@@ -2446,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
@@ -2460,7 +3660,7 @@
         <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
@@ -2474,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="B147" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
@@ -2488,7 +3688,7 @@
         <v>4</v>
       </c>
       <c r="B148" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="C148" t="s">
         <v>6</v>
@@ -2502,7 +3702,7 @@
         <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
@@ -2516,7 +3716,7 @@
         <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
@@ -2530,7 +3730,7 @@
         <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="C151" t="s">
         <v>6</v>
@@ -2544,7 +3744,7 @@
         <v>4</v>
       </c>
       <c r="B152" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="C152" t="s">
         <v>6</v>
@@ -2558,7 +3758,7 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="C153" t="s">
         <v>6</v>
@@ -2572,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="B154" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
@@ -2586,7 +3786,7 @@
         <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
@@ -2600,7 +3800,7 @@
         <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
@@ -2614,7 +3814,7 @@
         <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
@@ -2628,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
@@ -2642,7 +3842,7 @@
         <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
@@ -2656,7 +3856,7 @@
         <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
@@ -2670,7 +3870,7 @@
         <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
@@ -2684,7 +3884,7 @@
         <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
@@ -2698,7 +3898,7 @@
         <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
@@ -2712,7 +3912,7 @@
         <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
@@ -2726,7 +3926,7 @@
         <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -2740,7 +3940,7 @@
         <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
@@ -2754,7 +3954,7 @@
         <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
@@ -2768,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
@@ -2782,7 +3982,7 @@
         <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
@@ -2796,7 +3996,7 @@
         <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
@@ -2810,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
@@ -2824,7 +4024,7 @@
         <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
@@ -2838,7 +4038,7 @@
         <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
@@ -2852,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -2866,7 +4066,7 @@
         <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="C175" t="s">
         <v>6</v>
@@ -2880,7 +4080,7 @@
         <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
@@ -2894,7 +4094,7 @@
         <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -2908,7 +4108,7 @@
         <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
@@ -2922,7 +4122,7 @@
         <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
@@ -2936,7 +4136,7 @@
         <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
@@ -2950,7 +4150,7 @@
         <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
@@ -2964,7 +4164,7 @@
         <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -2978,7 +4178,7 @@
         <v>4</v>
       </c>
       <c r="B183" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
@@ -2992,7 +4192,7 @@
         <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -3006,7 +4206,7 @@
         <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -3020,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -3034,7 +4234,7 @@
         <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -3048,7 +4248,7 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -3062,7 +4262,7 @@
         <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -3076,7 +4276,7 @@
         <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -3090,7 +4290,7 @@
         <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
@@ -3104,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -3118,7 +4318,7 @@
         <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -3132,7 +4332,7 @@
         <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -3146,7 +4346,7 @@
         <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
@@ -3160,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -3174,7 +4374,7 @@
         <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
@@ -3188,7 +4388,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -3202,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
@@ -3216,7 +4416,7 @@
         <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
@@ -3230,7 +4430,7 @@
         <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -3244,7 +4444,7 @@
         <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -3258,7 +4458,7 @@
         <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
@@ -3272,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -3286,7 +4486,7 @@
         <v>4</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
@@ -3300,7 +4500,7 @@
         <v>4</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -3314,7 +4514,7 @@
         <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -3328,7 +4528,7 @@
         <v>4</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -3342,7 +4542,7 @@
         <v>4</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
@@ -3356,7 +4556,7 @@
         <v>4</v>
       </c>
       <c r="B210" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
@@ -3370,7 +4570,7 @@
         <v>4</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
@@ -3384,7 +4584,7 @@
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
@@ -3398,7 +4598,7 @@
         <v>4</v>
       </c>
       <c r="B213" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
@@ -3412,7 +4612,7 @@
         <v>4</v>
       </c>
       <c r="B214" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
@@ -3426,7 +4626,7 @@
         <v>4</v>
       </c>
       <c r="B215" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
@@ -3440,7 +4640,7 @@
         <v>4</v>
       </c>
       <c r="B216" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -3454,7 +4654,7 @@
         <v>4</v>
       </c>
       <c r="B217" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -3468,7 +4668,7 @@
         <v>4</v>
       </c>
       <c r="B218" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
@@ -3482,7 +4682,7 @@
         <v>4</v>
       </c>
       <c r="B219" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
@@ -3496,7 +4696,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
@@ -3510,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="B221" t="s">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
@@ -3524,7 +4724,7 @@
         <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -3538,7 +4738,7 @@
         <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
@@ -3552,7 +4752,7 @@
         <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -3566,7 +4766,7 @@
         <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -3580,7 +4780,7 @@
         <v>4</v>
       </c>
       <c r="B226" t="s">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
@@ -3594,7 +4794,7 @@
         <v>4</v>
       </c>
       <c r="B227" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
@@ -3608,7 +4808,7 @@
         <v>4</v>
       </c>
       <c r="B228" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
@@ -3622,7 +4822,7 @@
         <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
@@ -3636,7 +4836,7 @@
         <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
@@ -3650,7 +4850,7 @@
         <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
@@ -3664,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
@@ -3678,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="B233" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
@@ -3692,7 +4892,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
@@ -3706,7 +4906,7 @@
         <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
@@ -3720,7 +4920,7 @@
         <v>4</v>
       </c>
       <c r="B236" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
@@ -3734,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="B237" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
@@ -3748,7 +4948,7 @@
         <v>4</v>
       </c>
       <c r="B238" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
@@ -3762,7 +4962,7 @@
         <v>4</v>
       </c>
       <c r="B239" t="s">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
@@ -3776,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="B240" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
@@ -3790,7 +4990,7 @@
         <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
@@ -3804,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
@@ -3818,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="B243" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
@@ -3832,7 +5032,7 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
@@ -3846,7 +5046,7 @@
         <v>4</v>
       </c>
       <c r="B245" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="C245" t="s">
         <v>6</v>
@@ -3860,7 +5060,7 @@
         <v>4</v>
       </c>
       <c r="B246" t="s">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
@@ -3874,7 +5074,7 @@
         <v>4</v>
       </c>
       <c r="B247" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
@@ -3888,7 +5088,7 @@
         <v>4</v>
       </c>
       <c r="B248" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="C248" t="s">
         <v>6</v>
@@ -3902,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="B249" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="C249" t="s">
         <v>6</v>
@@ -3916,7 +5116,7 @@
         <v>4</v>
       </c>
       <c r="B250" t="s">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
@@ -3930,7 +5130,7 @@
         <v>4</v>
       </c>
       <c r="B251" t="s">
-        <v>56</v>
+        <v>256</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
@@ -3944,7 +5144,7 @@
         <v>4</v>
       </c>
       <c r="B252" t="s">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="C252" t="s">
         <v>6</v>
@@ -3958,7 +5158,7 @@
         <v>4</v>
       </c>
       <c r="B253" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
@@ -3972,7 +5172,7 @@
         <v>4</v>
       </c>
       <c r="B254" t="s">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="C254" t="s">
         <v>6</v>
@@ -3986,7 +5186,7 @@
         <v>4</v>
       </c>
       <c r="B255" t="s">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
@@ -4000,7 +5200,7 @@
         <v>4</v>
       </c>
       <c r="B256" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
@@ -4014,7 +5214,7 @@
         <v>4</v>
       </c>
       <c r="B257" t="s">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="C257" t="s">
         <v>6</v>
@@ -4028,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="B258" t="s">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
@@ -4042,7 +5242,7 @@
         <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
@@ -4056,7 +5256,7 @@
         <v>4</v>
       </c>
       <c r="B260" t="s">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
@@ -4070,7 +5270,7 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
@@ -4084,7 +5284,7 @@
         <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="C262" t="s">
         <v>6</v>
@@ -4098,7 +5298,7 @@
         <v>4</v>
       </c>
       <c r="B263" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C263" t="s">
         <v>6</v>
@@ -4112,7 +5312,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C264" t="s">
         <v>6</v>
@@ -4126,7 +5326,7 @@
         <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="C265" t="s">
         <v>6</v>
@@ -4140,7 +5340,7 @@
         <v>4</v>
       </c>
       <c r="B266" t="s">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="C266" t="s">
         <v>6</v>
@@ -4154,7 +5354,7 @@
         <v>4</v>
       </c>
       <c r="B267" t="s">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
@@ -4168,7 +5368,7 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="C268" t="s">
         <v>6</v>
@@ -4182,7 +5382,7 @@
         <v>4</v>
       </c>
       <c r="B269" t="s">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
@@ -4196,7 +5396,7 @@
         <v>4</v>
       </c>
       <c r="B270" t="s">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
@@ -4210,7 +5410,7 @@
         <v>4</v>
       </c>
       <c r="B271" t="s">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
@@ -4224,7 +5424,7 @@
         <v>4</v>
       </c>
       <c r="B272" t="s">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="C272" t="s">
         <v>6</v>
@@ -4238,7 +5438,7 @@
         <v>4</v>
       </c>
       <c r="B273" t="s">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="C273" t="s">
         <v>6</v>
@@ -4252,7 +5452,7 @@
         <v>4</v>
       </c>
       <c r="B274" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="C274" t="s">
         <v>6</v>
@@ -4266,7 +5466,7 @@
         <v>4</v>
       </c>
       <c r="B275" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="C275" t="s">
         <v>6</v>
@@ -4280,7 +5480,7 @@
         <v>4</v>
       </c>
       <c r="B276" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
@@ -4294,7 +5494,7 @@
         <v>4</v>
       </c>
       <c r="B277" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="C277" t="s">
         <v>6</v>
@@ -4308,7 +5508,7 @@
         <v>4</v>
       </c>
       <c r="B278" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
@@ -4322,7 +5522,7 @@
         <v>4</v>
       </c>
       <c r="B279" t="s">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
@@ -4336,7 +5536,7 @@
         <v>4</v>
       </c>
       <c r="B280" t="s">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
@@ -4350,7 +5550,7 @@
         <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>86</v>
+        <v>286</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
@@ -4364,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="B282" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
@@ -4378,7 +5578,7 @@
         <v>4</v>
       </c>
       <c r="B283" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
@@ -4392,7 +5592,7 @@
         <v>4</v>
       </c>
       <c r="B284" t="s">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="C284" t="s">
         <v>6</v>
@@ -4406,7 +5606,7 @@
         <v>4</v>
       </c>
       <c r="B285" t="s">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="C285" t="s">
         <v>6</v>
@@ -4420,7 +5620,7 @@
         <v>4</v>
       </c>
       <c r="B286" t="s">
-        <v>91</v>
+        <v>291</v>
       </c>
       <c r="C286" t="s">
         <v>6</v>
@@ -4434,7 +5634,7 @@
         <v>4</v>
       </c>
       <c r="B287" t="s">
-        <v>92</v>
+        <v>292</v>
       </c>
       <c r="C287" t="s">
         <v>6</v>
@@ -4448,7 +5648,7 @@
         <v>4</v>
       </c>
       <c r="B288" t="s">
-        <v>93</v>
+        <v>293</v>
       </c>
       <c r="C288" t="s">
         <v>6</v>
@@ -4462,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="B289" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
@@ -4476,7 +5676,7 @@
         <v>4</v>
       </c>
       <c r="B290" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="C290" t="s">
         <v>6</v>
@@ -4490,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="B291" t="s">
-        <v>96</v>
+        <v>296</v>
       </c>
       <c r="C291" t="s">
         <v>6</v>
@@ -4504,7 +5704,7 @@
         <v>4</v>
       </c>
       <c r="B292" t="s">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="C292" t="s">
         <v>6</v>
@@ -4518,7 +5718,7 @@
         <v>4</v>
       </c>
       <c r="B293" t="s">
-        <v>98</v>
+        <v>298</v>
       </c>
       <c r="C293" t="s">
         <v>6</v>
@@ -4532,7 +5732,7 @@
         <v>4</v>
       </c>
       <c r="B294" t="s">
-        <v>99</v>
+        <v>299</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
@@ -4546,7 +5746,7 @@
         <v>4</v>
       </c>
       <c r="B295" t="s">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C295" t="s">
         <v>6</v>
@@ -4560,7 +5760,7 @@
         <v>4</v>
       </c>
       <c r="B296" t="s">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="C296" t="s">
         <v>6</v>
@@ -4574,7 +5774,7 @@
         <v>4</v>
       </c>
       <c r="B297" t="s">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="C297" t="s">
         <v>6</v>
@@ -4588,7 +5788,7 @@
         <v>4</v>
       </c>
       <c r="B298" t="s">
-        <v>103</v>
+        <v>303</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
@@ -4602,7 +5802,7 @@
         <v>4</v>
       </c>
       <c r="B299" t="s">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="C299" t="s">
         <v>6</v>
@@ -4616,7 +5816,7 @@
         <v>4</v>
       </c>
       <c r="B300" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
@@ -4630,7 +5830,7 @@
         <v>4</v>
       </c>
       <c r="B301" t="s">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
@@ -4644,7 +5844,7 @@
         <v>4</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="C302" t="s">
         <v>6</v>
@@ -4658,7 +5858,7 @@
         <v>4</v>
       </c>
       <c r="B303" t="s">
-        <v>8</v>
+        <v>308</v>
       </c>
       <c r="C303" t="s">
         <v>6</v>
@@ -4672,7 +5872,7 @@
         <v>4</v>
       </c>
       <c r="B304" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="C304" t="s">
         <v>6</v>
@@ -4686,7 +5886,7 @@
         <v>4</v>
       </c>
       <c r="B305" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="C305" t="s">
         <v>6</v>
@@ -4700,7 +5900,7 @@
         <v>4</v>
       </c>
       <c r="B306" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="C306" t="s">
         <v>6</v>
@@ -4714,7 +5914,7 @@
         <v>4</v>
       </c>
       <c r="B307" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="C307" t="s">
         <v>6</v>
@@ -4728,7 +5928,7 @@
         <v>4</v>
       </c>
       <c r="B308" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="C308" t="s">
         <v>6</v>
@@ -4742,7 +5942,7 @@
         <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>14</v>
+        <v>314</v>
       </c>
       <c r="C309" t="s">
         <v>6</v>
@@ -4756,7 +5956,7 @@
         <v>4</v>
       </c>
       <c r="B310" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="C310" t="s">
         <v>6</v>
@@ -4770,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="B311" t="s">
-        <v>16</v>
+        <v>316</v>
       </c>
       <c r="C311" t="s">
         <v>6</v>
@@ -4784,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="B312" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
@@ -4798,7 +5998,7 @@
         <v>4</v>
       </c>
       <c r="B313" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="C313" t="s">
         <v>6</v>
@@ -4812,7 +6012,7 @@
         <v>4</v>
       </c>
       <c r="B314" t="s">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="C314" t="s">
         <v>6</v>
@@ -4826,7 +6026,7 @@
         <v>4</v>
       </c>
       <c r="B315" t="s">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="C315" t="s">
         <v>6</v>
@@ -4840,7 +6040,7 @@
         <v>4</v>
       </c>
       <c r="B316" t="s">
-        <v>21</v>
+        <v>321</v>
       </c>
       <c r="C316" t="s">
         <v>6</v>
@@ -4854,7 +6054,7 @@
         <v>4</v>
       </c>
       <c r="B317" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="C317" t="s">
         <v>6</v>
@@ -4868,7 +6068,7 @@
         <v>4</v>
       </c>
       <c r="B318" t="s">
-        <v>23</v>
+        <v>323</v>
       </c>
       <c r="C318" t="s">
         <v>6</v>
@@ -4882,7 +6082,7 @@
         <v>4</v>
       </c>
       <c r="B319" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
       <c r="C319" t="s">
         <v>6</v>
@@ -4896,7 +6096,7 @@
         <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>25</v>
+        <v>325</v>
       </c>
       <c r="C320" t="s">
         <v>6</v>
@@ -4910,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="B321" t="s">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c r="C321" t="s">
         <v>6</v>
@@ -4924,7 +6124,7 @@
         <v>4</v>
       </c>
       <c r="B322" t="s">
-        <v>27</v>
+        <v>327</v>
       </c>
       <c r="C322" t="s">
         <v>6</v>
@@ -4938,7 +6138,7 @@
         <v>4</v>
       </c>
       <c r="B323" t="s">
-        <v>28</v>
+        <v>328</v>
       </c>
       <c r="C323" t="s">
         <v>6</v>
@@ -4952,7 +6152,7 @@
         <v>4</v>
       </c>
       <c r="B324" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="C324" t="s">
         <v>6</v>
@@ -4966,7 +6166,7 @@
         <v>4</v>
       </c>
       <c r="B325" t="s">
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="C325" t="s">
         <v>6</v>
@@ -4980,7 +6180,7 @@
         <v>4</v>
       </c>
       <c r="B326" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="C326" t="s">
         <v>6</v>
@@ -4994,7 +6194,7 @@
         <v>4</v>
       </c>
       <c r="B327" t="s">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="C327" t="s">
         <v>6</v>
@@ -5008,7 +6208,7 @@
         <v>4</v>
       </c>
       <c r="B328" t="s">
-        <v>33</v>
+        <v>333</v>
       </c>
       <c r="C328" t="s">
         <v>6</v>
@@ -5022,7 +6222,7 @@
         <v>4</v>
       </c>
       <c r="B329" t="s">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="C329" t="s">
         <v>6</v>
@@ -5036,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="B330" t="s">
-        <v>35</v>
+        <v>335</v>
       </c>
       <c r="C330" t="s">
         <v>6</v>
@@ -5050,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="B331" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="C331" t="s">
         <v>6</v>
@@ -5064,7 +6264,7 @@
         <v>4</v>
       </c>
       <c r="B332" t="s">
-        <v>37</v>
+        <v>337</v>
       </c>
       <c r="C332" t="s">
         <v>6</v>
@@ -5078,7 +6278,7 @@
         <v>4</v>
       </c>
       <c r="B333" t="s">
-        <v>38</v>
+        <v>338</v>
       </c>
       <c r="C333" t="s">
         <v>6</v>
@@ -5092,7 +6292,7 @@
         <v>4</v>
       </c>
       <c r="B334" t="s">
-        <v>39</v>
+        <v>339</v>
       </c>
       <c r="C334" t="s">
         <v>6</v>
@@ -5106,7 +6306,7 @@
         <v>4</v>
       </c>
       <c r="B335" t="s">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="C335" t="s">
         <v>6</v>
@@ -5120,7 +6320,7 @@
         <v>4</v>
       </c>
       <c r="B336" t="s">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="C336" t="s">
         <v>6</v>
@@ -5134,7 +6334,7 @@
         <v>4</v>
       </c>
       <c r="B337" t="s">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="C337" t="s">
         <v>6</v>
@@ -5148,7 +6348,7 @@
         <v>4</v>
       </c>
       <c r="B338" t="s">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="C338" t="s">
         <v>6</v>
@@ -5162,7 +6362,7 @@
         <v>4</v>
       </c>
       <c r="B339" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="C339" t="s">
         <v>6</v>
@@ -5176,7 +6376,7 @@
         <v>4</v>
       </c>
       <c r="B340" t="s">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="C340" t="s">
         <v>6</v>
@@ -5190,7 +6390,7 @@
         <v>4</v>
       </c>
       <c r="B341" t="s">
-        <v>46</v>
+        <v>346</v>
       </c>
       <c r="C341" t="s">
         <v>6</v>
@@ -5204,7 +6404,7 @@
         <v>4</v>
       </c>
       <c r="B342" t="s">
-        <v>47</v>
+        <v>347</v>
       </c>
       <c r="C342" t="s">
         <v>6</v>
@@ -5218,7 +6418,7 @@
         <v>4</v>
       </c>
       <c r="B343" t="s">
-        <v>48</v>
+        <v>348</v>
       </c>
       <c r="C343" t="s">
         <v>6</v>
@@ -5232,7 +6432,7 @@
         <v>4</v>
       </c>
       <c r="B344" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="C344" t="s">
         <v>6</v>
@@ -5246,7 +6446,7 @@
         <v>4</v>
       </c>
       <c r="B345" t="s">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="C345" t="s">
         <v>6</v>
@@ -5260,7 +6460,7 @@
         <v>4</v>
       </c>
       <c r="B346" t="s">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="C346" t="s">
         <v>6</v>
@@ -5274,7 +6474,7 @@
         <v>4</v>
       </c>
       <c r="B347" t="s">
-        <v>52</v>
+        <v>352</v>
       </c>
       <c r="C347" t="s">
         <v>6</v>
@@ -5288,7 +6488,7 @@
         <v>4</v>
       </c>
       <c r="B348" t="s">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="C348" t="s">
         <v>6</v>
@@ -5302,7 +6502,7 @@
         <v>4</v>
       </c>
       <c r="B349" t="s">
-        <v>54</v>
+        <v>354</v>
       </c>
       <c r="C349" t="s">
         <v>6</v>
@@ -5316,7 +6516,7 @@
         <v>4</v>
       </c>
       <c r="B350" t="s">
-        <v>55</v>
+        <v>355</v>
       </c>
       <c r="C350" t="s">
         <v>6</v>
@@ -5330,7 +6530,7 @@
         <v>4</v>
       </c>
       <c r="B351" t="s">
-        <v>56</v>
+        <v>356</v>
       </c>
       <c r="C351" t="s">
         <v>6</v>
@@ -5344,7 +6544,7 @@
         <v>4</v>
       </c>
       <c r="B352" t="s">
-        <v>57</v>
+        <v>357</v>
       </c>
       <c r="C352" t="s">
         <v>6</v>
@@ -5358,7 +6558,7 @@
         <v>4</v>
       </c>
       <c r="B353" t="s">
-        <v>58</v>
+        <v>358</v>
       </c>
       <c r="C353" t="s">
         <v>6</v>
@@ -5372,7 +6572,7 @@
         <v>4</v>
       </c>
       <c r="B354" t="s">
-        <v>59</v>
+        <v>359</v>
       </c>
       <c r="C354" t="s">
         <v>6</v>
@@ -5386,7 +6586,7 @@
         <v>4</v>
       </c>
       <c r="B355" t="s">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="C355" t="s">
         <v>6</v>
@@ -5400,7 +6600,7 @@
         <v>4</v>
       </c>
       <c r="B356" t="s">
-        <v>61</v>
+        <v>361</v>
       </c>
       <c r="C356" t="s">
         <v>6</v>
@@ -5414,7 +6614,7 @@
         <v>4</v>
       </c>
       <c r="B357" t="s">
-        <v>62</v>
+        <v>362</v>
       </c>
       <c r="C357" t="s">
         <v>6</v>
@@ -5428,7 +6628,7 @@
         <v>4</v>
       </c>
       <c r="B358" t="s">
-        <v>63</v>
+        <v>363</v>
       </c>
       <c r="C358" t="s">
         <v>6</v>
@@ -5442,7 +6642,7 @@
         <v>4</v>
       </c>
       <c r="B359" t="s">
-        <v>64</v>
+        <v>364</v>
       </c>
       <c r="C359" t="s">
         <v>6</v>
@@ -5456,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="B360" t="s">
-        <v>65</v>
+        <v>365</v>
       </c>
       <c r="C360" t="s">
         <v>6</v>
@@ -5470,7 +6670,7 @@
         <v>4</v>
       </c>
       <c r="B361" t="s">
-        <v>66</v>
+        <v>366</v>
       </c>
       <c r="C361" t="s">
         <v>6</v>
@@ -5484,7 +6684,7 @@
         <v>4</v>
       </c>
       <c r="B362" t="s">
-        <v>67</v>
+        <v>367</v>
       </c>
       <c r="C362" t="s">
         <v>6</v>
@@ -5498,7 +6698,7 @@
         <v>4</v>
       </c>
       <c r="B363" t="s">
-        <v>68</v>
+        <v>368</v>
       </c>
       <c r="C363" t="s">
         <v>6</v>
@@ -5512,7 +6712,7 @@
         <v>4</v>
       </c>
       <c r="B364" t="s">
-        <v>69</v>
+        <v>369</v>
       </c>
       <c r="C364" t="s">
         <v>6</v>
@@ -5526,7 +6726,7 @@
         <v>4</v>
       </c>
       <c r="B365" t="s">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="C365" t="s">
         <v>6</v>
@@ -5540,7 +6740,7 @@
         <v>4</v>
       </c>
       <c r="B366" t="s">
-        <v>71</v>
+        <v>371</v>
       </c>
       <c r="C366" t="s">
         <v>6</v>
@@ -5554,7 +6754,7 @@
         <v>4</v>
       </c>
       <c r="B367" t="s">
-        <v>72</v>
+        <v>372</v>
       </c>
       <c r="C367" t="s">
         <v>6</v>
@@ -5568,7 +6768,7 @@
         <v>4</v>
       </c>
       <c r="B368" t="s">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="C368" t="s">
         <v>6</v>
@@ -5582,7 +6782,7 @@
         <v>4</v>
       </c>
       <c r="B369" t="s">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="C369" t="s">
         <v>6</v>
@@ -5596,7 +6796,7 @@
         <v>4</v>
       </c>
       <c r="B370" t="s">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="C370" t="s">
         <v>6</v>
@@ -5610,7 +6810,7 @@
         <v>4</v>
       </c>
       <c r="B371" t="s">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="C371" t="s">
         <v>6</v>
@@ -5624,7 +6824,7 @@
         <v>4</v>
       </c>
       <c r="B372" t="s">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="C372" t="s">
         <v>6</v>
@@ -5638,7 +6838,7 @@
         <v>4</v>
       </c>
       <c r="B373" t="s">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="C373" t="s">
         <v>6</v>
@@ -5652,7 +6852,7 @@
         <v>4</v>
       </c>
       <c r="B374" t="s">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="C374" t="s">
         <v>6</v>
@@ -5666,7 +6866,7 @@
         <v>4</v>
       </c>
       <c r="B375" t="s">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="C375" t="s">
         <v>6</v>
@@ -5680,7 +6880,7 @@
         <v>4</v>
       </c>
       <c r="B376" t="s">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="C376" t="s">
         <v>6</v>
@@ -5694,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="B377" t="s">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="C377" t="s">
         <v>6</v>
@@ -5708,7 +6908,7 @@
         <v>4</v>
       </c>
       <c r="B378" t="s">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="C378" t="s">
         <v>6</v>
@@ -5722,7 +6922,7 @@
         <v>4</v>
       </c>
       <c r="B379" t="s">
-        <v>84</v>
+        <v>384</v>
       </c>
       <c r="C379" t="s">
         <v>6</v>
@@ -5736,7 +6936,7 @@
         <v>4</v>
       </c>
       <c r="B380" t="s">
-        <v>85</v>
+        <v>385</v>
       </c>
       <c r="C380" t="s">
         <v>6</v>
@@ -5750,7 +6950,7 @@
         <v>4</v>
       </c>
       <c r="B381" t="s">
-        <v>86</v>
+        <v>386</v>
       </c>
       <c r="C381" t="s">
         <v>6</v>
@@ -5764,7 +6964,7 @@
         <v>4</v>
       </c>
       <c r="B382" t="s">
-        <v>87</v>
+        <v>387</v>
       </c>
       <c r="C382" t="s">
         <v>6</v>
@@ -5778,7 +6978,7 @@
         <v>4</v>
       </c>
       <c r="B383" t="s">
-        <v>88</v>
+        <v>388</v>
       </c>
       <c r="C383" t="s">
         <v>6</v>
@@ -5792,7 +6992,7 @@
         <v>4</v>
       </c>
       <c r="B384" t="s">
-        <v>89</v>
+        <v>389</v>
       </c>
       <c r="C384" t="s">
         <v>6</v>
@@ -5806,7 +7006,7 @@
         <v>4</v>
       </c>
       <c r="B385" t="s">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C385" t="s">
         <v>6</v>
@@ -5820,7 +7020,7 @@
         <v>4</v>
       </c>
       <c r="B386" t="s">
-        <v>91</v>
+        <v>391</v>
       </c>
       <c r="C386" t="s">
         <v>6</v>
@@ -5834,7 +7034,7 @@
         <v>4</v>
       </c>
       <c r="B387" t="s">
-        <v>92</v>
+        <v>392</v>
       </c>
       <c r="C387" t="s">
         <v>6</v>
@@ -5848,7 +7048,7 @@
         <v>4</v>
       </c>
       <c r="B388" t="s">
-        <v>93</v>
+        <v>393</v>
       </c>
       <c r="C388" t="s">
         <v>6</v>
@@ -5862,7 +7062,7 @@
         <v>4</v>
       </c>
       <c r="B389" t="s">
-        <v>94</v>
+        <v>394</v>
       </c>
       <c r="C389" t="s">
         <v>6</v>
@@ -5876,7 +7076,7 @@
         <v>4</v>
       </c>
       <c r="B390" t="s">
-        <v>95</v>
+        <v>395</v>
       </c>
       <c r="C390" t="s">
         <v>6</v>
@@ -5890,7 +7090,7 @@
         <v>4</v>
       </c>
       <c r="B391" t="s">
-        <v>96</v>
+        <v>396</v>
       </c>
       <c r="C391" t="s">
         <v>6</v>
@@ -5904,7 +7104,7 @@
         <v>4</v>
       </c>
       <c r="B392" t="s">
-        <v>97</v>
+        <v>397</v>
       </c>
       <c r="C392" t="s">
         <v>6</v>
@@ -5918,7 +7118,7 @@
         <v>4</v>
       </c>
       <c r="B393" t="s">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="C393" t="s">
         <v>6</v>
@@ -5932,7 +7132,7 @@
         <v>4</v>
       </c>
       <c r="B394" t="s">
-        <v>99</v>
+        <v>399</v>
       </c>
       <c r="C394" t="s">
         <v>6</v>
@@ -5946,7 +7146,7 @@
         <v>4</v>
       </c>
       <c r="B395" t="s">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C395" t="s">
         <v>6</v>
@@ -5960,7 +7160,7 @@
         <v>4</v>
       </c>
       <c r="B396" t="s">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="C396" t="s">
         <v>6</v>
@@ -5974,7 +7174,7 @@
         <v>4</v>
       </c>
       <c r="B397" t="s">
-        <v>102</v>
+        <v>402</v>
       </c>
       <c r="C397" t="s">
         <v>6</v>
@@ -5988,7 +7188,7 @@
         <v>4</v>
       </c>
       <c r="B398" t="s">
-        <v>103</v>
+        <v>403</v>
       </c>
       <c r="C398" t="s">
         <v>6</v>
@@ -6002,7 +7202,7 @@
         <v>4</v>
       </c>
       <c r="B399" t="s">
-        <v>104</v>
+        <v>404</v>
       </c>
       <c r="C399" t="s">
         <v>6</v>
@@ -6016,7 +7216,7 @@
         <v>4</v>
       </c>
       <c r="B400" t="s">
-        <v>105</v>
+        <v>405</v>
       </c>
       <c r="C400" t="s">
         <v>6</v>
@@ -6030,7 +7230,7 @@
         <v>4</v>
       </c>
       <c r="B401" t="s">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="C401" t="s">
         <v>6</v>
@@ -6044,7 +7244,7 @@
         <v>4</v>
       </c>
       <c r="B402" t="s">
-        <v>5</v>
+        <v>407</v>
       </c>
       <c r="C402" t="s">
         <v>6</v>
@@ -6058,7 +7258,7 @@
         <v>4</v>
       </c>
       <c r="B403" t="s">
-        <v>8</v>
+        <v>408</v>
       </c>
       <c r="C403" t="s">
         <v>6</v>
@@ -6072,7 +7272,7 @@
         <v>4</v>
       </c>
       <c r="B404" t="s">
-        <v>9</v>
+        <v>409</v>
       </c>
       <c r="C404" t="s">
         <v>6</v>
@@ -6086,7 +7286,7 @@
         <v>4</v>
       </c>
       <c r="B405" t="s">
-        <v>10</v>
+        <v>410</v>
       </c>
       <c r="C405" t="s">
         <v>6</v>
@@ -6100,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="B406" t="s">
-        <v>11</v>
+        <v>411</v>
       </c>
       <c r="C406" t="s">
         <v>6</v>
@@ -6114,7 +7314,7 @@
         <v>4</v>
       </c>
       <c r="B407" t="s">
-        <v>12</v>
+        <v>412</v>
       </c>
       <c r="C407" t="s">
         <v>6</v>
@@ -6128,7 +7328,7 @@
         <v>4</v>
       </c>
       <c r="B408" t="s">
-        <v>13</v>
+        <v>413</v>
       </c>
       <c r="C408" t="s">
         <v>6</v>
@@ -6142,7 +7342,7 @@
         <v>4</v>
       </c>
       <c r="B409" t="s">
-        <v>14</v>
+        <v>414</v>
       </c>
       <c r="C409" t="s">
         <v>6</v>
@@ -6156,7 +7356,7 @@
         <v>4</v>
       </c>
       <c r="B410" t="s">
-        <v>15</v>
+        <v>415</v>
       </c>
       <c r="C410" t="s">
         <v>6</v>
@@ -6170,7 +7370,7 @@
         <v>4</v>
       </c>
       <c r="B411" t="s">
-        <v>16</v>
+        <v>416</v>
       </c>
       <c r="C411" t="s">
         <v>6</v>
@@ -6184,7 +7384,7 @@
         <v>4</v>
       </c>
       <c r="B412" t="s">
-        <v>17</v>
+        <v>417</v>
       </c>
       <c r="C412" t="s">
         <v>6</v>
@@ -6198,7 +7398,7 @@
         <v>4</v>
       </c>
       <c r="B413" t="s">
-        <v>18</v>
+        <v>418</v>
       </c>
       <c r="C413" t="s">
         <v>6</v>
@@ -6212,7 +7412,7 @@
         <v>4</v>
       </c>
       <c r="B414" t="s">
-        <v>19</v>
+        <v>419</v>
       </c>
       <c r="C414" t="s">
         <v>6</v>
@@ -6226,7 +7426,7 @@
         <v>4</v>
       </c>
       <c r="B415" t="s">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="C415" t="s">
         <v>6</v>
@@ -6240,7 +7440,7 @@
         <v>4</v>
       </c>
       <c r="B416" t="s">
-        <v>21</v>
+        <v>421</v>
       </c>
       <c r="C416" t="s">
         <v>6</v>
@@ -6254,7 +7454,7 @@
         <v>4</v>
       </c>
       <c r="B417" t="s">
-        <v>22</v>
+        <v>422</v>
       </c>
       <c r="C417" t="s">
         <v>6</v>
@@ -6268,7 +7468,7 @@
         <v>4</v>
       </c>
       <c r="B418" t="s">
-        <v>23</v>
+        <v>423</v>
       </c>
       <c r="C418" t="s">
         <v>6</v>
@@ -6282,7 +7482,7 @@
         <v>4</v>
       </c>
       <c r="B419" t="s">
-        <v>24</v>
+        <v>424</v>
       </c>
       <c r="C419" t="s">
         <v>6</v>
@@ -6296,7 +7496,7 @@
         <v>4</v>
       </c>
       <c r="B420" t="s">
-        <v>25</v>
+        <v>425</v>
       </c>
       <c r="C420" t="s">
         <v>6</v>
@@ -6310,7 +7510,7 @@
         <v>4</v>
       </c>
       <c r="B421" t="s">
-        <v>26</v>
+        <v>426</v>
       </c>
       <c r="C421" t="s">
         <v>6</v>
@@ -6324,7 +7524,7 @@
         <v>4</v>
       </c>
       <c r="B422" t="s">
-        <v>27</v>
+        <v>427</v>
       </c>
       <c r="C422" t="s">
         <v>6</v>
@@ -6338,7 +7538,7 @@
         <v>4</v>
       </c>
       <c r="B423" t="s">
-        <v>28</v>
+        <v>428</v>
       </c>
       <c r="C423" t="s">
         <v>6</v>
@@ -6352,7 +7552,7 @@
         <v>4</v>
       </c>
       <c r="B424" t="s">
-        <v>29</v>
+        <v>429</v>
       </c>
       <c r="C424" t="s">
         <v>6</v>
@@ -6366,7 +7566,7 @@
         <v>4</v>
       </c>
       <c r="B425" t="s">
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="C425" t="s">
         <v>6</v>
@@ -6380,7 +7580,7 @@
         <v>4</v>
       </c>
       <c r="B426" t="s">
-        <v>31</v>
+        <v>431</v>
       </c>
       <c r="C426" t="s">
         <v>6</v>
@@ -6394,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="B427" t="s">
-        <v>32</v>
+        <v>432</v>
       </c>
       <c r="C427" t="s">
         <v>6</v>
@@ -6408,7 +7608,7 @@
         <v>4</v>
       </c>
       <c r="B428" t="s">
-        <v>33</v>
+        <v>433</v>
       </c>
       <c r="C428" t="s">
         <v>6</v>
@@ -6422,7 +7622,7 @@
         <v>4</v>
       </c>
       <c r="B429" t="s">
-        <v>34</v>
+        <v>434</v>
       </c>
       <c r="C429" t="s">
         <v>6</v>
@@ -6436,7 +7636,7 @@
         <v>4</v>
       </c>
       <c r="B430" t="s">
-        <v>35</v>
+        <v>435</v>
       </c>
       <c r="C430" t="s">
         <v>6</v>
@@ -6450,7 +7650,7 @@
         <v>4</v>
       </c>
       <c r="B431" t="s">
-        <v>36</v>
+        <v>436</v>
       </c>
       <c r="C431" t="s">
         <v>6</v>
@@ -6464,7 +7664,7 @@
         <v>4</v>
       </c>
       <c r="B432" t="s">
-        <v>37</v>
+        <v>437</v>
       </c>
       <c r="C432" t="s">
         <v>6</v>
@@ -6478,7 +7678,7 @@
         <v>4</v>
       </c>
       <c r="B433" t="s">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="C433" t="s">
         <v>6</v>
@@ -6492,7 +7692,7 @@
         <v>4</v>
       </c>
       <c r="B434" t="s">
-        <v>39</v>
+        <v>439</v>
       </c>
       <c r="C434" t="s">
         <v>6</v>
@@ -6506,7 +7706,7 @@
         <v>4</v>
       </c>
       <c r="B435" t="s">
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="C435" t="s">
         <v>6</v>
@@ -6520,7 +7720,7 @@
         <v>4</v>
       </c>
       <c r="B436" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="C436" t="s">
         <v>6</v>
@@ -6534,7 +7734,7 @@
         <v>4</v>
       </c>
       <c r="B437" t="s">
-        <v>42</v>
+        <v>442</v>
       </c>
       <c r="C437" t="s">
         <v>6</v>
@@ -6548,7 +7748,7 @@
         <v>4</v>
       </c>
       <c r="B438" t="s">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="C438" t="s">
         <v>6</v>
@@ -6562,7 +7762,7 @@
         <v>4</v>
       </c>
       <c r="B439" t="s">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="C439" t="s">
         <v>6</v>
@@ -6576,7 +7776,7 @@
         <v>4</v>
       </c>
       <c r="B440" t="s">
-        <v>45</v>
+        <v>445</v>
       </c>
       <c r="C440" t="s">
         <v>6</v>
@@ -6590,7 +7790,7 @@
         <v>4</v>
       </c>
       <c r="B441" t="s">
-        <v>46</v>
+        <v>446</v>
       </c>
       <c r="C441" t="s">
         <v>6</v>
@@ -6604,7 +7804,7 @@
         <v>4</v>
       </c>
       <c r="B442" t="s">
-        <v>47</v>
+        <v>447</v>
       </c>
       <c r="C442" t="s">
         <v>6</v>
@@ -6618,7 +7818,7 @@
         <v>4</v>
       </c>
       <c r="B443" t="s">
-        <v>48</v>
+        <v>448</v>
       </c>
       <c r="C443" t="s">
         <v>6</v>
@@ -6632,7 +7832,7 @@
         <v>4</v>
       </c>
       <c r="B444" t="s">
-        <v>49</v>
+        <v>449</v>
       </c>
       <c r="C444" t="s">
         <v>6</v>
@@ -6646,7 +7846,7 @@
         <v>4</v>
       </c>
       <c r="B445" t="s">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="C445" t="s">
         <v>6</v>
@@ -6660,7 +7860,7 @@
         <v>4</v>
       </c>
       <c r="B446" t="s">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="C446" t="s">
         <v>6</v>
@@ -6674,7 +7874,7 @@
         <v>4</v>
       </c>
       <c r="B447" t="s">
-        <v>52</v>
+        <v>452</v>
       </c>
       <c r="C447" t="s">
         <v>6</v>
@@ -6688,7 +7888,7 @@
         <v>4</v>
       </c>
       <c r="B448" t="s">
-        <v>53</v>
+        <v>453</v>
       </c>
       <c r="C448" t="s">
         <v>6</v>
@@ -6702,7 +7902,7 @@
         <v>4</v>
       </c>
       <c r="B449" t="s">
-        <v>54</v>
+        <v>454</v>
       </c>
       <c r="C449" t="s">
         <v>6</v>
@@ -6716,7 +7916,7 @@
         <v>4</v>
       </c>
       <c r="B450" t="s">
-        <v>55</v>
+        <v>455</v>
       </c>
       <c r="C450" t="s">
         <v>6</v>
@@ -6730,7 +7930,7 @@
         <v>4</v>
       </c>
       <c r="B451" t="s">
-        <v>56</v>
+        <v>456</v>
       </c>
       <c r="C451" t="s">
         <v>6</v>
@@ -6744,7 +7944,7 @@
         <v>4</v>
       </c>
       <c r="B452" t="s">
-        <v>57</v>
+        <v>457</v>
       </c>
       <c r="C452" t="s">
         <v>6</v>
@@ -6758,7 +7958,7 @@
         <v>4</v>
       </c>
       <c r="B453" t="s">
-        <v>58</v>
+        <v>458</v>
       </c>
       <c r="C453" t="s">
         <v>6</v>
@@ -6772,7 +7972,7 @@
         <v>4</v>
       </c>
       <c r="B454" t="s">
-        <v>59</v>
+        <v>459</v>
       </c>
       <c r="C454" t="s">
         <v>6</v>
@@ -6786,7 +7986,7 @@
         <v>4</v>
       </c>
       <c r="B455" t="s">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="C455" t="s">
         <v>6</v>
@@ -6800,7 +8000,7 @@
         <v>4</v>
       </c>
       <c r="B456" t="s">
-        <v>61</v>
+        <v>461</v>
       </c>
       <c r="C456" t="s">
         <v>6</v>
@@ -6814,7 +8014,7 @@
         <v>4</v>
       </c>
       <c r="B457" t="s">
-        <v>62</v>
+        <v>462</v>
       </c>
       <c r="C457" t="s">
         <v>6</v>
@@ -6828,7 +8028,7 @@
         <v>4</v>
       </c>
       <c r="B458" t="s">
-        <v>63</v>
+        <v>463</v>
       </c>
       <c r="C458" t="s">
         <v>6</v>
@@ -6842,7 +8042,7 @@
         <v>4</v>
       </c>
       <c r="B459" t="s">
-        <v>64</v>
+        <v>464</v>
       </c>
       <c r="C459" t="s">
         <v>6</v>
@@ -6856,7 +8056,7 @@
         <v>4</v>
       </c>
       <c r="B460" t="s">
-        <v>65</v>
+        <v>465</v>
       </c>
       <c r="C460" t="s">
         <v>6</v>
@@ -6870,7 +8070,7 @@
         <v>4</v>
       </c>
       <c r="B461" t="s">
-        <v>66</v>
+        <v>466</v>
       </c>
       <c r="C461" t="s">
         <v>6</v>
@@ -6884,7 +8084,7 @@
         <v>4</v>
       </c>
       <c r="B462" t="s">
-        <v>67</v>
+        <v>467</v>
       </c>
       <c r="C462" t="s">
         <v>6</v>
@@ -6898,7 +8098,7 @@
         <v>4</v>
       </c>
       <c r="B463" t="s">
-        <v>68</v>
+        <v>468</v>
       </c>
       <c r="C463" t="s">
         <v>6</v>
@@ -6912,7 +8112,7 @@
         <v>4</v>
       </c>
       <c r="B464" t="s">
-        <v>69</v>
+        <v>469</v>
       </c>
       <c r="C464" t="s">
         <v>6</v>
@@ -6926,7 +8126,7 @@
         <v>4</v>
       </c>
       <c r="B465" t="s">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="C465" t="s">
         <v>6</v>
@@ -6940,7 +8140,7 @@
         <v>4</v>
       </c>
       <c r="B466" t="s">
-        <v>71</v>
+        <v>471</v>
       </c>
       <c r="C466" t="s">
         <v>6</v>
@@ -6954,7 +8154,7 @@
         <v>4</v>
       </c>
       <c r="B467" t="s">
-        <v>72</v>
+        <v>472</v>
       </c>
       <c r="C467" t="s">
         <v>6</v>
@@ -6968,7 +8168,7 @@
         <v>4</v>
       </c>
       <c r="B468" t="s">
-        <v>73</v>
+        <v>473</v>
       </c>
       <c r="C468" t="s">
         <v>6</v>
@@ -6982,7 +8182,7 @@
         <v>4</v>
       </c>
       <c r="B469" t="s">
-        <v>74</v>
+        <v>474</v>
       </c>
       <c r="C469" t="s">
         <v>6</v>
@@ -6996,7 +8196,7 @@
         <v>4</v>
       </c>
       <c r="B470" t="s">
-        <v>75</v>
+        <v>475</v>
       </c>
       <c r="C470" t="s">
         <v>6</v>
@@ -7010,7 +8210,7 @@
         <v>4</v>
       </c>
       <c r="B471" t="s">
-        <v>76</v>
+        <v>476</v>
       </c>
       <c r="C471" t="s">
         <v>6</v>
@@ -7024,7 +8224,7 @@
         <v>4</v>
       </c>
       <c r="B472" t="s">
-        <v>77</v>
+        <v>477</v>
       </c>
       <c r="C472" t="s">
         <v>6</v>
@@ -7038,7 +8238,7 @@
         <v>4</v>
       </c>
       <c r="B473" t="s">
-        <v>78</v>
+        <v>478</v>
       </c>
       <c r="C473" t="s">
         <v>6</v>
@@ -7052,7 +8252,7 @@
         <v>4</v>
       </c>
       <c r="B474" t="s">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="C474" t="s">
         <v>6</v>
@@ -7066,7 +8266,7 @@
         <v>4</v>
       </c>
       <c r="B475" t="s">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="C475" t="s">
         <v>6</v>
@@ -7080,7 +8280,7 @@
         <v>4</v>
       </c>
       <c r="B476" t="s">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="C476" t="s">
         <v>6</v>
@@ -7094,7 +8294,7 @@
         <v>4</v>
       </c>
       <c r="B477" t="s">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="C477" t="s">
         <v>6</v>
@@ -7108,7 +8308,7 @@
         <v>4</v>
       </c>
       <c r="B478" t="s">
-        <v>83</v>
+        <v>483</v>
       </c>
       <c r="C478" t="s">
         <v>6</v>
@@ -7122,7 +8322,7 @@
         <v>4</v>
       </c>
       <c r="B479" t="s">
-        <v>84</v>
+        <v>484</v>
       </c>
       <c r="C479" t="s">
         <v>6</v>
@@ -7136,7 +8336,7 @@
         <v>4</v>
       </c>
       <c r="B480" t="s">
-        <v>85</v>
+        <v>485</v>
       </c>
       <c r="C480" t="s">
         <v>6</v>
@@ -7150,7 +8350,7 @@
         <v>4</v>
       </c>
       <c r="B481" t="s">
-        <v>86</v>
+        <v>486</v>
       </c>
       <c r="C481" t="s">
         <v>6</v>
@@ -7164,7 +8364,7 @@
         <v>4</v>
       </c>
       <c r="B482" t="s">
-        <v>87</v>
+        <v>487</v>
       </c>
       <c r="C482" t="s">
         <v>6</v>
@@ -7178,7 +8378,7 @@
         <v>4</v>
       </c>
       <c r="B483" t="s">
-        <v>88</v>
+        <v>488</v>
       </c>
       <c r="C483" t="s">
         <v>6</v>
@@ -7192,7 +8392,7 @@
         <v>4</v>
       </c>
       <c r="B484" t="s">
-        <v>89</v>
+        <v>489</v>
       </c>
       <c r="C484" t="s">
         <v>6</v>
@@ -7206,7 +8406,7 @@
         <v>4</v>
       </c>
       <c r="B485" t="s">
-        <v>90</v>
+        <v>490</v>
       </c>
       <c r="C485" t="s">
         <v>6</v>
@@ -7220,7 +8420,7 @@
         <v>4</v>
       </c>
       <c r="B486" t="s">
-        <v>91</v>
+        <v>491</v>
       </c>
       <c r="C486" t="s">
         <v>6</v>
@@ -7234,7 +8434,7 @@
         <v>4</v>
       </c>
       <c r="B487" t="s">
-        <v>92</v>
+        <v>492</v>
       </c>
       <c r="C487" t="s">
         <v>6</v>
@@ -7248,7 +8448,7 @@
         <v>4</v>
       </c>
       <c r="B488" t="s">
-        <v>93</v>
+        <v>493</v>
       </c>
       <c r="C488" t="s">
         <v>6</v>
@@ -7262,7 +8462,7 @@
         <v>4</v>
       </c>
       <c r="B489" t="s">
-        <v>94</v>
+        <v>494</v>
       </c>
       <c r="C489" t="s">
         <v>6</v>
@@ -7276,7 +8476,7 @@
         <v>4</v>
       </c>
       <c r="B490" t="s">
-        <v>95</v>
+        <v>495</v>
       </c>
       <c r="C490" t="s">
         <v>6</v>
@@ -7290,7 +8490,7 @@
         <v>4</v>
       </c>
       <c r="B491" t="s">
-        <v>96</v>
+        <v>496</v>
       </c>
       <c r="C491" t="s">
         <v>6</v>
@@ -7304,7 +8504,7 @@
         <v>4</v>
       </c>
       <c r="B492" t="s">
-        <v>97</v>
+        <v>497</v>
       </c>
       <c r="C492" t="s">
         <v>6</v>
@@ -7318,7 +8518,7 @@
         <v>4</v>
       </c>
       <c r="B493" t="s">
-        <v>98</v>
+        <v>498</v>
       </c>
       <c r="C493" t="s">
         <v>6</v>
@@ -7332,7 +8532,7 @@
         <v>4</v>
       </c>
       <c r="B494" t="s">
-        <v>99</v>
+        <v>499</v>
       </c>
       <c r="C494" t="s">
         <v>6</v>
@@ -7346,7 +8546,7 @@
         <v>4</v>
       </c>
       <c r="B495" t="s">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C495" t="s">
         <v>6</v>
@@ -7360,7 +8560,7 @@
         <v>4</v>
       </c>
       <c r="B496" t="s">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="C496" t="s">
         <v>6</v>
@@ -7374,7 +8574,7 @@
         <v>4</v>
       </c>
       <c r="B497" t="s">
-        <v>102</v>
+        <v>502</v>
       </c>
       <c r="C497" t="s">
         <v>6</v>
@@ -7388,7 +8588,7 @@
         <v>4</v>
       </c>
       <c r="B498" t="s">
-        <v>103</v>
+        <v>503</v>
       </c>
       <c r="C498" t="s">
         <v>6</v>
@@ -7402,7 +8602,7 @@
         <v>4</v>
       </c>
       <c r="B499" t="s">
-        <v>104</v>
+        <v>504</v>
       </c>
       <c r="C499" t="s">
         <v>6</v>
@@ -7416,7 +8616,7 @@
         <v>4</v>
       </c>
       <c r="B500" t="s">
-        <v>105</v>
+        <v>505</v>
       </c>
       <c r="C500" t="s">
         <v>6</v>
@@ -7430,7 +8630,7 @@
         <v>4</v>
       </c>
       <c r="B501" t="s">
-        <v>106</v>
+        <v>506</v>
       </c>
       <c r="C501" t="s">
         <v>6</v>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>iydiacjssburjblaekpe</t>
   </si>
   <si>
-    <t>12/12/22 12:28:59</t>
+    <t>12/12/22 12:29:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>iydiacjssburjblaekpe</t>
   </si>
   <si>
-    <t>12/12/22 12:29:59</t>
+    <t>12/12/22 12:30:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>iydiacjssburjblaekpe</t>
   </si>
   <si>
-    <t>12/12/22 12:30:59</t>
+    <t>12/12/22 12:31:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>iydiacjssburjblaekpe</t>
   </si>
   <si>
-    <t>12/12/22 12:31:59</t>
+    <t>12/12/22 12:32:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>iydiacjssburjblaekpe</t>
   </si>
   <si>
-    <t>12/12/22 12:32:59</t>
+    <t>12/12/22 12:33:59</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/TotalAnalysis.xlsx
+++ b/Reports/TotalAnalysis.xlsx
@@ -32,7 +32,7 @@
     <t>iydiacjssburjblaekpe</t>
   </si>
   <si>
-    <t>12/12/22 12:33:59</t>
+    <t>12/12/22 12:34:59</t>
   </si>
   <si>
     <t>Pass</t>
